--- a/AJALOGI/PROGE_Time recording log.xlsx
+++ b/AJALOGI/PROGE_Time recording log.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kasutaja\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kasutaja\source\repos\AnnabelMa\VL\AJALOGI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918E2265-6E94-4C47-824A-30DE6442B503}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA336F9E-BE9A-47C7-A518-993E10613532}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2616" yWindow="432" windowWidth="16920" windowHeight="11928" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11325" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nädal 1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="193">
   <si>
     <t>Time recording log:</t>
   </si>
@@ -619,6 +619,9 @@
   </si>
   <si>
     <t>ei saa ühendatud omavahel asju</t>
+  </si>
+  <si>
+    <t>Uus projekt korda</t>
   </si>
 </sst>
 </file>
@@ -1553,22 +1556,22 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="11" style="4" customWidth="1"/>
-    <col min="7" max="7" width="55.77734375" customWidth="1"/>
-    <col min="8" max="8" width="63.44140625" customWidth="1"/>
-    <col min="9" max="9" width="3.44140625" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" customWidth="1"/>
-    <col min="14" max="14" width="26.77734375" customWidth="1"/>
+    <col min="7" max="7" width="55.7109375" customWidth="1"/>
+    <col min="8" max="8" width="63.42578125" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" customWidth="1"/>
+    <col min="14" max="14" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1"/>
+    <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:14">
       <c r="A2" s="98" t="s">
         <v>0</v>
@@ -1595,7 +1598,7 @@
       <c r="I3" s="102"/>
       <c r="J3" s="103"/>
     </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1">
+    <row r="4" spans="1:14" ht="15.75" thickBot="1">
       <c r="A4" s="110" t="s">
         <v>1</v>
       </c>
@@ -1615,7 +1618,7 @@
       <c r="I4" s="105"/>
       <c r="J4" s="106"/>
     </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1">
+    <row r="5" spans="1:14" ht="15.75" thickBot="1">
       <c r="A5" s="107"/>
       <c r="B5" s="108"/>
       <c r="C5" s="108"/>
@@ -1627,7 +1630,7 @@
       <c r="I5" s="108"/>
       <c r="J5" s="109"/>
     </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" ht="29.4" thickBot="1">
+    <row r="6" spans="1:14" s="3" customFormat="1" ht="30.75" thickBot="1">
       <c r="A6" s="93" t="s">
         <v>3</v>
       </c>
@@ -1657,7 +1660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1">
+    <row r="7" spans="1:14" ht="15.75" thickBot="1">
       <c r="A7" s="14">
         <v>1</v>
       </c>
@@ -1689,7 +1692,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1">
+    <row r="8" spans="1:14" ht="15.75" thickBot="1">
       <c r="A8" s="14">
         <f>A7+1</f>
         <v>2</v>
@@ -1720,7 +1723,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1">
+    <row r="9" spans="1:14" ht="15.75" thickBot="1">
       <c r="A9" s="14">
         <f t="shared" ref="A9:A22" si="1">A8+1</f>
         <v>3</v>
@@ -1748,7 +1751,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1">
+    <row r="10" spans="1:14" ht="15.75" thickBot="1">
       <c r="A10" s="14">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1778,7 +1781,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1">
+    <row r="11" spans="1:14" ht="15.75" thickBot="1">
       <c r="A11" s="14">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -1806,7 +1809,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1">
+    <row r="12" spans="1:14" ht="15.75" thickBot="1">
       <c r="A12" s="14">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -1834,7 +1837,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1">
+    <row r="13" spans="1:14" ht="15.75" thickBot="1">
       <c r="A13" s="14">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -1862,7 +1865,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:14" ht="15" thickBot="1">
+    <row r="14" spans="1:14" ht="15.75" thickBot="1">
       <c r="A14" s="14">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -1890,7 +1893,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1">
       <c r="A15" s="14">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1918,7 +1921,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1">
       <c r="A16" s="14">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -1950,7 +1953,7 @@
       </c>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1">
+    <row r="17" spans="1:10" ht="15.75" thickBot="1">
       <c r="A17" s="14">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -1978,7 +1981,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="14">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -2008,7 +2011,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="15" thickBot="1">
+    <row r="19" spans="1:10" ht="15.75" thickBot="1">
       <c r="A19" s="14">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -2038,7 +2041,7 @@
       </c>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1">
+    <row r="20" spans="1:10" ht="15.75" thickBot="1">
       <c r="A20" s="14">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -2066,7 +2069,7 @@
       </c>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1">
       <c r="A21" s="14">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -2094,7 +2097,7 @@
       <c r="I21" s="5"/>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1">
       <c r="A22" s="14">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -2112,7 +2115,7 @@
       <c r="I22" s="21"/>
       <c r="J22" s="22"/>
     </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1">
+    <row r="23" spans="1:10" ht="15.75" thickBot="1">
       <c r="A23" s="95" t="s">
         <v>21</v>
       </c>
@@ -2153,22 +2156,22 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="11" style="66" customWidth="1"/>
-    <col min="7" max="7" width="55.77734375" customWidth="1"/>
-    <col min="8" max="8" width="63.44140625" customWidth="1"/>
-    <col min="9" max="9" width="3.44140625" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" customWidth="1"/>
-    <col min="14" max="14" width="26.77734375" customWidth="1"/>
+    <col min="7" max="7" width="55.7109375" customWidth="1"/>
+    <col min="8" max="8" width="63.42578125" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" customWidth="1"/>
+    <col min="14" max="14" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1"/>
+    <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:14">
       <c r="A2" s="98" t="s">
         <v>0</v>
@@ -2195,7 +2198,7 @@
       <c r="I3" s="102"/>
       <c r="J3" s="103"/>
     </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1">
+    <row r="4" spans="1:14" ht="15.75" thickBot="1">
       <c r="A4" s="110" t="s">
         <v>1</v>
       </c>
@@ -2213,7 +2216,7 @@
       <c r="I4" s="105"/>
       <c r="J4" s="106"/>
     </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1">
+    <row r="5" spans="1:14" ht="15.75" thickBot="1">
       <c r="A5" s="107"/>
       <c r="B5" s="108"/>
       <c r="C5" s="108"/>
@@ -2225,7 +2228,7 @@
       <c r="I5" s="108"/>
       <c r="J5" s="109"/>
     </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" ht="29.4" thickBot="1">
+    <row r="6" spans="1:14" s="3" customFormat="1" ht="30.75" thickBot="1">
       <c r="A6" s="93" t="s">
         <v>3</v>
       </c>
@@ -2255,7 +2258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1">
+    <row r="7" spans="1:14" ht="15.75" thickBot="1">
       <c r="A7" s="14">
         <v>1</v>
       </c>
@@ -2277,7 +2280,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1">
+    <row r="8" spans="1:14" ht="15.75" thickBot="1">
       <c r="A8" s="14">
         <f>A7+1</f>
         <v>2</v>
@@ -2298,7 +2301,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1">
+    <row r="9" spans="1:14" ht="15.75" thickBot="1">
       <c r="A9" s="14">
         <f t="shared" ref="A9:A22" si="1">A8+1</f>
         <v>3</v>
@@ -2316,7 +2319,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1">
+    <row r="10" spans="1:14" ht="15.75" thickBot="1">
       <c r="A10" s="14">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -2334,7 +2337,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1">
+    <row r="11" spans="1:14" ht="15.75" thickBot="1">
       <c r="A11" s="14">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -2352,7 +2355,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1">
+    <row r="12" spans="1:14" ht="15.75" thickBot="1">
       <c r="A12" s="14">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -2370,7 +2373,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1">
+    <row r="13" spans="1:14" ht="15.75" thickBot="1">
       <c r="A13" s="14">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -2388,7 +2391,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:14" ht="15" thickBot="1">
+    <row r="14" spans="1:14" ht="15.75" thickBot="1">
       <c r="A14" s="14">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -2406,7 +2409,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1">
       <c r="A15" s="14">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -2424,7 +2427,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1">
       <c r="A16" s="14">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -2442,7 +2445,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1">
+    <row r="17" spans="1:10" ht="15.75" thickBot="1">
       <c r="A17" s="14">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -2460,7 +2463,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="14">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -2478,7 +2481,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="15" thickBot="1">
+    <row r="19" spans="1:10" ht="15.75" thickBot="1">
       <c r="A19" s="14">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -2496,7 +2499,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1">
+    <row r="20" spans="1:10" ht="15.75" thickBot="1">
       <c r="A20" s="14">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -2514,7 +2517,7 @@
       <c r="I20" s="5"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1">
       <c r="A21" s="14">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -2532,7 +2535,7 @@
       <c r="I21" s="5"/>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1">
       <c r="A22" s="14">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -2550,7 +2553,7 @@
       <c r="I22" s="21"/>
       <c r="J22" s="22"/>
     </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1">
+    <row r="23" spans="1:10" ht="15.75" thickBot="1">
       <c r="A23" s="95" t="s">
         <v>102</v>
       </c>
@@ -2591,22 +2594,22 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="11" style="4" customWidth="1"/>
-    <col min="7" max="7" width="55.77734375" customWidth="1"/>
-    <col min="8" max="8" width="63.44140625" customWidth="1"/>
-    <col min="9" max="9" width="3.44140625" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" customWidth="1"/>
-    <col min="14" max="14" width="26.77734375" customWidth="1"/>
+    <col min="7" max="7" width="55.7109375" customWidth="1"/>
+    <col min="8" max="8" width="63.42578125" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" customWidth="1"/>
+    <col min="14" max="14" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1"/>
+    <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:14">
       <c r="A2" s="98" t="s">
         <v>0</v>
@@ -2633,7 +2636,7 @@
       <c r="I3" s="102"/>
       <c r="J3" s="103"/>
     </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1">
+    <row r="4" spans="1:14" ht="15.75" thickBot="1">
       <c r="A4" s="110" t="s">
         <v>1</v>
       </c>
@@ -2653,7 +2656,7 @@
       <c r="I4" s="105"/>
       <c r="J4" s="106"/>
     </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1">
+    <row r="5" spans="1:14" ht="15.75" thickBot="1">
       <c r="A5" s="107"/>
       <c r="B5" s="108"/>
       <c r="C5" s="108"/>
@@ -2665,7 +2668,7 @@
       <c r="I5" s="108"/>
       <c r="J5" s="109"/>
     </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" ht="29.4" thickBot="1">
+    <row r="6" spans="1:14" s="3" customFormat="1" ht="30.75" thickBot="1">
       <c r="A6" s="93" t="s">
         <v>3</v>
       </c>
@@ -2695,7 +2698,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1">
+    <row r="7" spans="1:14" ht="15.75" thickBot="1">
       <c r="A7" s="14">
         <v>1</v>
       </c>
@@ -2729,7 +2732,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1">
+    <row r="8" spans="1:14" ht="15.75" thickBot="1">
       <c r="A8" s="14">
         <f>A7+1</f>
         <v>2</v>
@@ -2762,7 +2765,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1">
+    <row r="9" spans="1:14" ht="15.75" thickBot="1">
       <c r="A9" s="14">
         <f t="shared" ref="A9:A21" si="1">A8+1</f>
         <v>3</v>
@@ -2790,7 +2793,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1">
+    <row r="10" spans="1:14" ht="15.75" thickBot="1">
       <c r="A10" s="14">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -2822,7 +2825,7 @@
       </c>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1">
+    <row r="11" spans="1:14" ht="15.75" thickBot="1">
       <c r="A11" s="14">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -2852,7 +2855,7 @@
       </c>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1">
+    <row r="12" spans="1:14" ht="15.75" thickBot="1">
       <c r="A12" s="14">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -2882,7 +2885,7 @@
       </c>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1">
+    <row r="13" spans="1:14" ht="15.75" thickBot="1">
       <c r="A13" s="14">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -2912,7 +2915,7 @@
       </c>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:14" ht="15" thickBot="1">
+    <row r="14" spans="1:14" ht="15.75" thickBot="1">
       <c r="A14" s="14">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -2942,7 +2945,7 @@
       </c>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1">
       <c r="A15" s="14">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -2972,7 +2975,7 @@
       </c>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1">
       <c r="A16" s="14">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -2998,7 +3001,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1">
+    <row r="17" spans="1:10" ht="15.75" thickBot="1">
       <c r="A17" s="14">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -3024,7 +3027,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="14">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -3052,7 +3055,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="15" thickBot="1">
+    <row r="19" spans="1:10" ht="15.75" thickBot="1">
       <c r="A19" s="14">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -3080,7 +3083,7 @@
       </c>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1">
+    <row r="20" spans="1:10" ht="15.75" thickBot="1">
       <c r="A20" s="14">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -3108,7 +3111,7 @@
       <c r="I20" s="5"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1">
       <c r="A21" s="14">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -3134,7 +3137,7 @@
       <c r="I21" s="5"/>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1">
       <c r="A22" s="14"/>
       <c r="B22" s="26"/>
       <c r="C22" s="27">
@@ -3157,7 +3160,7 @@
       <c r="I22" s="28"/>
       <c r="J22" s="29"/>
     </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1">
+    <row r="23" spans="1:10" ht="15.75" thickBot="1">
       <c r="A23" s="14"/>
       <c r="B23" s="26"/>
       <c r="C23" s="27">
@@ -3180,7 +3183,7 @@
       <c r="I23" s="28"/>
       <c r="J23" s="29"/>
     </row>
-    <row r="24" spans="1:10" ht="15" thickBot="1">
+    <row r="24" spans="1:10" ht="15.75" thickBot="1">
       <c r="A24" s="14"/>
       <c r="B24" s="26"/>
       <c r="C24" s="27">
@@ -3203,7 +3206,7 @@
       <c r="I24" s="28"/>
       <c r="J24" s="29"/>
     </row>
-    <row r="25" spans="1:10" ht="15" thickBot="1">
+    <row r="25" spans="1:10" ht="15.75" thickBot="1">
       <c r="A25" s="14"/>
       <c r="B25" s="26">
         <v>43870</v>
@@ -3230,7 +3233,7 @@
       <c r="I25" s="28"/>
       <c r="J25" s="29"/>
     </row>
-    <row r="26" spans="1:10" ht="15" thickBot="1">
+    <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="14">
         <f>A21+1</f>
         <v>16</v>
@@ -3256,7 +3259,7 @@
       <c r="I26" s="21"/>
       <c r="J26" s="22"/>
     </row>
-    <row r="27" spans="1:10" ht="15" thickBot="1">
+    <row r="27" spans="1:10" ht="15.75" thickBot="1">
       <c r="A27" s="95" t="s">
         <v>21</v>
       </c>
@@ -3297,22 +3300,22 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="55.77734375" customWidth="1"/>
-    <col min="8" max="8" width="63.44140625" customWidth="1"/>
-    <col min="9" max="9" width="3.44140625" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" customWidth="1"/>
-    <col min="14" max="14" width="26.77734375" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="55.7109375" customWidth="1"/>
+    <col min="8" max="8" width="63.42578125" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" customWidth="1"/>
+    <col min="14" max="14" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1"/>
+    <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:14">
       <c r="A2" s="98" t="s">
         <v>0</v>
@@ -3339,7 +3342,7 @@
       <c r="I3" s="102"/>
       <c r="J3" s="103"/>
     </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1">
+    <row r="4" spans="1:14" ht="15.75" thickBot="1">
       <c r="A4" s="110" t="s">
         <v>1</v>
       </c>
@@ -3357,7 +3360,7 @@
       <c r="I4" s="105"/>
       <c r="J4" s="106"/>
     </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1">
+    <row r="5" spans="1:14" ht="15.75" thickBot="1">
       <c r="A5" s="107"/>
       <c r="B5" s="108"/>
       <c r="C5" s="108"/>
@@ -3369,7 +3372,7 @@
       <c r="I5" s="108"/>
       <c r="J5" s="109"/>
     </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" ht="29.4" thickBot="1">
+    <row r="6" spans="1:14" s="3" customFormat="1" ht="30.75" thickBot="1">
       <c r="A6" s="93" t="s">
         <v>3</v>
       </c>
@@ -3399,7 +3402,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1">
+    <row r="7" spans="1:14" ht="15.75" thickBot="1">
       <c r="A7" s="14">
         <v>1</v>
       </c>
@@ -3429,7 +3432,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1">
+    <row r="8" spans="1:14" ht="15.75" thickBot="1">
       <c r="A8" s="14">
         <f>A7+1</f>
         <v>2</v>
@@ -3462,7 +3465,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1">
+    <row r="9" spans="1:14" ht="15.75" thickBot="1">
       <c r="A9" s="14">
         <f t="shared" ref="A9:A22" si="1">A8+1</f>
         <v>3</v>
@@ -3490,7 +3493,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1">
+    <row r="10" spans="1:14" ht="15.75" thickBot="1">
       <c r="A10" s="14">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -3518,7 +3521,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1">
+    <row r="11" spans="1:14" ht="15.75" thickBot="1">
       <c r="A11" s="14">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -3546,7 +3549,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1">
+    <row r="12" spans="1:14" ht="15.75" thickBot="1">
       <c r="A12" s="14">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -3572,7 +3575,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1">
+    <row r="13" spans="1:14" ht="15.75" thickBot="1">
       <c r="A13" s="14">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -3602,7 +3605,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:14" ht="15" thickBot="1">
+    <row r="14" spans="1:14" ht="15.75" thickBot="1">
       <c r="A14" s="14">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -3628,7 +3631,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1">
       <c r="A15" s="14">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -3656,7 +3659,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1">
       <c r="A16" s="14">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -3684,7 +3687,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1">
+    <row r="17" spans="1:10" ht="15.75" thickBot="1">
       <c r="A17" s="14">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -3712,7 +3715,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="14">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -3738,7 +3741,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="15" thickBot="1">
+    <row r="19" spans="1:10" ht="15.75" thickBot="1">
       <c r="A19" s="14">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -3756,7 +3759,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1">
+    <row r="20" spans="1:10" ht="15.75" thickBot="1">
       <c r="A20" s="14">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -3774,7 +3777,7 @@
       <c r="I20" s="5"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1">
       <c r="A21" s="14">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -3792,7 +3795,7 @@
       <c r="I21" s="5"/>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1">
       <c r="A22" s="14">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -3810,7 +3813,7 @@
       <c r="I22" s="21"/>
       <c r="J22" s="22"/>
     </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1">
+    <row r="23" spans="1:10" ht="15.75" thickBot="1">
       <c r="A23" s="95" t="s">
         <v>55</v>
       </c>
@@ -3851,22 +3854,22 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="11" style="4" customWidth="1"/>
-    <col min="7" max="7" width="55.77734375" customWidth="1"/>
-    <col min="8" max="8" width="72.109375" style="39" customWidth="1"/>
-    <col min="9" max="9" width="3.44140625" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" customWidth="1"/>
-    <col min="14" max="14" width="26.77734375" customWidth="1"/>
+    <col min="7" max="7" width="55.7109375" customWidth="1"/>
+    <col min="8" max="8" width="72.140625" style="39" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" customWidth="1"/>
+    <col min="14" max="14" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1"/>
+    <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:14">
       <c r="A2" s="43" t="s">
         <v>0</v>
@@ -3893,7 +3896,7 @@
       <c r="I3" s="47"/>
       <c r="J3" s="48"/>
     </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1">
+    <row r="4" spans="1:14" ht="15.75" thickBot="1">
       <c r="A4" s="49" t="s">
         <v>1</v>
       </c>
@@ -3911,7 +3914,7 @@
       <c r="I4" s="52"/>
       <c r="J4" s="53"/>
     </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1">
+    <row r="5" spans="1:14" ht="15.75" thickBot="1">
       <c r="A5" s="54"/>
       <c r="B5" s="55"/>
       <c r="C5" s="55"/>
@@ -3923,7 +3926,7 @@
       <c r="I5" s="55"/>
       <c r="J5" s="56"/>
     </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" ht="29.4" thickBot="1">
+    <row r="6" spans="1:14" s="3" customFormat="1" ht="30.75" thickBot="1">
       <c r="A6" s="57" t="s">
         <v>3</v>
       </c>
@@ -3953,7 +3956,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1">
+    <row r="7" spans="1:14" ht="15.75" thickBot="1">
       <c r="A7" s="14">
         <v>1</v>
       </c>
@@ -3983,7 +3986,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1">
+    <row r="8" spans="1:14" ht="15.75" thickBot="1">
       <c r="A8" s="14">
         <f>A7+1</f>
         <v>2</v>
@@ -4014,7 +4017,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1">
+    <row r="9" spans="1:14" ht="15.75" thickBot="1">
       <c r="A9" s="14">
         <f t="shared" ref="A9:A22" si="1">A8+1</f>
         <v>3</v>
@@ -4042,7 +4045,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1">
+    <row r="10" spans="1:14" ht="15.75" thickBot="1">
       <c r="A10" s="14">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -4070,7 +4073,7 @@
       </c>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1">
+    <row r="11" spans="1:14" ht="15.75" thickBot="1">
       <c r="A11" s="14">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -4102,7 +4105,7 @@
       </c>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1">
+    <row r="12" spans="1:14" ht="15.75" thickBot="1">
       <c r="A12" s="14">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -4128,7 +4131,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1">
+    <row r="13" spans="1:14" ht="15.75" thickBot="1">
       <c r="A13" s="14">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -4160,7 +4163,7 @@
       </c>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:14" ht="15" thickBot="1">
+    <row r="14" spans="1:14" ht="15.75" thickBot="1">
       <c r="A14" s="14">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -4186,7 +4189,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1">
       <c r="A15" s="14">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -4216,7 +4219,7 @@
       </c>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:14" s="39" customFormat="1" ht="43.8" thickBot="1">
+    <row r="16" spans="1:14" s="39" customFormat="1" ht="60.75" thickBot="1">
       <c r="A16" s="32">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -4248,7 +4251,7 @@
       </c>
       <c r="J16" s="38"/>
     </row>
-    <row r="17" spans="1:10" ht="29.4" thickBot="1">
+    <row r="17" spans="1:10" ht="30.75" thickBot="1">
       <c r="A17" s="14">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -4278,7 +4281,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="14">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -4306,7 +4309,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="15" thickBot="1">
+    <row r="19" spans="1:10" ht="15.75" thickBot="1">
       <c r="A19" s="14">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -4324,7 +4327,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1">
+    <row r="20" spans="1:10" ht="15.75" thickBot="1">
       <c r="A20" s="14">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -4342,7 +4345,7 @@
       <c r="I20" s="5"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1">
       <c r="A21" s="14">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -4360,7 +4363,7 @@
       <c r="I21" s="5"/>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1">
       <c r="A22" s="14">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -4378,7 +4381,7 @@
       <c r="I22" s="21"/>
       <c r="J22" s="22"/>
     </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1">
+    <row r="23" spans="1:10" ht="15.75" thickBot="1">
       <c r="A23" s="40" t="s">
         <v>21</v>
       </c>
@@ -4410,22 +4413,22 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="11" style="66" customWidth="1"/>
-    <col min="7" max="7" width="55.77734375" customWidth="1"/>
-    <col min="8" max="8" width="92.88671875" customWidth="1"/>
-    <col min="9" max="9" width="3.44140625" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" customWidth="1"/>
-    <col min="14" max="14" width="26.77734375" customWidth="1"/>
+    <col min="7" max="7" width="55.7109375" customWidth="1"/>
+    <col min="8" max="8" width="92.85546875" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" customWidth="1"/>
+    <col min="14" max="14" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1"/>
+    <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:14">
       <c r="A2" s="98" t="s">
         <v>0</v>
@@ -4452,7 +4455,7 @@
       <c r="I3" s="102"/>
       <c r="J3" s="103"/>
     </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1">
+    <row r="4" spans="1:14" ht="15.75" thickBot="1">
       <c r="A4" s="110" t="s">
         <v>1</v>
       </c>
@@ -4470,7 +4473,7 @@
       <c r="I4" s="105"/>
       <c r="J4" s="106"/>
     </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1">
+    <row r="5" spans="1:14" ht="15.75" thickBot="1">
       <c r="A5" s="107"/>
       <c r="B5" s="108"/>
       <c r="C5" s="108"/>
@@ -4482,7 +4485,7 @@
       <c r="I5" s="108"/>
       <c r="J5" s="109"/>
     </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" ht="29.4" thickBot="1">
+    <row r="6" spans="1:14" s="3" customFormat="1" ht="30.75" thickBot="1">
       <c r="A6" s="93" t="s">
         <v>3</v>
       </c>
@@ -4512,7 +4515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1">
+    <row r="7" spans="1:14" ht="15.75" thickBot="1">
       <c r="A7" s="14">
         <v>1</v>
       </c>
@@ -4542,7 +4545,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1">
+    <row r="8" spans="1:14" ht="15.75" thickBot="1">
       <c r="A8" s="14">
         <f>A7+1</f>
         <v>2</v>
@@ -4577,7 +4580,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1">
+    <row r="9" spans="1:14" ht="15.75" thickBot="1">
       <c r="A9" s="14">
         <f t="shared" ref="A9:A20" si="1">A8+1</f>
         <v>3</v>
@@ -4605,7 +4608,7 @@
       </c>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1">
+    <row r="10" spans="1:14" ht="15.75" thickBot="1">
       <c r="A10" s="14">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -4635,7 +4638,7 @@
       </c>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1">
+    <row r="11" spans="1:14" ht="15.75" thickBot="1">
       <c r="A11" s="14">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -4665,7 +4668,7 @@
       </c>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1">
+    <row r="12" spans="1:14" ht="15.75" thickBot="1">
       <c r="A12" s="14">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -4693,7 +4696,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1">
+    <row r="13" spans="1:14" ht="15.75" thickBot="1">
       <c r="A13" s="14">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -4723,7 +4726,7 @@
       </c>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:14" ht="15" thickBot="1">
+    <row r="14" spans="1:14" ht="15.75" thickBot="1">
       <c r="A14" s="14">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -4751,7 +4754,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1">
       <c r="A15" s="14">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -4779,7 +4782,7 @@
       </c>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1">
       <c r="A16" s="14">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -4807,7 +4810,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1">
+    <row r="17" spans="1:10" ht="15.75" thickBot="1">
       <c r="A17" s="14">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -4835,7 +4838,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="14">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -4865,7 +4868,7 @@
       </c>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="15" thickBot="1">
+    <row r="19" spans="1:10" ht="15.75" thickBot="1">
       <c r="A19" s="14">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -4895,7 +4898,7 @@
       </c>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1">
+    <row r="20" spans="1:10" ht="15.75" thickBot="1">
       <c r="A20" s="14">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -4925,7 +4928,7 @@
       </c>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1">
       <c r="A21" s="14">
         <v>15</v>
       </c>
@@ -4954,7 +4957,7 @@
       </c>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1">
       <c r="A22" s="14">
         <v>16</v>
       </c>
@@ -4981,7 +4984,7 @@
       <c r="I22" s="5"/>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1">
+    <row r="23" spans="1:10" ht="15.75" thickBot="1">
       <c r="A23" s="14">
         <v>17</v>
       </c>
@@ -5010,7 +5013,7 @@
       </c>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="1:10" ht="15" thickBot="1">
+    <row r="24" spans="1:10" ht="15.75" thickBot="1">
       <c r="A24" s="14">
         <v>18</v>
       </c>
@@ -5027,7 +5030,7 @@
       <c r="I24" s="5"/>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="1:10" ht="15" thickBot="1">
+    <row r="25" spans="1:10" ht="15.75" thickBot="1">
       <c r="A25" s="14">
         <v>19</v>
       </c>
@@ -5044,7 +5047,7 @@
       <c r="I25" s="5"/>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="1:10" ht="15" thickBot="1">
+    <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="14">
         <v>20</v>
       </c>
@@ -5061,7 +5064,7 @@
       <c r="I26" s="5"/>
       <c r="J26" s="8"/>
     </row>
-    <row r="27" spans="1:10" ht="15" thickBot="1">
+    <row r="27" spans="1:10" ht="15.75" thickBot="1">
       <c r="A27" s="14">
         <v>21</v>
       </c>
@@ -5078,7 +5081,7 @@
       <c r="I27" s="21"/>
       <c r="J27" s="22"/>
     </row>
-    <row r="28" spans="1:10" ht="15" thickBot="1">
+    <row r="28" spans="1:10" ht="15.75" thickBot="1">
       <c r="A28" s="112" t="s">
         <v>21</v>
       </c>
@@ -5119,22 +5122,22 @@
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="11" style="66" customWidth="1"/>
-    <col min="7" max="7" width="55.77734375" customWidth="1"/>
-    <col min="8" max="8" width="63.44140625" customWidth="1"/>
-    <col min="9" max="9" width="3.44140625" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" customWidth="1"/>
-    <col min="14" max="14" width="26.77734375" customWidth="1"/>
+    <col min="7" max="7" width="55.7109375" customWidth="1"/>
+    <col min="8" max="8" width="63.42578125" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" customWidth="1"/>
+    <col min="14" max="14" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1"/>
+    <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:14">
       <c r="A2" s="98" t="s">
         <v>0</v>
@@ -5161,7 +5164,7 @@
       <c r="I3" s="102"/>
       <c r="J3" s="103"/>
     </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1">
+    <row r="4" spans="1:14" ht="15.75" thickBot="1">
       <c r="A4" s="110" t="s">
         <v>1</v>
       </c>
@@ -5179,7 +5182,7 @@
       <c r="I4" s="105"/>
       <c r="J4" s="106"/>
     </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1">
+    <row r="5" spans="1:14" ht="15.75" thickBot="1">
       <c r="A5" s="107"/>
       <c r="B5" s="108"/>
       <c r="C5" s="108"/>
@@ -5191,7 +5194,7 @@
       <c r="I5" s="108"/>
       <c r="J5" s="109"/>
     </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" ht="29.4" thickBot="1">
+    <row r="6" spans="1:14" s="3" customFormat="1" ht="30.75" thickBot="1">
       <c r="A6" s="93" t="s">
         <v>3</v>
       </c>
@@ -5221,7 +5224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1">
+    <row r="7" spans="1:14" ht="15.75" thickBot="1">
       <c r="A7" s="14">
         <v>1</v>
       </c>
@@ -5255,7 +5258,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1">
+    <row r="8" spans="1:14" ht="15.75" thickBot="1">
       <c r="A8" s="14">
         <v>2</v>
       </c>
@@ -5287,7 +5290,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1">
+    <row r="9" spans="1:14" ht="15.75" thickBot="1">
       <c r="A9" s="14">
         <v>3</v>
       </c>
@@ -5314,7 +5317,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1">
+    <row r="10" spans="1:14" ht="15.75" thickBot="1">
       <c r="A10" s="14">
         <v>4</v>
       </c>
@@ -5342,7 +5345,7 @@
       </c>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1">
+    <row r="11" spans="1:14" ht="15.75" thickBot="1">
       <c r="A11" s="14">
         <v>5</v>
       </c>
@@ -5371,7 +5374,7 @@
       </c>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1">
+    <row r="12" spans="1:14" ht="15.75" thickBot="1">
       <c r="A12" s="14">
         <v>6</v>
       </c>
@@ -5402,7 +5405,7 @@
       </c>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1">
+    <row r="13" spans="1:14" ht="15.75" thickBot="1">
       <c r="A13" s="14">
         <v>7</v>
       </c>
@@ -5429,7 +5432,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:14" ht="15" thickBot="1">
+    <row r="14" spans="1:14" ht="15.75" thickBot="1">
       <c r="A14" s="14">
         <v>8</v>
       </c>
@@ -5454,7 +5457,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1">
       <c r="A15" s="14">
         <v>9</v>
       </c>
@@ -5481,7 +5484,7 @@
       </c>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1">
       <c r="A16" s="14">
         <v>10</v>
       </c>
@@ -5506,7 +5509,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1">
+    <row r="17" spans="1:10" ht="15.75" thickBot="1">
       <c r="A17" s="14">
         <v>11</v>
       </c>
@@ -5535,7 +5538,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="14">
         <v>12</v>
       </c>
@@ -5564,7 +5567,7 @@
       </c>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="15" thickBot="1">
+    <row r="19" spans="1:10" ht="15.75" thickBot="1">
       <c r="A19" s="14">
         <v>13</v>
       </c>
@@ -5589,7 +5592,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1">
+    <row r="20" spans="1:10" ht="15.75" thickBot="1">
       <c r="A20" s="14">
         <v>14</v>
       </c>
@@ -5614,7 +5617,7 @@
       <c r="I20" s="5"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1">
       <c r="A21" s="14">
         <v>15</v>
       </c>
@@ -5643,7 +5646,7 @@
       <c r="I21" s="5"/>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1">
       <c r="A22" s="14">
         <v>16</v>
       </c>
@@ -5672,7 +5675,7 @@
       </c>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1">
+    <row r="23" spans="1:10" ht="15.75" thickBot="1">
       <c r="A23" s="14">
         <v>17</v>
       </c>
@@ -5703,7 +5706,7 @@
       </c>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="1:10" ht="15" thickBot="1">
+    <row r="24" spans="1:10" ht="15.75" thickBot="1">
       <c r="A24" s="14">
         <v>18</v>
       </c>
@@ -5732,7 +5735,7 @@
       </c>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="1:10" ht="15" thickBot="1">
+    <row r="25" spans="1:10" ht="15.75" thickBot="1">
       <c r="A25" s="14">
         <v>19</v>
       </c>
@@ -5749,7 +5752,7 @@
       <c r="I25" s="5"/>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="1:10" ht="15" thickBot="1">
+    <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="14">
         <v>20</v>
       </c>
@@ -5766,7 +5769,7 @@
       <c r="I26" s="21"/>
       <c r="J26" s="22"/>
     </row>
-    <row r="27" spans="1:10" ht="15" thickBot="1">
+    <row r="27" spans="1:10" ht="15.75" thickBot="1">
       <c r="A27" s="95" t="s">
         <v>102</v>
       </c>
@@ -5807,24 +5810,24 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="69" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="70" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" style="71" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="71" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" style="69" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="69" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="70" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="71" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="71" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="69" customWidth="1"/>
     <col min="6" max="6" width="11" style="72" customWidth="1"/>
-    <col min="7" max="7" width="55.77734375" style="69" customWidth="1"/>
-    <col min="8" max="8" width="63.44140625" style="69" customWidth="1"/>
-    <col min="9" max="9" width="3.44140625" style="69" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" style="69" customWidth="1"/>
-    <col min="11" max="13" width="8.77734375" style="69"/>
-    <col min="14" max="14" width="26.77734375" style="69" customWidth="1"/>
-    <col min="15" max="16384" width="8.77734375" style="69"/>
+    <col min="7" max="7" width="55.7109375" style="69" customWidth="1"/>
+    <col min="8" max="8" width="63.42578125" style="69" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" style="69" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="69" customWidth="1"/>
+    <col min="11" max="13" width="8.7109375" style="69"/>
+    <col min="14" max="14" width="26.7109375" style="69" customWidth="1"/>
+    <col min="15" max="16384" width="8.7109375" style="69"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1"/>
+    <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:14">
       <c r="A2" s="98" t="s">
         <v>0</v>
@@ -5851,7 +5854,7 @@
       <c r="I3" s="102"/>
       <c r="J3" s="103"/>
     </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1">
+    <row r="4" spans="1:14" ht="15.75" thickBot="1">
       <c r="A4" s="110" t="s">
         <v>1</v>
       </c>
@@ -5869,7 +5872,7 @@
       <c r="I4" s="116"/>
       <c r="J4" s="117"/>
     </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1">
+    <row r="5" spans="1:14" ht="15.75" thickBot="1">
       <c r="A5" s="118"/>
       <c r="B5" s="119"/>
       <c r="C5" s="119"/>
@@ -5881,7 +5884,7 @@
       <c r="I5" s="119"/>
       <c r="J5" s="120"/>
     </row>
-    <row r="6" spans="1:14" s="73" customFormat="1" ht="29.4" thickBot="1">
+    <row r="6" spans="1:14" s="73" customFormat="1" ht="30.75" thickBot="1">
       <c r="A6" s="93" t="s">
         <v>3</v>
       </c>
@@ -5911,7 +5914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1">
+    <row r="7" spans="1:14" ht="15.75" thickBot="1">
       <c r="A7" s="74">
         <v>1</v>
       </c>
@@ -5943,7 +5946,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1">
+    <row r="8" spans="1:14" ht="15.75" thickBot="1">
       <c r="A8" s="74">
         <f>A7+1</f>
         <v>2</v>
@@ -5974,7 +5977,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1">
+    <row r="9" spans="1:14" ht="15.75" thickBot="1">
       <c r="A9" s="74">
         <f>A8+1</f>
         <v>3</v>
@@ -6002,7 +6005,7 @@
       </c>
       <c r="J9" s="83"/>
     </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1">
+    <row r="10" spans="1:14" ht="15.75" thickBot="1">
       <c r="A10" s="74">
         <v>4</v>
       </c>
@@ -6031,7 +6034,7 @@
       <c r="I10" s="82"/>
       <c r="J10" s="83"/>
     </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1">
+    <row r="11" spans="1:14" ht="15.75" thickBot="1">
       <c r="A11" s="74">
         <f>A10+1</f>
         <v>5</v>
@@ -6061,7 +6064,7 @@
       </c>
       <c r="J11" s="83"/>
     </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1">
+    <row r="12" spans="1:14" ht="15.75" thickBot="1">
       <c r="A12" s="74">
         <f>A11+1</f>
         <v>6</v>
@@ -6089,7 +6092,7 @@
       <c r="I12" s="82"/>
       <c r="J12" s="83"/>
     </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1">
+    <row r="13" spans="1:14" ht="15.75" thickBot="1">
       <c r="A13" s="74">
         <v>7</v>
       </c>
@@ -6116,7 +6119,7 @@
       </c>
       <c r="J13" s="83"/>
     </row>
-    <row r="14" spans="1:14" ht="15" thickBot="1">
+    <row r="14" spans="1:14" ht="15.75" thickBot="1">
       <c r="A14" s="74">
         <f>A13+1</f>
         <v>8</v>
@@ -6144,7 +6147,7 @@
       <c r="I14" s="82"/>
       <c r="J14" s="83"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1">
       <c r="A15" s="74">
         <f>A14+1</f>
         <v>9</v>
@@ -6172,7 +6175,7 @@
       </c>
       <c r="J15" s="83"/>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1">
       <c r="A16" s="74">
         <v>10</v>
       </c>
@@ -6197,7 +6200,7 @@
       <c r="I16" s="82"/>
       <c r="J16" s="83"/>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1">
+    <row r="17" spans="1:10" ht="15.75" thickBot="1">
       <c r="A17" s="74">
         <f>A16+1</f>
         <v>11</v>
@@ -6227,7 +6230,7 @@
       <c r="I17" s="82"/>
       <c r="J17" s="83"/>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="74">
         <f>A17+1</f>
         <v>12</v>
@@ -6253,7 +6256,7 @@
       <c r="I18" s="82"/>
       <c r="J18" s="83"/>
     </row>
-    <row r="19" spans="1:10" ht="15" thickBot="1">
+    <row r="19" spans="1:10" ht="15.75" thickBot="1">
       <c r="A19" s="74">
         <v>13</v>
       </c>
@@ -6278,7 +6281,7 @@
       <c r="I19" s="82"/>
       <c r="J19" s="83"/>
     </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1">
+    <row r="20" spans="1:10" ht="15.75" thickBot="1">
       <c r="A20" s="74">
         <f>A19+1</f>
         <v>14</v>
@@ -6304,7 +6307,7 @@
       <c r="I20" s="82"/>
       <c r="J20" s="83"/>
     </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1">
       <c r="A21" s="74">
         <f>A20+1</f>
         <v>15</v>
@@ -6332,7 +6335,7 @@
       <c r="I21" s="82"/>
       <c r="J21" s="83"/>
     </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1">
       <c r="A22" s="74">
         <v>16</v>
       </c>
@@ -6361,7 +6364,7 @@
       </c>
       <c r="J22" s="83"/>
     </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1">
+    <row r="23" spans="1:10" ht="15.75" thickBot="1">
       <c r="A23" s="74">
         <f>A22+1</f>
         <v>17</v>
@@ -6387,7 +6390,7 @@
       <c r="I23" s="82"/>
       <c r="J23" s="83"/>
     </row>
-    <row r="24" spans="1:10" ht="15" thickBot="1">
+    <row r="24" spans="1:10" ht="15.75" thickBot="1">
       <c r="A24" s="74">
         <f>A23+1</f>
         <v>18</v>
@@ -6415,7 +6418,7 @@
       </c>
       <c r="J24" s="83"/>
     </row>
-    <row r="25" spans="1:10" ht="15" thickBot="1">
+    <row r="25" spans="1:10" ht="15.75" thickBot="1">
       <c r="A25" s="74">
         <v>19</v>
       </c>
@@ -6446,7 +6449,7 @@
       </c>
       <c r="J25" s="83"/>
     </row>
-    <row r="26" spans="1:10" ht="15" thickBot="1">
+    <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="74">
         <f>A25+1</f>
         <v>20</v>
@@ -6478,7 +6481,7 @@
       </c>
       <c r="J26" s="83"/>
     </row>
-    <row r="27" spans="1:10" ht="15" thickBot="1">
+    <row r="27" spans="1:10" ht="15.75" thickBot="1">
       <c r="A27" s="74">
         <f>A26+1</f>
         <v>21</v>
@@ -6508,7 +6511,7 @@
       </c>
       <c r="J27" s="83"/>
     </row>
-    <row r="28" spans="1:10" ht="15" thickBot="1">
+    <row r="28" spans="1:10" ht="15.75" thickBot="1">
       <c r="A28" s="74">
         <v>22</v>
       </c>
@@ -6525,7 +6528,7 @@
       <c r="I28" s="82"/>
       <c r="J28" s="83"/>
     </row>
-    <row r="29" spans="1:10" ht="15" thickBot="1">
+    <row r="29" spans="1:10" ht="15.75" thickBot="1">
       <c r="A29" s="74">
         <f>A28+1</f>
         <v>23</v>
@@ -6543,7 +6546,7 @@
       <c r="I29" s="82"/>
       <c r="J29" s="83"/>
     </row>
-    <row r="30" spans="1:10" ht="15" thickBot="1">
+    <row r="30" spans="1:10" ht="15.75" thickBot="1">
       <c r="A30" s="74">
         <f>A29+1</f>
         <v>24</v>
@@ -6561,7 +6564,7 @@
       <c r="I30" s="82"/>
       <c r="J30" s="83"/>
     </row>
-    <row r="31" spans="1:10" ht="15" thickBot="1">
+    <row r="31" spans="1:10" ht="15.75" thickBot="1">
       <c r="A31" s="74">
         <v>25</v>
       </c>
@@ -6578,7 +6581,7 @@
       <c r="I31" s="82"/>
       <c r="J31" s="83"/>
     </row>
-    <row r="32" spans="1:10" ht="15" thickBot="1">
+    <row r="32" spans="1:10" ht="15.75" thickBot="1">
       <c r="A32" s="74">
         <f>A31+1</f>
         <v>26</v>
@@ -6596,7 +6599,7 @@
       <c r="I32" s="87"/>
       <c r="J32" s="88"/>
     </row>
-    <row r="33" spans="1:10" ht="15" thickBot="1">
+    <row r="33" spans="1:10" ht="15.75" thickBot="1">
       <c r="A33" s="95" t="s">
         <v>102</v>
       </c>
@@ -6637,22 +6640,22 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="11" style="66" customWidth="1"/>
-    <col min="7" max="7" width="55.77734375" customWidth="1"/>
-    <col min="8" max="8" width="63.44140625" customWidth="1"/>
-    <col min="9" max="9" width="3.44140625" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" customWidth="1"/>
-    <col min="14" max="14" width="26.77734375" customWidth="1"/>
+    <col min="7" max="7" width="55.7109375" customWidth="1"/>
+    <col min="8" max="8" width="63.42578125" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" customWidth="1"/>
+    <col min="14" max="14" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1"/>
+    <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:14">
       <c r="A2" s="98" t="s">
         <v>0</v>
@@ -6679,7 +6682,7 @@
       <c r="I3" s="102"/>
       <c r="J3" s="103"/>
     </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1">
+    <row r="4" spans="1:14" ht="15.75" thickBot="1">
       <c r="A4" s="110" t="s">
         <v>1</v>
       </c>
@@ -6697,7 +6700,7 @@
       <c r="I4" s="105"/>
       <c r="J4" s="106"/>
     </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1">
+    <row r="5" spans="1:14" ht="15.75" thickBot="1">
       <c r="A5" s="107"/>
       <c r="B5" s="108"/>
       <c r="C5" s="108"/>
@@ -6709,7 +6712,7 @@
       <c r="I5" s="108"/>
       <c r="J5" s="109"/>
     </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" ht="29.4" thickBot="1">
+    <row r="6" spans="1:14" s="3" customFormat="1" ht="30.75" thickBot="1">
       <c r="A6" s="93" t="s">
         <v>3</v>
       </c>
@@ -6739,7 +6742,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1">
+    <row r="7" spans="1:14" ht="15.75" thickBot="1">
       <c r="A7" s="14">
         <v>1</v>
       </c>
@@ -6773,7 +6776,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1">
+    <row r="8" spans="1:14" ht="15.75" thickBot="1">
       <c r="A8" s="14">
         <v>2</v>
       </c>
@@ -6805,7 +6808,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1">
+    <row r="9" spans="1:14" ht="15.75" thickBot="1">
       <c r="A9" s="14">
         <v>3</v>
       </c>
@@ -6830,7 +6833,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1">
+    <row r="10" spans="1:14" ht="15.75" thickBot="1">
       <c r="A10" s="14">
         <v>4</v>
       </c>
@@ -6857,7 +6860,7 @@
       </c>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1">
+    <row r="11" spans="1:14" ht="15.75" thickBot="1">
       <c r="A11" s="14">
         <v>5</v>
       </c>
@@ -6882,7 +6885,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1">
+    <row r="12" spans="1:14" ht="15.75" thickBot="1">
       <c r="A12" s="14">
         <v>6</v>
       </c>
@@ -6911,7 +6914,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1">
+    <row r="13" spans="1:14" ht="15.75" thickBot="1">
       <c r="A13" s="14">
         <v>7</v>
       </c>
@@ -6936,7 +6939,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:14" ht="15" thickBot="1">
+    <row r="14" spans="1:14" ht="15.75" thickBot="1">
       <c r="A14" s="14">
         <v>8</v>
       </c>
@@ -6963,7 +6966,7 @@
       </c>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1">
       <c r="A15" s="14">
         <v>9</v>
       </c>
@@ -6990,7 +6993,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1">
       <c r="A16" s="14">
         <v>10</v>
       </c>
@@ -7019,7 +7022,7 @@
       </c>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1">
+    <row r="17" spans="1:10" ht="15.75" thickBot="1">
       <c r="A17" s="14">
         <v>11</v>
       </c>
@@ -7048,7 +7051,7 @@
       </c>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="14">
         <v>12</v>
       </c>
@@ -7075,7 +7078,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="15" thickBot="1">
+    <row r="19" spans="1:10" ht="15.75" thickBot="1">
       <c r="A19" s="14">
         <v>13</v>
       </c>
@@ -7100,7 +7103,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1">
+    <row r="20" spans="1:10" ht="15.75" thickBot="1">
       <c r="A20" s="14">
         <v>14</v>
       </c>
@@ -7127,7 +7130,7 @@
       <c r="I20" s="5"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1">
       <c r="A21" s="14">
         <v>15</v>
       </c>
@@ -7156,7 +7159,7 @@
       </c>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1">
       <c r="A22" s="14">
         <v>16</v>
       </c>
@@ -7183,7 +7186,7 @@
       <c r="I22" s="5"/>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1">
+    <row r="23" spans="1:10" ht="15.75" thickBot="1">
       <c r="A23" s="14">
         <v>17</v>
       </c>
@@ -7210,7 +7213,7 @@
       <c r="I23" s="5"/>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="1:10" ht="15" thickBot="1">
+    <row r="24" spans="1:10" ht="15.75" thickBot="1">
       <c r="A24" s="14">
         <v>18</v>
       </c>
@@ -7235,7 +7238,7 @@
       <c r="I24" s="5"/>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="1:10" ht="15" thickBot="1">
+    <row r="25" spans="1:10" ht="15.75" thickBot="1">
       <c r="A25" s="14">
         <v>19</v>
       </c>
@@ -7252,7 +7255,7 @@
       <c r="I25" s="5"/>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="1:10" ht="15" thickBot="1">
+    <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="14">
         <v>20</v>
       </c>
@@ -7269,7 +7272,7 @@
       <c r="I26" s="21"/>
       <c r="J26" s="22"/>
     </row>
-    <row r="27" spans="1:10" ht="15" thickBot="1">
+    <row r="27" spans="1:10" ht="15.75" thickBot="1">
       <c r="A27" s="95" t="s">
         <v>102</v>
       </c>
@@ -7306,25 +7309,25 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="87" zoomScaleNormal="139" zoomScalePageLayoutView="139" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="11" style="66" customWidth="1"/>
-    <col min="7" max="7" width="55.77734375" customWidth="1"/>
-    <col min="8" max="8" width="63.44140625" customWidth="1"/>
-    <col min="9" max="9" width="3.44140625" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" customWidth="1"/>
-    <col min="14" max="14" width="26.77734375" customWidth="1"/>
+    <col min="7" max="7" width="55.7109375" customWidth="1"/>
+    <col min="8" max="8" width="63.42578125" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" customWidth="1"/>
+    <col min="14" max="14" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1"/>
+    <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:14">
       <c r="A2" s="98" t="s">
         <v>0</v>
@@ -7351,7 +7354,7 @@
       <c r="I3" s="102"/>
       <c r="J3" s="103"/>
     </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1">
+    <row r="4" spans="1:14" ht="15.75" thickBot="1">
       <c r="A4" s="110" t="s">
         <v>1</v>
       </c>
@@ -7369,7 +7372,7 @@
       <c r="I4" s="105"/>
       <c r="J4" s="106"/>
     </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1">
+    <row r="5" spans="1:14" ht="15.75" thickBot="1">
       <c r="A5" s="107"/>
       <c r="B5" s="108"/>
       <c r="C5" s="108"/>
@@ -7381,7 +7384,7 @@
       <c r="I5" s="108"/>
       <c r="J5" s="109"/>
     </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" ht="29.4" thickBot="1">
+    <row r="6" spans="1:14" s="3" customFormat="1" ht="30.75" thickBot="1">
       <c r="A6" s="93" t="s">
         <v>3</v>
       </c>
@@ -7411,7 +7414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1">
+    <row r="7" spans="1:14" ht="15.75" thickBot="1">
       <c r="A7" s="14">
         <v>1</v>
       </c>
@@ -7445,7 +7448,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1">
+    <row r="8" spans="1:14" ht="15.75" thickBot="1">
       <c r="A8" s="14">
         <f>A7+1</f>
         <v>2</v>
@@ -7478,7 +7481,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1">
+    <row r="9" spans="1:14" ht="15.75" thickBot="1">
       <c r="A9" s="14">
         <f t="shared" ref="A9:A23" si="1">A8+1</f>
         <v>3</v>
@@ -7510,7 +7513,7 @@
       </c>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1">
+    <row r="10" spans="1:14" ht="15.75" thickBot="1">
       <c r="A10" s="14">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -7536,7 +7539,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1">
+    <row r="11" spans="1:14" ht="15.75" thickBot="1">
       <c r="A11" s="14">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -7566,7 +7569,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1">
+    <row r="12" spans="1:14" ht="15.75" thickBot="1">
       <c r="A12" s="14">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -7594,7 +7597,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1">
+    <row r="13" spans="1:14" ht="15.75" thickBot="1">
       <c r="A13" s="14">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -7626,7 +7629,7 @@
       </c>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:14" ht="15" thickBot="1">
+    <row r="14" spans="1:14" ht="15.75" thickBot="1">
       <c r="A14" s="14"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7">
@@ -7649,7 +7652,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1">
       <c r="A15" s="14">
         <f>A13+1</f>
         <v>8</v>
@@ -7679,7 +7682,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1">
       <c r="A16" s="14">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -7705,7 +7708,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1">
+    <row r="17" spans="1:10" ht="15.75" thickBot="1">
       <c r="A17" s="14">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -7733,25 +7736,33 @@
       <c r="I17" s="5"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="14">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="5"/>
+      <c r="C18" s="7">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0.81319444444444444</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
       <c r="F18" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="5"/>
+        <v>11.000000000000121</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>192</v>
+      </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="15" thickBot="1">
+    <row r="19" spans="1:10" ht="15.75" thickBot="1">
       <c r="A19" s="14">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -7769,7 +7780,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1">
+    <row r="20" spans="1:10" ht="15.75" thickBot="1">
       <c r="A20" s="14">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -7787,7 +7798,7 @@
       <c r="I20" s="5"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1">
       <c r="A21" s="14">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -7805,7 +7816,7 @@
       <c r="I21" s="5"/>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1">
       <c r="A22" s="14">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -7823,7 +7834,7 @@
       <c r="I22" s="5"/>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1">
+    <row r="23" spans="1:10" ht="15.75" thickBot="1">
       <c r="A23" s="14">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -7841,7 +7852,7 @@
       <c r="I23" s="21"/>
       <c r="J23" s="22"/>
     </row>
-    <row r="24" spans="1:10" ht="15" thickBot="1">
+    <row r="24" spans="1:10" ht="15.75" thickBot="1">
       <c r="A24" s="95" t="s">
         <v>102</v>
       </c>
@@ -7851,7 +7862,7 @@
       <c r="E24" s="97"/>
       <c r="F24" s="31">
         <f>SUM(F7:F23)</f>
-        <v>374.99999999999983</v>
+        <v>385.99999999999994</v>
       </c>
       <c r="G24" s="23"/>
       <c r="H24" s="23"/>

--- a/AJALOGI/PROGE_Time recording log.xlsx
+++ b/AJALOGI/PROGE_Time recording log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kasutaja\source\repos\AnnabelMa\VL\AJALOGI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA336F9E-BE9A-47C7-A518-993E10613532}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B314C783-FC6B-4121-852A-71C74FE5A127}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11325" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="1440" windowWidth="21600" windowHeight="11325" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nädal 1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="196">
   <si>
     <t>Time recording log:</t>
   </si>
@@ -622,6 +622,15 @@
   </si>
   <si>
     <t>Uus projekt korda</t>
+  </si>
+  <si>
+    <t>VL48</t>
+  </si>
+  <si>
+    <t>VL48 jätk</t>
+  </si>
+  <si>
+    <t>Quantity façade testid ja klassid</t>
   </si>
 </sst>
 </file>
@@ -7306,10 +7315,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0979A2CD-0C4F-4F3F-AF21-9859F6F56A6C}">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="87" zoomScaleNormal="139" zoomScalePageLayoutView="139" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -7679,7 +7689,9 @@
       <c r="H15" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="I15" s="5"/>
+      <c r="I15" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" thickBot="1">
@@ -7768,14 +7780,22 @@
         <v>12</v>
       </c>
       <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="5"/>
+      <c r="C19" s="7">
+        <v>0.85486111111111107</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0.91736111111111107</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
       <c r="F19" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="5"/>
+        <v>90</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>193</v>
+      </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="8"/>
@@ -7786,16 +7806,28 @@
         <v>13</v>
       </c>
       <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="5"/>
+      <c r="C20" s="7">
+        <v>0.94305555555555554</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
       <c r="F20" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+        <v>34.000000000000043</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="J20" s="8"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1">
@@ -7862,7 +7894,7 @@
       <c r="E24" s="97"/>
       <c r="F24" s="31">
         <f>SUM(F7:F23)</f>
-        <v>385.99999999999994</v>
+        <v>510</v>
       </c>
       <c r="G24" s="23"/>
       <c r="H24" s="23"/>

--- a/AJALOGI/PROGE_Time recording log.xlsx
+++ b/AJALOGI/PROGE_Time recording log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kasutaja\source\repos\AnnabelMa\VL\AJALOGI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B314C783-FC6B-4121-852A-71C74FE5A127}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B4AEB7-AC41-4635-816B-156936738E5E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1440" windowWidth="21600" windowHeight="11325" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12855" yWindow="1755" windowWidth="21600" windowHeight="11325" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nädal 1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="200">
   <si>
     <t>Time recording log:</t>
   </si>
@@ -631,6 +631,18 @@
   </si>
   <si>
     <t>Quantity façade testid ja klassid</t>
+  </si>
+  <si>
+    <t>VL49</t>
+  </si>
+  <si>
+    <t>Infra BaseRepository testid</t>
+  </si>
+  <si>
+    <t>VL50</t>
+  </si>
+  <si>
+    <t>Infra FilteredRepository testid</t>
   </si>
 </sst>
 </file>
@@ -7316,10 +7328,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0979A2CD-0C4F-4F3F-AF21-9859F6F56A6C}">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="87" zoomScaleNormal="139" zoomScalePageLayoutView="139" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="87" zoomScaleNormal="139" zoomScalePageLayoutView="139" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -7474,7 +7486,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="30">
-        <f t="shared" ref="F8:F23" si="0">(D8-C8)*1440</f>
+        <f t="shared" ref="F8:F26" si="0">(D8-C8)*1440</f>
         <v>37.000000000000028</v>
       </c>
       <c r="G8" s="5" t="s">
@@ -7493,7 +7505,7 @@
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1">
       <c r="A9" s="14">
-        <f t="shared" ref="A9:A23" si="1">A8+1</f>
+        <f t="shared" ref="A9:A26" si="1">A8+1</f>
         <v>3</v>
       </c>
       <c r="B9" s="6">
@@ -7640,7 +7652,9 @@
       <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A14" s="14"/>
+      <c r="A14" s="14">
+        <v>8</v>
+      </c>
       <c r="B14" s="6"/>
       <c r="C14" s="7">
         <v>0.8666666666666667</v>
@@ -7664,8 +7678,7 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1">
       <c r="A15" s="14">
-        <f>A13+1</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B15" s="6">
         <v>43921</v>
@@ -7697,7 +7710,7 @@
     <row r="16" spans="1:14" ht="15.75" thickBot="1">
       <c r="A16" s="14">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="7">
@@ -7723,7 +7736,7 @@
     <row r="17" spans="1:10" ht="15.75" thickBot="1">
       <c r="A17" s="14">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="7">
@@ -7751,7 +7764,7 @@
     <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="14">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="7">
@@ -7777,7 +7790,7 @@
     <row r="19" spans="1:10" ht="15.75" thickBot="1">
       <c r="A19" s="14">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="7">
@@ -7803,7 +7816,7 @@
     <row r="20" spans="1:10" ht="15.75" thickBot="1">
       <c r="A20" s="14">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="7">
@@ -7833,77 +7846,135 @@
     <row r="21" spans="1:10" ht="15.75" thickBot="1">
       <c r="A21" s="14">
         <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B21" s="6">
+        <v>43922</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+      <c r="F21" s="30">
+        <f t="shared" si="0"/>
+        <v>61.000000000000021</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="I21" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
       <c r="J21" s="8"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1">
       <c r="A22" s="14">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>199</v>
+      </c>
       <c r="I22" s="5"/>
       <c r="J22" s="8"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1">
       <c r="A23" s="14">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="22"/>
+        <v>17</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="8"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A24" s="95" t="s">
+      <c r="A24" s="14">
+        <v>18</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A25" s="14">
+        <v>19</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A26" s="14">
+        <v>20</v>
+      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="22"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A27" s="95" t="s">
         <v>102</v>
       </c>
-      <c r="B24" s="96"/>
-      <c r="C24" s="96"/>
-      <c r="D24" s="96"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="31">
-        <f>SUM(F7:F23)</f>
-        <v>510</v>
-      </c>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="24"/>
+      <c r="B27" s="96"/>
+      <c r="C27" s="96"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="31">
+        <f>SUM(F7:F26)</f>
+        <v>571</v>
+      </c>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A27:E27"/>
     <mergeCell ref="A2:J3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:E4"/>

--- a/AJALOGI/PROGE_Time recording log.xlsx
+++ b/AJALOGI/PROGE_Time recording log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kasutaja\source\repos\AnnabelMa\VL\AJALOGI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B4AEB7-AC41-4635-816B-156936738E5E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F2C4CA-2C29-4551-9538-A1A4F50DAB92}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12855" yWindow="1755" windowWidth="21600" windowHeight="11325" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10485" yWindow="3285" windowWidth="21600" windowHeight="11325" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nädal 1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="205">
   <si>
     <t>Time recording log:</t>
   </si>
@@ -643,6 +643,21 @@
   </si>
   <si>
     <t>Infra FilteredRepository testid</t>
+  </si>
+  <si>
+    <t>VL51</t>
+  </si>
+  <si>
+    <t>VL52</t>
+  </si>
+  <si>
+    <t>Infra PaginatedRepository testid</t>
+  </si>
+  <si>
+    <t> Infra MeasuresRepository testid</t>
+  </si>
+  <si>
+    <t>VL51 jätk</t>
   </si>
 </sst>
 </file>
@@ -652,7 +667,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -679,16 +694,43 @@
       <name val="Calibri "/>
       <charset val="186"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="186"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1002,11 +1044,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1256,8 +1314,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7328,16 +7438,16 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0979A2CD-0C4F-4F3F-AF21-9859F6F56A6C}">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="87" zoomScaleNormal="139" zoomScalePageLayoutView="139" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="87" zoomScaleNormal="139" zoomScalePageLayoutView="139" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="6.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="6.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
@@ -7406,575 +7516,617 @@
       <c r="I5" s="108"/>
       <c r="J5" s="109"/>
     </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A6" s="93" t="s">
+    <row r="6" spans="1:14" s="3" customFormat="1" ht="32.25" thickBot="1">
+      <c r="A6" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="122"/>
+      <c r="C6" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="68" t="s">
+      <c r="F6" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="126" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A7" s="14">
+    <row r="7" spans="1:14" ht="16.5" thickBot="1">
+      <c r="A7" s="127">
         <v>1</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="128">
         <v>43916</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="129">
         <v>0.48472222222222222</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="129">
         <v>0.50763888888888886</v>
       </c>
-      <c r="E7" s="17">
-        <v>0</v>
-      </c>
-      <c r="F7" s="30">
+      <c r="E7" s="130">
+        <v>0</v>
+      </c>
+      <c r="F7" s="131">
         <f>(D7-C7)*1440</f>
         <v>32.999999999999964</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="130" t="s">
         <v>177</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="130" t="s">
         <v>178</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="18"/>
+      <c r="J7" s="132"/>
       <c r="N7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A8" s="14">
+    <row r="8" spans="1:14" ht="16.5" thickBot="1">
+      <c r="A8" s="127">
         <f>A7+1</f>
         <v>2</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7">
+      <c r="B8" s="133"/>
+      <c r="C8" s="134">
         <v>0.94305555555555554</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="134">
         <v>0.96875</v>
       </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="30">
-        <f t="shared" ref="F8:F26" si="0">(D8-C8)*1440</f>
+      <c r="E8" s="135">
+        <v>0</v>
+      </c>
+      <c r="F8" s="131">
+        <f t="shared" ref="F8:F27" si="0">(D8-C8)*1440</f>
         <v>37.000000000000028</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="135" t="s">
         <v>180</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="135" t="s">
         <v>179</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="8"/>
+      <c r="J8" s="136"/>
       <c r="N8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A9" s="14">
-        <f t="shared" ref="A9:A26" si="1">A8+1</f>
+    <row r="9" spans="1:14" ht="16.5" thickBot="1">
+      <c r="A9" s="127">
+        <f t="shared" ref="A9:A21" si="1">A8+1</f>
         <v>3</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="133">
         <v>43917</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="134">
         <v>0.40416666666666662</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="134">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="30">
+      <c r="E9" s="135">
+        <v>0</v>
+      </c>
+      <c r="F9" s="131">
         <f t="shared" si="0"/>
         <v>18.000000000000096</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="135" t="s">
         <v>181</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="135" t="s">
         <v>182</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A10" s="14">
+      <c r="J9" s="136"/>
+    </row>
+    <row r="10" spans="1:14" ht="16.5" thickBot="1">
+      <c r="A10" s="127">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7">
+      <c r="B10" s="133"/>
+      <c r="C10" s="134">
         <v>0.44444444444444442</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="134">
         <v>0.46180555555555558</v>
       </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="30">
+      <c r="E10" s="135">
+        <v>0</v>
+      </c>
+      <c r="F10" s="131">
         <f t="shared" si="0"/>
         <v>25.000000000000071</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="135" t="s">
         <v>183</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A11" s="14">
+      <c r="H10" s="135"/>
+      <c r="I10" s="135"/>
+      <c r="J10" s="136"/>
+    </row>
+    <row r="11" spans="1:14" ht="16.5" thickBot="1">
+      <c r="A11" s="127">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="133">
         <v>43919</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="134">
         <v>0.90972222222222221</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="134">
         <v>0.9291666666666667</v>
       </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-      <c r="F11" s="30">
+      <c r="E11" s="135">
+        <v>0</v>
+      </c>
+      <c r="F11" s="131">
         <f t="shared" si="0"/>
         <v>28.00000000000006</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="135" t="s">
         <v>184</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="135" t="s">
         <v>185</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A12" s="14">
+      <c r="I11" s="135"/>
+      <c r="J11" s="136"/>
+    </row>
+    <row r="12" spans="1:14" ht="16.5" thickBot="1">
+      <c r="A12" s="127">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7">
+      <c r="B12" s="133"/>
+      <c r="C12" s="134">
         <v>0.97013888888888899</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="134">
         <v>0.98958333333333337</v>
       </c>
-      <c r="E12" s="5">
-        <v>0</v>
-      </c>
-      <c r="F12" s="30">
+      <c r="E12" s="135">
+        <v>0</v>
+      </c>
+      <c r="F12" s="131">
         <f t="shared" si="0"/>
         <v>27.999999999999901</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="135" t="s">
         <v>184</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="135" t="s">
         <v>185</v>
       </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A13" s="14">
+      <c r="I12" s="135"/>
+      <c r="J12" s="136"/>
+    </row>
+    <row r="13" spans="1:14" ht="16.5" thickBot="1">
+      <c r="A13" s="127">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="133">
         <v>43920</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="134">
         <v>0.3923611111111111</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="134">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E13" s="5">
-        <v>0</v>
-      </c>
-      <c r="F13" s="30">
+      <c r="E13" s="135">
+        <v>0</v>
+      </c>
+      <c r="F13" s="131">
         <f t="shared" si="0"/>
         <v>35.000000000000036</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="135" t="s">
         <v>184</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="135" t="s">
         <v>185</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A14" s="14">
+      <c r="J13" s="136"/>
+    </row>
+    <row r="14" spans="1:14" ht="16.5" thickBot="1">
+      <c r="A14" s="127">
         <v>8</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7">
+      <c r="B14" s="133"/>
+      <c r="C14" s="134">
         <v>0.8666666666666667</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="134">
         <v>0.88888888888888884</v>
       </c>
-      <c r="E14" s="5">
-        <v>0</v>
-      </c>
-      <c r="F14" s="30">
+      <c r="E14" s="135">
+        <v>0</v>
+      </c>
+      <c r="F14" s="131">
         <f t="shared" si="0"/>
         <v>31.999999999999886</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="135" t="s">
         <v>188</v>
       </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A15" s="14">
+      <c r="H14" s="135"/>
+      <c r="I14" s="135"/>
+      <c r="J14" s="136"/>
+    </row>
+    <row r="15" spans="1:14" ht="16.5" thickBot="1">
+      <c r="A15" s="127">
         <v>9</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="133">
         <v>43921</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="134">
         <v>0.44375000000000003</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="134">
         <v>0.4694444444444445</v>
       </c>
-      <c r="E15" s="5">
-        <v>0</v>
-      </c>
-      <c r="F15" s="30">
+      <c r="E15" s="135">
+        <v>0</v>
+      </c>
+      <c r="F15" s="131">
         <f t="shared" si="0"/>
         <v>37.000000000000028</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="135" t="s">
         <v>186</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="135" t="s">
         <v>187</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="8"/>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A16" s="14">
+      <c r="J15" s="136"/>
+    </row>
+    <row r="16" spans="1:14" ht="16.5" thickBot="1">
+      <c r="A16" s="127">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7">
+      <c r="B16" s="133"/>
+      <c r="C16" s="134">
         <v>0.4694444444444445</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="134">
         <v>0.48888888888888887</v>
       </c>
-      <c r="E16" s="5">
-        <v>0</v>
-      </c>
-      <c r="F16" s="30">
+      <c r="E16" s="135">
+        <v>0</v>
+      </c>
+      <c r="F16" s="131">
         <f t="shared" si="0"/>
         <v>27.999999999999901</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="135" t="s">
         <v>189</v>
       </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="8"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A17" s="14">
+      <c r="H16" s="135"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="136"/>
+    </row>
+    <row r="17" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A17" s="127">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7">
+      <c r="B17" s="133"/>
+      <c r="C17" s="134">
         <v>0.57777777777777783</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="134">
         <v>0.62916666666666665</v>
       </c>
-      <c r="E17" s="5">
-        <v>0</v>
-      </c>
-      <c r="F17" s="30">
+      <c r="E17" s="135">
+        <v>0</v>
+      </c>
+      <c r="F17" s="131">
         <f t="shared" si="0"/>
         <v>73.999999999999901</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="135" t="s">
         <v>190</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="135" t="s">
         <v>191</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="8"/>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A18" s="14">
+      <c r="I17" s="135"/>
+      <c r="J17" s="136"/>
+    </row>
+    <row r="18" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A18" s="127">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7">
+      <c r="B18" s="133"/>
+      <c r="C18" s="134">
         <v>0.80555555555555547</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="134">
         <v>0.81319444444444444</v>
       </c>
-      <c r="E18" s="5">
-        <v>0</v>
-      </c>
-      <c r="F18" s="30">
+      <c r="E18" s="135">
+        <v>0</v>
+      </c>
+      <c r="F18" s="131">
         <f t="shared" si="0"/>
         <v>11.000000000000121</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="135" t="s">
         <v>192</v>
       </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A19" s="14">
+      <c r="H18" s="135"/>
+      <c r="I18" s="135"/>
+      <c r="J18" s="136"/>
+    </row>
+    <row r="19" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A19" s="127">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7">
+      <c r="B19" s="133"/>
+      <c r="C19" s="134">
         <v>0.85486111111111107</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="134">
         <v>0.91736111111111107</v>
       </c>
-      <c r="E19" s="5">
-        <v>0</v>
-      </c>
-      <c r="F19" s="30">
+      <c r="E19" s="135">
+        <v>0</v>
+      </c>
+      <c r="F19" s="131">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="135" t="s">
         <v>193</v>
       </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A20" s="14">
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="136"/>
+    </row>
+    <row r="20" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A20" s="127">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7">
+      <c r="B20" s="133"/>
+      <c r="C20" s="134">
         <v>0.94305555555555554</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="134">
         <v>0.96666666666666667</v>
       </c>
-      <c r="E20" s="5">
-        <v>0</v>
-      </c>
-      <c r="F20" s="30">
+      <c r="E20" s="135">
+        <v>0</v>
+      </c>
+      <c r="F20" s="131">
         <f t="shared" si="0"/>
         <v>34.000000000000043</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="135" t="s">
         <v>194</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="135" t="s">
         <v>195</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="8"/>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A21" s="14">
+      <c r="J20" s="136"/>
+    </row>
+    <row r="21" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A21" s="127">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="133">
         <v>43922</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="134">
         <v>0.37777777777777777</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="134">
         <v>0.4201388888888889</v>
       </c>
-      <c r="E21" s="5">
-        <v>0</v>
-      </c>
-      <c r="F21" s="30">
+      <c r="E21" s="135">
+        <v>0</v>
+      </c>
+      <c r="F21" s="131">
         <f t="shared" si="0"/>
         <v>61.000000000000021</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="135" t="s">
         <v>196</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="135" t="s">
         <v>197</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="J21" s="8"/>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A22" s="14">
+      <c r="J21" s="136"/>
+    </row>
+    <row r="22" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A22" s="127">
         <v>16</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="5" t="s">
+      <c r="B22" s="133"/>
+      <c r="C22" s="134">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="D22" s="134">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E22" s="135">
+        <v>0</v>
+      </c>
+      <c r="F22" s="131">
+        <f t="shared" si="0"/>
+        <v>70.000000000000071</v>
+      </c>
+      <c r="G22" s="135" t="s">
         <v>198</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="135" t="s">
         <v>199</v>
       </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="8"/>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A23" s="14">
+      <c r="I22" s="135" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" s="136"/>
+    </row>
+    <row r="23" spans="1:10" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A23" s="127">
         <v>17</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="8"/>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A24" s="14">
+      <c r="B23" s="133"/>
+      <c r="C23" s="134">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="D23" s="134">
+        <v>0.50277777777777777</v>
+      </c>
+      <c r="E23" s="135">
+        <v>0</v>
+      </c>
+      <c r="F23" s="131">
+        <f t="shared" si="0"/>
+        <v>43.999999999999922</v>
+      </c>
+      <c r="G23" s="135" t="s">
+        <v>200</v>
+      </c>
+      <c r="H23" s="147" t="s">
+        <v>202</v>
+      </c>
+      <c r="I23" s="135"/>
+      <c r="J23" s="136"/>
+    </row>
+    <row r="24" spans="1:10" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A24" s="127"/>
+      <c r="B24" s="133"/>
+      <c r="C24" s="134"/>
+      <c r="D24" s="134"/>
+      <c r="E24" s="135"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="135" t="s">
+        <v>204</v>
+      </c>
+      <c r="H24" s="147"/>
+      <c r="I24" s="135"/>
+      <c r="J24" s="136"/>
+    </row>
+    <row r="25" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A25" s="127">
         <v>18</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="8"/>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A25" s="14">
+      <c r="B25" s="133"/>
+      <c r="C25" s="134"/>
+      <c r="D25" s="134"/>
+      <c r="E25" s="135"/>
+      <c r="F25" s="131"/>
+      <c r="G25" s="135" t="s">
+        <v>201</v>
+      </c>
+      <c r="H25" s="147" t="s">
+        <v>203</v>
+      </c>
+      <c r="I25" s="135"/>
+      <c r="J25" s="136"/>
+    </row>
+    <row r="26" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A26" s="127">
         <v>19</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="8"/>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A26" s="14">
+      <c r="B26" s="133"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="134"/>
+      <c r="E26" s="135"/>
+      <c r="F26" s="131">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="135"/>
+      <c r="H26" s="135"/>
+      <c r="I26" s="135"/>
+      <c r="J26" s="136"/>
+    </row>
+    <row r="27" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A27" s="127">
         <v>20</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="22"/>
-    </row>
-    <row r="27" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A27" s="95" t="s">
+      <c r="B27" s="137"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="138"/>
+      <c r="E27" s="139"/>
+      <c r="F27" s="131">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="139"/>
+      <c r="H27" s="139"/>
+      <c r="I27" s="139"/>
+      <c r="J27" s="140"/>
+    </row>
+    <row r="28" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A28" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="96"/>
-      <c r="C27" s="96"/>
-      <c r="D27" s="96"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="31">
-        <f>SUM(F7:F26)</f>
-        <v>571</v>
-      </c>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="24"/>
+      <c r="B28" s="142"/>
+      <c r="C28" s="142"/>
+      <c r="D28" s="142"/>
+      <c r="E28" s="143"/>
+      <c r="F28" s="144">
+        <f>SUM(F7:F27)</f>
+        <v>685</v>
+      </c>
+      <c r="G28" s="145"/>
+      <c r="H28" s="145"/>
+      <c r="I28" s="145"/>
+      <c r="J28" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A28:E28"/>
     <mergeCell ref="A2:J3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:E4"/>
@@ -7983,6 +8135,6 @@
     <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/AJALOGI/PROGE_Time recording log.xlsx
+++ b/AJALOGI/PROGE_Time recording log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kasutaja\source\repos\AnnabelMa\VL\AJALOGI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F2C4CA-2C29-4551-9538-A1A4F50DAB92}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C68813-E054-4252-96E5-72628F943FDF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10485" yWindow="3285" windowWidth="21600" windowHeight="11325" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nädal 1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="206">
   <si>
     <t>Time recording log:</t>
   </si>
@@ -658,6 +658,9 @@
   </si>
   <si>
     <t>VL51 jätk</t>
+  </si>
+  <si>
+    <t>+vigade parandused</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1067,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1230,6 +1233,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1314,38 +1353,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1355,16 +1362,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="1" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -1687,85 +1691,85 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
     <col min="6" max="6" width="11" style="4" customWidth="1"/>
-    <col min="7" max="7" width="55.7109375" customWidth="1"/>
-    <col min="8" max="8" width="63.42578125" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" customWidth="1"/>
-    <col min="14" max="14" width="26.7109375" customWidth="1"/>
+    <col min="7" max="7" width="55.6640625" customWidth="1"/>
+    <col min="8" max="8" width="63.44140625" customWidth="1"/>
+    <col min="9" max="9" width="3.44140625" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
+    <col min="14" max="14" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
+    <row r="1" spans="1:14" ht="15" thickBot="1"/>
     <row r="2" spans="1:14">
-      <c r="A2" s="98" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="100"/>
+      <c r="A2" s="120" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="122"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="101"/>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="103"/>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A4" s="110" t="s">
+      <c r="A3" s="123"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="125"/>
+    </row>
+    <row r="4" spans="1:14" ht="15" thickBot="1">
+      <c r="A4" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="104" t="s">
+      <c r="B4" s="133"/>
+      <c r="C4" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="105">
+      <c r="G4" s="127">
         <v>43863</v>
       </c>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="106"/>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A5" s="107"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="109"/>
-    </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A6" s="93" t="s">
+      <c r="H4" s="127"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="128"/>
+    </row>
+    <row r="5" spans="1:14" ht="15" thickBot="1">
+      <c r="A5" s="129"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="131"/>
+    </row>
+    <row r="6" spans="1:14" s="3" customFormat="1" ht="29.4" thickBot="1">
+      <c r="A6" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="94"/>
+      <c r="B6" s="116"/>
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
@@ -1791,7 +1795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1">
+    <row r="7" spans="1:14" ht="15" thickBot="1">
       <c r="A7" s="14">
         <v>1</v>
       </c>
@@ -1823,7 +1827,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1">
+    <row r="8" spans="1:14" ht="15" thickBot="1">
       <c r="A8" s="14">
         <f>A7+1</f>
         <v>2</v>
@@ -1854,7 +1858,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1">
+    <row r="9" spans="1:14" ht="15" thickBot="1">
       <c r="A9" s="14">
         <f t="shared" ref="A9:A22" si="1">A8+1</f>
         <v>3</v>
@@ -1882,7 +1886,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1">
+    <row r="10" spans="1:14" ht="15" thickBot="1">
       <c r="A10" s="14">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1912,7 +1916,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1">
+    <row r="11" spans="1:14" ht="15" thickBot="1">
       <c r="A11" s="14">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -1940,7 +1944,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1">
+    <row r="12" spans="1:14" ht="15" thickBot="1">
       <c r="A12" s="14">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -1968,7 +1972,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" thickBot="1">
+    <row r="13" spans="1:14" ht="15" thickBot="1">
       <c r="A13" s="14">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -1996,7 +2000,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1">
+    <row r="14" spans="1:14" ht="15" thickBot="1">
       <c r="A14" s="14">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -2024,7 +2028,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1">
+    <row r="15" spans="1:14" ht="15" thickBot="1">
       <c r="A15" s="14">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -2052,7 +2056,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1">
+    <row r="16" spans="1:14" ht="15" thickBot="1">
       <c r="A16" s="14">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -2084,7 +2088,7 @@
       </c>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1">
+    <row r="17" spans="1:10" ht="15" thickBot="1">
       <c r="A17" s="14">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -2112,7 +2116,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1">
+    <row r="18" spans="1:10" ht="15" thickBot="1">
       <c r="A18" s="14">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -2142,7 +2146,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1">
+    <row r="19" spans="1:10" ht="15" thickBot="1">
       <c r="A19" s="14">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -2172,7 +2176,7 @@
       </c>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1">
+    <row r="20" spans="1:10" ht="15" thickBot="1">
       <c r="A20" s="14">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -2200,7 +2204,7 @@
       </c>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1">
+    <row r="21" spans="1:10" ht="15" thickBot="1">
       <c r="A21" s="14">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -2228,7 +2232,7 @@
       <c r="I21" s="5"/>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1">
+    <row r="22" spans="1:10" ht="15" thickBot="1">
       <c r="A22" s="14">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -2246,14 +2250,14 @@
       <c r="I22" s="21"/>
       <c r="J22" s="22"/>
     </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A23" s="95" t="s">
+    <row r="23" spans="1:10" ht="15" thickBot="1">
+      <c r="A23" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="96"/>
-      <c r="C23" s="96"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="97"/>
+      <c r="B23" s="118"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="119"/>
       <c r="F23" s="25">
         <f>SUM(F7:F22)</f>
         <v>0.71180555555555591</v>
@@ -2287,83 +2291,83 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
     <col min="6" max="6" width="11" style="66" customWidth="1"/>
-    <col min="7" max="7" width="55.7109375" customWidth="1"/>
-    <col min="8" max="8" width="63.42578125" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" customWidth="1"/>
-    <col min="14" max="14" width="26.7109375" customWidth="1"/>
+    <col min="7" max="7" width="55.6640625" customWidth="1"/>
+    <col min="8" max="8" width="63.44140625" customWidth="1"/>
+    <col min="9" max="9" width="3.44140625" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
+    <col min="14" max="14" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
+    <row r="1" spans="1:14" ht="15" thickBot="1"/>
     <row r="2" spans="1:14">
-      <c r="A2" s="98" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="100"/>
+      <c r="A2" s="120" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="122"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="101"/>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="103"/>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A4" s="110" t="s">
+      <c r="A3" s="123"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="125"/>
+    </row>
+    <row r="4" spans="1:14" ht="15" thickBot="1">
+      <c r="A4" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="104" t="s">
+      <c r="B4" s="133"/>
+      <c r="C4" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
       <c r="F4" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="106"/>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A5" s="107"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="109"/>
-    </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A6" s="93" t="s">
+      <c r="G4" s="127"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="128"/>
+    </row>
+    <row r="5" spans="1:14" ht="15" thickBot="1">
+      <c r="A5" s="129"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="131"/>
+    </row>
+    <row r="6" spans="1:14" s="3" customFormat="1" ht="29.4" thickBot="1">
+      <c r="A6" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="94"/>
+      <c r="B6" s="116"/>
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
@@ -2389,7 +2393,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1">
+    <row r="7" spans="1:14" ht="15" thickBot="1">
       <c r="A7" s="14">
         <v>1</v>
       </c>
@@ -2411,7 +2415,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1">
+    <row r="8" spans="1:14" ht="15" thickBot="1">
       <c r="A8" s="14">
         <f>A7+1</f>
         <v>2</v>
@@ -2432,7 +2436,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1">
+    <row r="9" spans="1:14" ht="15" thickBot="1">
       <c r="A9" s="14">
         <f t="shared" ref="A9:A22" si="1">A8+1</f>
         <v>3</v>
@@ -2450,7 +2454,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1">
+    <row r="10" spans="1:14" ht="15" thickBot="1">
       <c r="A10" s="14">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -2468,7 +2472,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1">
+    <row r="11" spans="1:14" ht="15" thickBot="1">
       <c r="A11" s="14">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -2486,7 +2490,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1">
+    <row r="12" spans="1:14" ht="15" thickBot="1">
       <c r="A12" s="14">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -2504,7 +2508,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" thickBot="1">
+    <row r="13" spans="1:14" ht="15" thickBot="1">
       <c r="A13" s="14">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -2522,7 +2526,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1">
+    <row r="14" spans="1:14" ht="15" thickBot="1">
       <c r="A14" s="14">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -2540,7 +2544,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1">
+    <row r="15" spans="1:14" ht="15" thickBot="1">
       <c r="A15" s="14">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -2558,7 +2562,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1">
+    <row r="16" spans="1:14" ht="15" thickBot="1">
       <c r="A16" s="14">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -2576,7 +2580,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1">
+    <row r="17" spans="1:10" ht="15" thickBot="1">
       <c r="A17" s="14">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -2594,7 +2598,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1">
+    <row r="18" spans="1:10" ht="15" thickBot="1">
       <c r="A18" s="14">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -2612,7 +2616,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1">
+    <row r="19" spans="1:10" ht="15" thickBot="1">
       <c r="A19" s="14">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -2630,7 +2634,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1">
+    <row r="20" spans="1:10" ht="15" thickBot="1">
       <c r="A20" s="14">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -2648,7 +2652,7 @@
       <c r="I20" s="5"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1">
+    <row r="21" spans="1:10" ht="15" thickBot="1">
       <c r="A21" s="14">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -2666,7 +2670,7 @@
       <c r="I21" s="5"/>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1">
+    <row r="22" spans="1:10" ht="15" thickBot="1">
       <c r="A22" s="14">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -2684,14 +2688,14 @@
       <c r="I22" s="21"/>
       <c r="J22" s="22"/>
     </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A23" s="95" t="s">
+    <row r="23" spans="1:10" ht="15" thickBot="1">
+      <c r="A23" s="117" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="96"/>
-      <c r="C23" s="96"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="97"/>
+      <c r="B23" s="118"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="119"/>
       <c r="F23" s="31">
         <f>SUM(F7:F22)</f>
         <v>0</v>
@@ -2725,85 +2729,85 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
     <col min="6" max="6" width="11" style="4" customWidth="1"/>
-    <col min="7" max="7" width="55.7109375" customWidth="1"/>
-    <col min="8" max="8" width="63.42578125" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" customWidth="1"/>
-    <col min="14" max="14" width="26.7109375" customWidth="1"/>
+    <col min="7" max="7" width="55.6640625" customWidth="1"/>
+    <col min="8" max="8" width="63.44140625" customWidth="1"/>
+    <col min="9" max="9" width="3.44140625" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
+    <col min="14" max="14" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
+    <row r="1" spans="1:14" ht="15" thickBot="1"/>
     <row r="2" spans="1:14">
-      <c r="A2" s="98" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="100"/>
+      <c r="A2" s="120" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="122"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="101"/>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="103"/>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A4" s="110" t="s">
+      <c r="A3" s="123"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="125"/>
+    </row>
+    <row r="4" spans="1:14" ht="15" thickBot="1">
+      <c r="A4" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="104" t="s">
+      <c r="B4" s="133"/>
+      <c r="C4" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="105">
+      <c r="G4" s="127">
         <v>43871</v>
       </c>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="106"/>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A5" s="107"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="109"/>
-    </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A6" s="93" t="s">
+      <c r="H4" s="127"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="128"/>
+    </row>
+    <row r="5" spans="1:14" ht="15" thickBot="1">
+      <c r="A5" s="129"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="131"/>
+    </row>
+    <row r="6" spans="1:14" s="3" customFormat="1" ht="29.4" thickBot="1">
+      <c r="A6" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="94"/>
+      <c r="B6" s="116"/>
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
@@ -2829,7 +2833,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1">
+    <row r="7" spans="1:14" ht="15" thickBot="1">
       <c r="A7" s="14">
         <v>1</v>
       </c>
@@ -2863,7 +2867,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1">
+    <row r="8" spans="1:14" ht="15" thickBot="1">
       <c r="A8" s="14">
         <f>A7+1</f>
         <v>2</v>
@@ -2896,7 +2900,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1">
+    <row r="9" spans="1:14" ht="15" thickBot="1">
       <c r="A9" s="14">
         <f t="shared" ref="A9:A21" si="1">A8+1</f>
         <v>3</v>
@@ -2924,7 +2928,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1">
+    <row r="10" spans="1:14" ht="15" thickBot="1">
       <c r="A10" s="14">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -2956,7 +2960,7 @@
       </c>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1">
+    <row r="11" spans="1:14" ht="15" thickBot="1">
       <c r="A11" s="14">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -2986,7 +2990,7 @@
       </c>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1">
+    <row r="12" spans="1:14" ht="15" thickBot="1">
       <c r="A12" s="14">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -3016,7 +3020,7 @@
       </c>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" thickBot="1">
+    <row r="13" spans="1:14" ht="15" thickBot="1">
       <c r="A13" s="14">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -3046,7 +3050,7 @@
       </c>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1">
+    <row r="14" spans="1:14" ht="15" thickBot="1">
       <c r="A14" s="14">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -3076,7 +3080,7 @@
       </c>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1">
+    <row r="15" spans="1:14" ht="15" thickBot="1">
       <c r="A15" s="14">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -3106,7 +3110,7 @@
       </c>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1">
+    <row r="16" spans="1:14" ht="15" thickBot="1">
       <c r="A16" s="14">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -3132,7 +3136,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1">
+    <row r="17" spans="1:10" ht="15" thickBot="1">
       <c r="A17" s="14">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -3158,7 +3162,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1">
+    <row r="18" spans="1:10" ht="15" thickBot="1">
       <c r="A18" s="14">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -3186,7 +3190,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1">
+    <row r="19" spans="1:10" ht="15" thickBot="1">
       <c r="A19" s="14">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -3214,7 +3218,7 @@
       </c>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1">
+    <row r="20" spans="1:10" ht="15" thickBot="1">
       <c r="A20" s="14">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -3242,7 +3246,7 @@
       <c r="I20" s="5"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1">
+    <row r="21" spans="1:10" ht="15" thickBot="1">
       <c r="A21" s="14">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -3268,7 +3272,7 @@
       <c r="I21" s="5"/>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1">
+    <row r="22" spans="1:10" ht="15" thickBot="1">
       <c r="A22" s="14"/>
       <c r="B22" s="26"/>
       <c r="C22" s="27">
@@ -3291,7 +3295,7 @@
       <c r="I22" s="28"/>
       <c r="J22" s="29"/>
     </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1">
+    <row r="23" spans="1:10" ht="15" thickBot="1">
       <c r="A23" s="14"/>
       <c r="B23" s="26"/>
       <c r="C23" s="27">
@@ -3314,7 +3318,7 @@
       <c r="I23" s="28"/>
       <c r="J23" s="29"/>
     </row>
-    <row r="24" spans="1:10" ht="15.75" thickBot="1">
+    <row r="24" spans="1:10" ht="15" thickBot="1">
       <c r="A24" s="14"/>
       <c r="B24" s="26"/>
       <c r="C24" s="27">
@@ -3337,7 +3341,7 @@
       <c r="I24" s="28"/>
       <c r="J24" s="29"/>
     </row>
-    <row r="25" spans="1:10" ht="15.75" thickBot="1">
+    <row r="25" spans="1:10" ht="15" thickBot="1">
       <c r="A25" s="14"/>
       <c r="B25" s="26">
         <v>43870</v>
@@ -3364,7 +3368,7 @@
       <c r="I25" s="28"/>
       <c r="J25" s="29"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1">
+    <row r="26" spans="1:10" ht="15" thickBot="1">
       <c r="A26" s="14">
         <f>A21+1</f>
         <v>16</v>
@@ -3390,14 +3394,14 @@
       <c r="I26" s="21"/>
       <c r="J26" s="22"/>
     </row>
-    <row r="27" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A27" s="95" t="s">
+    <row r="27" spans="1:10" ht="15" thickBot="1">
+      <c r="A27" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="96"/>
-      <c r="C27" s="96"/>
-      <c r="D27" s="96"/>
-      <c r="E27" s="97"/>
+      <c r="B27" s="118"/>
+      <c r="C27" s="118"/>
+      <c r="D27" s="118"/>
+      <c r="E27" s="119"/>
       <c r="F27" s="25">
         <f>SUM(F7:F26)</f>
         <v>0.77291666666666681</v>
@@ -3431,83 +3435,83 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="55.7109375" customWidth="1"/>
-    <col min="8" max="8" width="63.42578125" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" customWidth="1"/>
-    <col min="14" max="14" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="55.6640625" customWidth="1"/>
+    <col min="8" max="8" width="63.44140625" customWidth="1"/>
+    <col min="9" max="9" width="3.44140625" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
+    <col min="14" max="14" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
+    <row r="1" spans="1:14" ht="15" thickBot="1"/>
     <row r="2" spans="1:14">
-      <c r="A2" s="98" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="100"/>
+      <c r="A2" s="120" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="122"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="101"/>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="103"/>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A4" s="110" t="s">
+      <c r="A3" s="123"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="125"/>
+    </row>
+    <row r="4" spans="1:14" ht="15" thickBot="1">
+      <c r="A4" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="104" t="s">
+      <c r="B4" s="133"/>
+      <c r="C4" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="106"/>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A5" s="107"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="109"/>
-    </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A6" s="93" t="s">
+      <c r="G4" s="127"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="128"/>
+    </row>
+    <row r="5" spans="1:14" ht="15" thickBot="1">
+      <c r="A5" s="129"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="131"/>
+    </row>
+    <row r="6" spans="1:14" s="3" customFormat="1" ht="29.4" thickBot="1">
+      <c r="A6" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="94"/>
+      <c r="B6" s="116"/>
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
@@ -3533,7 +3537,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1">
+    <row r="7" spans="1:14" ht="15" thickBot="1">
       <c r="A7" s="14">
         <v>1</v>
       </c>
@@ -3563,7 +3567,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1">
+    <row r="8" spans="1:14" ht="15" thickBot="1">
       <c r="A8" s="14">
         <f>A7+1</f>
         <v>2</v>
@@ -3596,7 +3600,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1">
+    <row r="9" spans="1:14" ht="15" thickBot="1">
       <c r="A9" s="14">
         <f t="shared" ref="A9:A22" si="1">A8+1</f>
         <v>3</v>
@@ -3624,7 +3628,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1">
+    <row r="10" spans="1:14" ht="15" thickBot="1">
       <c r="A10" s="14">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -3652,7 +3656,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1">
+    <row r="11" spans="1:14" ht="15" thickBot="1">
       <c r="A11" s="14">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -3680,7 +3684,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1">
+    <row r="12" spans="1:14" ht="15" thickBot="1">
       <c r="A12" s="14">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -3706,7 +3710,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" thickBot="1">
+    <row r="13" spans="1:14" ht="15" thickBot="1">
       <c r="A13" s="14">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -3736,7 +3740,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1">
+    <row r="14" spans="1:14" ht="15" thickBot="1">
       <c r="A14" s="14">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -3762,7 +3766,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1">
+    <row r="15" spans="1:14" ht="15" thickBot="1">
       <c r="A15" s="14">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -3790,7 +3794,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1">
+    <row r="16" spans="1:14" ht="15" thickBot="1">
       <c r="A16" s="14">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -3818,7 +3822,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1">
+    <row r="17" spans="1:10" ht="15" thickBot="1">
       <c r="A17" s="14">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -3846,7 +3850,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1">
+    <row r="18" spans="1:10" ht="15" thickBot="1">
       <c r="A18" s="14">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -3872,7 +3876,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1">
+    <row r="19" spans="1:10" ht="15" thickBot="1">
       <c r="A19" s="14">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -3890,7 +3894,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1">
+    <row r="20" spans="1:10" ht="15" thickBot="1">
       <c r="A20" s="14">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -3908,7 +3912,7 @@
       <c r="I20" s="5"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1">
+    <row r="21" spans="1:10" ht="15" thickBot="1">
       <c r="A21" s="14">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -3926,7 +3930,7 @@
       <c r="I21" s="5"/>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1">
+    <row r="22" spans="1:10" ht="15" thickBot="1">
       <c r="A22" s="14">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -3944,14 +3948,14 @@
       <c r="I22" s="21"/>
       <c r="J22" s="22"/>
     </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A23" s="95" t="s">
+    <row r="23" spans="1:10" ht="15" thickBot="1">
+      <c r="A23" s="117" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="96"/>
-      <c r="C23" s="96"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="97"/>
+      <c r="B23" s="118"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="119"/>
       <c r="F23" s="31">
         <f>SUM(F7:F22)</f>
         <v>1260.0000000000002</v>
@@ -3985,22 +3989,22 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
     <col min="6" max="6" width="11" style="4" customWidth="1"/>
-    <col min="7" max="7" width="55.7109375" customWidth="1"/>
-    <col min="8" max="8" width="72.140625" style="39" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" customWidth="1"/>
-    <col min="14" max="14" width="26.7109375" customWidth="1"/>
+    <col min="7" max="7" width="55.6640625" customWidth="1"/>
+    <col min="8" max="8" width="72.109375" style="39" customWidth="1"/>
+    <col min="9" max="9" width="3.44140625" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
+    <col min="14" max="14" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
+    <row r="1" spans="1:14" ht="15" thickBot="1"/>
     <row r="2" spans="1:14">
       <c r="A2" s="43" t="s">
         <v>0</v>
@@ -4027,7 +4031,7 @@
       <c r="I3" s="47"/>
       <c r="J3" s="48"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1">
+    <row r="4" spans="1:14" ht="15" thickBot="1">
       <c r="A4" s="49" t="s">
         <v>1</v>
       </c>
@@ -4045,7 +4049,7 @@
       <c r="I4" s="52"/>
       <c r="J4" s="53"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1">
+    <row r="5" spans="1:14" ht="15" thickBot="1">
       <c r="A5" s="54"/>
       <c r="B5" s="55"/>
       <c r="C5" s="55"/>
@@ -4057,7 +4061,7 @@
       <c r="I5" s="55"/>
       <c r="J5" s="56"/>
     </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" ht="30.75" thickBot="1">
+    <row r="6" spans="1:14" s="3" customFormat="1" ht="29.4" thickBot="1">
       <c r="A6" s="57" t="s">
         <v>3</v>
       </c>
@@ -4087,7 +4091,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1">
+    <row r="7" spans="1:14" ht="15" thickBot="1">
       <c r="A7" s="14">
         <v>1</v>
       </c>
@@ -4117,7 +4121,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1">
+    <row r="8" spans="1:14" ht="15" thickBot="1">
       <c r="A8" s="14">
         <f>A7+1</f>
         <v>2</v>
@@ -4148,7 +4152,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1">
+    <row r="9" spans="1:14" ht="15" thickBot="1">
       <c r="A9" s="14">
         <f t="shared" ref="A9:A22" si="1">A8+1</f>
         <v>3</v>
@@ -4176,7 +4180,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1">
+    <row r="10" spans="1:14" ht="15" thickBot="1">
       <c r="A10" s="14">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -4204,7 +4208,7 @@
       </c>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1">
+    <row r="11" spans="1:14" ht="15" thickBot="1">
       <c r="A11" s="14">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -4236,7 +4240,7 @@
       </c>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1">
+    <row r="12" spans="1:14" ht="15" thickBot="1">
       <c r="A12" s="14">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -4262,7 +4266,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" thickBot="1">
+    <row r="13" spans="1:14" ht="15" thickBot="1">
       <c r="A13" s="14">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -4294,7 +4298,7 @@
       </c>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1">
+    <row r="14" spans="1:14" ht="15" thickBot="1">
       <c r="A14" s="14">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -4320,7 +4324,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1">
+    <row r="15" spans="1:14" ht="15" thickBot="1">
       <c r="A15" s="14">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -4350,7 +4354,7 @@
       </c>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:14" s="39" customFormat="1" ht="60.75" thickBot="1">
+    <row r="16" spans="1:14" s="39" customFormat="1" ht="43.8" thickBot="1">
       <c r="A16" s="32">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -4382,7 +4386,7 @@
       </c>
       <c r="J16" s="38"/>
     </row>
-    <row r="17" spans="1:10" ht="30.75" thickBot="1">
+    <row r="17" spans="1:10" ht="29.4" thickBot="1">
       <c r="A17" s="14">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -4412,7 +4416,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1">
+    <row r="18" spans="1:10" ht="15" thickBot="1">
       <c r="A18" s="14">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -4440,7 +4444,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1">
+    <row r="19" spans="1:10" ht="15" thickBot="1">
       <c r="A19" s="14">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -4458,7 +4462,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1">
+    <row r="20" spans="1:10" ht="15" thickBot="1">
       <c r="A20" s="14">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -4476,7 +4480,7 @@
       <c r="I20" s="5"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1">
+    <row r="21" spans="1:10" ht="15" thickBot="1">
       <c r="A21" s="14">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -4494,7 +4498,7 @@
       <c r="I21" s="5"/>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1">
+    <row r="22" spans="1:10" ht="15" thickBot="1">
       <c r="A22" s="14">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -4512,7 +4516,7 @@
       <c r="I22" s="21"/>
       <c r="J22" s="22"/>
     </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1">
+    <row r="23" spans="1:10" ht="15" thickBot="1">
       <c r="A23" s="40" t="s">
         <v>21</v>
       </c>
@@ -4544,83 +4548,83 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
     <col min="6" max="6" width="11" style="66" customWidth="1"/>
-    <col min="7" max="7" width="55.7109375" customWidth="1"/>
-    <col min="8" max="8" width="92.85546875" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" customWidth="1"/>
-    <col min="14" max="14" width="26.7109375" customWidth="1"/>
+    <col min="7" max="7" width="55.6640625" customWidth="1"/>
+    <col min="8" max="8" width="92.88671875" customWidth="1"/>
+    <col min="9" max="9" width="3.44140625" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
+    <col min="14" max="14" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
+    <row r="1" spans="1:14" ht="15" thickBot="1"/>
     <row r="2" spans="1:14">
-      <c r="A2" s="98" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="100"/>
+      <c r="A2" s="120" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="122"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="101"/>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="103"/>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A4" s="110" t="s">
+      <c r="A3" s="123"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="125"/>
+    </row>
+    <row r="4" spans="1:14" ht="15" thickBot="1">
+      <c r="A4" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="104" t="s">
+      <c r="B4" s="133"/>
+      <c r="C4" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
       <c r="F4" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="106"/>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A5" s="107"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="109"/>
-    </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A6" s="93" t="s">
+      <c r="G4" s="127"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="128"/>
+    </row>
+    <row r="5" spans="1:14" ht="15" thickBot="1">
+      <c r="A5" s="129"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="131"/>
+    </row>
+    <row r="6" spans="1:14" s="3" customFormat="1" ht="29.4" thickBot="1">
+      <c r="A6" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="94"/>
+      <c r="B6" s="116"/>
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
@@ -4646,7 +4650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1">
+    <row r="7" spans="1:14" ht="15" thickBot="1">
       <c r="A7" s="14">
         <v>1</v>
       </c>
@@ -4676,7 +4680,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1">
+    <row r="8" spans="1:14" ht="15" thickBot="1">
       <c r="A8" s="14">
         <f>A7+1</f>
         <v>2</v>
@@ -4711,7 +4715,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1">
+    <row r="9" spans="1:14" ht="15" thickBot="1">
       <c r="A9" s="14">
         <f t="shared" ref="A9:A20" si="1">A8+1</f>
         <v>3</v>
@@ -4739,7 +4743,7 @@
       </c>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1">
+    <row r="10" spans="1:14" ht="15" thickBot="1">
       <c r="A10" s="14">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -4769,7 +4773,7 @@
       </c>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1">
+    <row r="11" spans="1:14" ht="15" thickBot="1">
       <c r="A11" s="14">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -4799,7 +4803,7 @@
       </c>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1">
+    <row r="12" spans="1:14" ht="15" thickBot="1">
       <c r="A12" s="14">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -4827,7 +4831,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" thickBot="1">
+    <row r="13" spans="1:14" ht="15" thickBot="1">
       <c r="A13" s="14">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -4857,7 +4861,7 @@
       </c>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1">
+    <row r="14" spans="1:14" ht="15" thickBot="1">
       <c r="A14" s="14">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -4885,7 +4889,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1">
+    <row r="15" spans="1:14" ht="15" thickBot="1">
       <c r="A15" s="14">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -4913,7 +4917,7 @@
       </c>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1">
+    <row r="16" spans="1:14" ht="15" thickBot="1">
       <c r="A16" s="14">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -4941,7 +4945,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1">
+    <row r="17" spans="1:10" ht="15" thickBot="1">
       <c r="A17" s="14">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -4969,7 +4973,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1">
+    <row r="18" spans="1:10" ht="15" thickBot="1">
       <c r="A18" s="14">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -4999,7 +5003,7 @@
       </c>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1">
+    <row r="19" spans="1:10" ht="15" thickBot="1">
       <c r="A19" s="14">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -5029,7 +5033,7 @@
       </c>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1">
+    <row r="20" spans="1:10" ht="15" thickBot="1">
       <c r="A20" s="14">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -5059,7 +5063,7 @@
       </c>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1">
+    <row r="21" spans="1:10" ht="15" thickBot="1">
       <c r="A21" s="14">
         <v>15</v>
       </c>
@@ -5088,7 +5092,7 @@
       </c>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1">
+    <row r="22" spans="1:10" ht="15" thickBot="1">
       <c r="A22" s="14">
         <v>16</v>
       </c>
@@ -5115,7 +5119,7 @@
       <c r="I22" s="5"/>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1">
+    <row r="23" spans="1:10" ht="15" thickBot="1">
       <c r="A23" s="14">
         <v>17</v>
       </c>
@@ -5144,7 +5148,7 @@
       </c>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="1:10" ht="15.75" thickBot="1">
+    <row r="24" spans="1:10" ht="15" thickBot="1">
       <c r="A24" s="14">
         <v>18</v>
       </c>
@@ -5161,7 +5165,7 @@
       <c r="I24" s="5"/>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="1:10" ht="15.75" thickBot="1">
+    <row r="25" spans="1:10" ht="15" thickBot="1">
       <c r="A25" s="14">
         <v>19</v>
       </c>
@@ -5178,7 +5182,7 @@
       <c r="I25" s="5"/>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1">
+    <row r="26" spans="1:10" ht="15" thickBot="1">
       <c r="A26" s="14">
         <v>20</v>
       </c>
@@ -5195,7 +5199,7 @@
       <c r="I26" s="5"/>
       <c r="J26" s="8"/>
     </row>
-    <row r="27" spans="1:10" ht="15.75" thickBot="1">
+    <row r="27" spans="1:10" ht="15" thickBot="1">
       <c r="A27" s="14">
         <v>21</v>
       </c>
@@ -5212,14 +5216,14 @@
       <c r="I27" s="21"/>
       <c r="J27" s="22"/>
     </row>
-    <row r="28" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A28" s="112" t="s">
+    <row r="28" spans="1:10" ht="15" thickBot="1">
+      <c r="A28" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="113"/>
-      <c r="C28" s="113"/>
-      <c r="D28" s="113"/>
-      <c r="E28" s="114"/>
+      <c r="B28" s="135"/>
+      <c r="C28" s="135"/>
+      <c r="D28" s="135"/>
+      <c r="E28" s="136"/>
       <c r="F28" s="31">
         <f>SUM(F7:F27)</f>
         <v>1058.0000000000002</v>
@@ -5253,83 +5257,83 @@
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
     <col min="6" max="6" width="11" style="66" customWidth="1"/>
-    <col min="7" max="7" width="55.7109375" customWidth="1"/>
-    <col min="8" max="8" width="63.42578125" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" customWidth="1"/>
-    <col min="14" max="14" width="26.7109375" customWidth="1"/>
+    <col min="7" max="7" width="55.6640625" customWidth="1"/>
+    <col min="8" max="8" width="63.44140625" customWidth="1"/>
+    <col min="9" max="9" width="3.44140625" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
+    <col min="14" max="14" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
+    <row r="1" spans="1:14" ht="15" thickBot="1"/>
     <row r="2" spans="1:14">
-      <c r="A2" s="98" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="100"/>
+      <c r="A2" s="120" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="122"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="101"/>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="103"/>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A4" s="110" t="s">
+      <c r="A3" s="123"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="125"/>
+    </row>
+    <row r="4" spans="1:14" ht="15" thickBot="1">
+      <c r="A4" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="104" t="s">
+      <c r="B4" s="133"/>
+      <c r="C4" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
       <c r="F4" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="106"/>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A5" s="107"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="109"/>
-    </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A6" s="93" t="s">
+      <c r="G4" s="127"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="128"/>
+    </row>
+    <row r="5" spans="1:14" ht="15" thickBot="1">
+      <c r="A5" s="129"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="131"/>
+    </row>
+    <row r="6" spans="1:14" s="3" customFormat="1" ht="29.4" thickBot="1">
+      <c r="A6" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="94"/>
+      <c r="B6" s="116"/>
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
@@ -5355,7 +5359,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1">
+    <row r="7" spans="1:14" ht="15" thickBot="1">
       <c r="A7" s="14">
         <v>1</v>
       </c>
@@ -5389,7 +5393,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1">
+    <row r="8" spans="1:14" ht="15" thickBot="1">
       <c r="A8" s="14">
         <v>2</v>
       </c>
@@ -5421,7 +5425,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1">
+    <row r="9" spans="1:14" ht="15" thickBot="1">
       <c r="A9" s="14">
         <v>3</v>
       </c>
@@ -5448,7 +5452,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1">
+    <row r="10" spans="1:14" ht="15" thickBot="1">
       <c r="A10" s="14">
         <v>4</v>
       </c>
@@ -5476,7 +5480,7 @@
       </c>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1">
+    <row r="11" spans="1:14" ht="15" thickBot="1">
       <c r="A11" s="14">
         <v>5</v>
       </c>
@@ -5505,7 +5509,7 @@
       </c>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1">
+    <row r="12" spans="1:14" ht="15" thickBot="1">
       <c r="A12" s="14">
         <v>6</v>
       </c>
@@ -5536,7 +5540,7 @@
       </c>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" thickBot="1">
+    <row r="13" spans="1:14" ht="15" thickBot="1">
       <c r="A13" s="14">
         <v>7</v>
       </c>
@@ -5563,7 +5567,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1">
+    <row r="14" spans="1:14" ht="15" thickBot="1">
       <c r="A14" s="14">
         <v>8</v>
       </c>
@@ -5588,7 +5592,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1">
+    <row r="15" spans="1:14" ht="15" thickBot="1">
       <c r="A15" s="14">
         <v>9</v>
       </c>
@@ -5615,7 +5619,7 @@
       </c>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1">
+    <row r="16" spans="1:14" ht="15" thickBot="1">
       <c r="A16" s="14">
         <v>10</v>
       </c>
@@ -5640,7 +5644,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1">
+    <row r="17" spans="1:10" ht="15" thickBot="1">
       <c r="A17" s="14">
         <v>11</v>
       </c>
@@ -5669,7 +5673,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1">
+    <row r="18" spans="1:10" ht="15" thickBot="1">
       <c r="A18" s="14">
         <v>12</v>
       </c>
@@ -5698,7 +5702,7 @@
       </c>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1">
+    <row r="19" spans="1:10" ht="15" thickBot="1">
       <c r="A19" s="14">
         <v>13</v>
       </c>
@@ -5723,7 +5727,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1">
+    <row r="20" spans="1:10" ht="15" thickBot="1">
       <c r="A20" s="14">
         <v>14</v>
       </c>
@@ -5748,7 +5752,7 @@
       <c r="I20" s="5"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1">
+    <row r="21" spans="1:10" ht="15" thickBot="1">
       <c r="A21" s="14">
         <v>15</v>
       </c>
@@ -5777,7 +5781,7 @@
       <c r="I21" s="5"/>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1">
+    <row r="22" spans="1:10" ht="15" thickBot="1">
       <c r="A22" s="14">
         <v>16</v>
       </c>
@@ -5806,7 +5810,7 @@
       </c>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1">
+    <row r="23" spans="1:10" ht="15" thickBot="1">
       <c r="A23" s="14">
         <v>17</v>
       </c>
@@ -5837,7 +5841,7 @@
       </c>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="1:10" ht="15.75" thickBot="1">
+    <row r="24" spans="1:10" ht="15" thickBot="1">
       <c r="A24" s="14">
         <v>18</v>
       </c>
@@ -5866,7 +5870,7 @@
       </c>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="1:10" ht="15.75" thickBot="1">
+    <row r="25" spans="1:10" ht="15" thickBot="1">
       <c r="A25" s="14">
         <v>19</v>
       </c>
@@ -5883,7 +5887,7 @@
       <c r="I25" s="5"/>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1">
+    <row r="26" spans="1:10" ht="15" thickBot="1">
       <c r="A26" s="14">
         <v>20</v>
       </c>
@@ -5900,14 +5904,14 @@
       <c r="I26" s="21"/>
       <c r="J26" s="22"/>
     </row>
-    <row r="27" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A27" s="95" t="s">
+    <row r="27" spans="1:10" ht="15" thickBot="1">
+      <c r="A27" s="117" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="96"/>
-      <c r="C27" s="96"/>
-      <c r="D27" s="96"/>
-      <c r="E27" s="97"/>
+      <c r="B27" s="118"/>
+      <c r="C27" s="118"/>
+      <c r="D27" s="118"/>
+      <c r="E27" s="119"/>
       <c r="F27" s="31">
         <f>SUM(F7:F26)</f>
         <v>702.99999999999989</v>
@@ -5941,85 +5945,85 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="69" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="70" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="71" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="71" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="69" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="69" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="70" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="71" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="71" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="69" customWidth="1"/>
     <col min="6" max="6" width="11" style="72" customWidth="1"/>
-    <col min="7" max="7" width="55.7109375" style="69" customWidth="1"/>
-    <col min="8" max="8" width="63.42578125" style="69" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" style="69" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="69" customWidth="1"/>
-    <col min="11" max="13" width="8.7109375" style="69"/>
-    <col min="14" max="14" width="26.7109375" style="69" customWidth="1"/>
-    <col min="15" max="16384" width="8.7109375" style="69"/>
+    <col min="7" max="7" width="55.6640625" style="69" customWidth="1"/>
+    <col min="8" max="8" width="63.44140625" style="69" customWidth="1"/>
+    <col min="9" max="9" width="3.44140625" style="69" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" style="69" customWidth="1"/>
+    <col min="11" max="13" width="8.6640625" style="69"/>
+    <col min="14" max="14" width="26.6640625" style="69" customWidth="1"/>
+    <col min="15" max="16384" width="8.6640625" style="69"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
+    <row r="1" spans="1:14" ht="15" thickBot="1"/>
     <row r="2" spans="1:14">
-      <c r="A2" s="98" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="100"/>
+      <c r="A2" s="120" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="122"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="101"/>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="103"/>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A4" s="110" t="s">
+      <c r="A3" s="123"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="125"/>
+    </row>
+    <row r="4" spans="1:14" ht="15" thickBot="1">
+      <c r="A4" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="115" t="s">
+      <c r="B4" s="133"/>
+      <c r="C4" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
       <c r="F4" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="117"/>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A5" s="118"/>
-      <c r="B5" s="119"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
-      <c r="J5" s="120"/>
-    </row>
-    <row r="6" spans="1:14" s="73" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A6" s="93" t="s">
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="138"/>
+      <c r="J4" s="139"/>
+    </row>
+    <row r="5" spans="1:14" ht="15" thickBot="1">
+      <c r="A5" s="140"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="141"/>
+      <c r="H5" s="141"/>
+      <c r="I5" s="141"/>
+      <c r="J5" s="142"/>
+    </row>
+    <row r="6" spans="1:14" s="73" customFormat="1" ht="29.4" thickBot="1">
+      <c r="A6" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="94"/>
+      <c r="B6" s="116"/>
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
@@ -6045,7 +6049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1">
+    <row r="7" spans="1:14" ht="15" thickBot="1">
       <c r="A7" s="74">
         <v>1</v>
       </c>
@@ -6077,7 +6081,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1">
+    <row r="8" spans="1:14" ht="15" thickBot="1">
       <c r="A8" s="74">
         <f>A7+1</f>
         <v>2</v>
@@ -6108,7 +6112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1">
+    <row r="9" spans="1:14" ht="15" thickBot="1">
       <c r="A9" s="74">
         <f>A8+1</f>
         <v>3</v>
@@ -6136,7 +6140,7 @@
       </c>
       <c r="J9" s="83"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1">
+    <row r="10" spans="1:14" ht="15" thickBot="1">
       <c r="A10" s="74">
         <v>4</v>
       </c>
@@ -6165,7 +6169,7 @@
       <c r="I10" s="82"/>
       <c r="J10" s="83"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1">
+    <row r="11" spans="1:14" ht="15" thickBot="1">
       <c r="A11" s="74">
         <f>A10+1</f>
         <v>5</v>
@@ -6195,7 +6199,7 @@
       </c>
       <c r="J11" s="83"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1">
+    <row r="12" spans="1:14" ht="15" thickBot="1">
       <c r="A12" s="74">
         <f>A11+1</f>
         <v>6</v>
@@ -6223,7 +6227,7 @@
       <c r="I12" s="82"/>
       <c r="J12" s="83"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" thickBot="1">
+    <row r="13" spans="1:14" ht="15" thickBot="1">
       <c r="A13" s="74">
         <v>7</v>
       </c>
@@ -6250,7 +6254,7 @@
       </c>
       <c r="J13" s="83"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1">
+    <row r="14" spans="1:14" ht="15" thickBot="1">
       <c r="A14" s="74">
         <f>A13+1</f>
         <v>8</v>
@@ -6278,7 +6282,7 @@
       <c r="I14" s="82"/>
       <c r="J14" s="83"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1">
+    <row r="15" spans="1:14" ht="15" thickBot="1">
       <c r="A15" s="74">
         <f>A14+1</f>
         <v>9</v>
@@ -6306,7 +6310,7 @@
       </c>
       <c r="J15" s="83"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1">
+    <row r="16" spans="1:14" ht="15" thickBot="1">
       <c r="A16" s="74">
         <v>10</v>
       </c>
@@ -6331,7 +6335,7 @@
       <c r="I16" s="82"/>
       <c r="J16" s="83"/>
     </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1">
+    <row r="17" spans="1:10" ht="15" thickBot="1">
       <c r="A17" s="74">
         <f>A16+1</f>
         <v>11</v>
@@ -6361,7 +6365,7 @@
       <c r="I17" s="82"/>
       <c r="J17" s="83"/>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1">
+    <row r="18" spans="1:10" ht="15" thickBot="1">
       <c r="A18" s="74">
         <f>A17+1</f>
         <v>12</v>
@@ -6387,7 +6391,7 @@
       <c r="I18" s="82"/>
       <c r="J18" s="83"/>
     </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1">
+    <row r="19" spans="1:10" ht="15" thickBot="1">
       <c r="A19" s="74">
         <v>13</v>
       </c>
@@ -6412,7 +6416,7 @@
       <c r="I19" s="82"/>
       <c r="J19" s="83"/>
     </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1">
+    <row r="20" spans="1:10" ht="15" thickBot="1">
       <c r="A20" s="74">
         <f>A19+1</f>
         <v>14</v>
@@ -6438,7 +6442,7 @@
       <c r="I20" s="82"/>
       <c r="J20" s="83"/>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1">
+    <row r="21" spans="1:10" ht="15" thickBot="1">
       <c r="A21" s="74">
         <f>A20+1</f>
         <v>15</v>
@@ -6466,7 +6470,7 @@
       <c r="I21" s="82"/>
       <c r="J21" s="83"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1">
+    <row r="22" spans="1:10" ht="15" thickBot="1">
       <c r="A22" s="74">
         <v>16</v>
       </c>
@@ -6495,7 +6499,7 @@
       </c>
       <c r="J22" s="83"/>
     </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1">
+    <row r="23" spans="1:10" ht="15" thickBot="1">
       <c r="A23" s="74">
         <f>A22+1</f>
         <v>17</v>
@@ -6521,7 +6525,7 @@
       <c r="I23" s="82"/>
       <c r="J23" s="83"/>
     </row>
-    <row r="24" spans="1:10" ht="15.75" thickBot="1">
+    <row r="24" spans="1:10" ht="15" thickBot="1">
       <c r="A24" s="74">
         <f>A23+1</f>
         <v>18</v>
@@ -6549,7 +6553,7 @@
       </c>
       <c r="J24" s="83"/>
     </row>
-    <row r="25" spans="1:10" ht="15.75" thickBot="1">
+    <row r="25" spans="1:10" ht="15" thickBot="1">
       <c r="A25" s="74">
         <v>19</v>
       </c>
@@ -6580,7 +6584,7 @@
       </c>
       <c r="J25" s="83"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1">
+    <row r="26" spans="1:10" ht="15" thickBot="1">
       <c r="A26" s="74">
         <f>A25+1</f>
         <v>20</v>
@@ -6612,7 +6616,7 @@
       </c>
       <c r="J26" s="83"/>
     </row>
-    <row r="27" spans="1:10" ht="15.75" thickBot="1">
+    <row r="27" spans="1:10" ht="15" thickBot="1">
       <c r="A27" s="74">
         <f>A26+1</f>
         <v>21</v>
@@ -6642,7 +6646,7 @@
       </c>
       <c r="J27" s="83"/>
     </row>
-    <row r="28" spans="1:10" ht="15.75" thickBot="1">
+    <row r="28" spans="1:10" ht="15" thickBot="1">
       <c r="A28" s="74">
         <v>22</v>
       </c>
@@ -6659,7 +6663,7 @@
       <c r="I28" s="82"/>
       <c r="J28" s="83"/>
     </row>
-    <row r="29" spans="1:10" ht="15.75" thickBot="1">
+    <row r="29" spans="1:10" ht="15" thickBot="1">
       <c r="A29" s="74">
         <f>A28+1</f>
         <v>23</v>
@@ -6677,7 +6681,7 @@
       <c r="I29" s="82"/>
       <c r="J29" s="83"/>
     </row>
-    <row r="30" spans="1:10" ht="15.75" thickBot="1">
+    <row r="30" spans="1:10" ht="15" thickBot="1">
       <c r="A30" s="74">
         <f>A29+1</f>
         <v>24</v>
@@ -6695,7 +6699,7 @@
       <c r="I30" s="82"/>
       <c r="J30" s="83"/>
     </row>
-    <row r="31" spans="1:10" ht="15.75" thickBot="1">
+    <row r="31" spans="1:10" ht="15" thickBot="1">
       <c r="A31" s="74">
         <v>25</v>
       </c>
@@ -6712,7 +6716,7 @@
       <c r="I31" s="82"/>
       <c r="J31" s="83"/>
     </row>
-    <row r="32" spans="1:10" ht="15.75" thickBot="1">
+    <row r="32" spans="1:10" ht="15" thickBot="1">
       <c r="A32" s="74">
         <f>A31+1</f>
         <v>26</v>
@@ -6730,14 +6734,14 @@
       <c r="I32" s="87"/>
       <c r="J32" s="88"/>
     </row>
-    <row r="33" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A33" s="95" t="s">
+    <row r="33" spans="1:10" ht="15" thickBot="1">
+      <c r="A33" s="117" t="s">
         <v>102</v>
       </c>
-      <c r="B33" s="96"/>
-      <c r="C33" s="96"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="97"/>
+      <c r="B33" s="118"/>
+      <c r="C33" s="118"/>
+      <c r="D33" s="118"/>
+      <c r="E33" s="119"/>
       <c r="F33" s="31">
         <f>SUM(F7:F32)</f>
         <v>1039.0000000000007</v>
@@ -6771,83 +6775,83 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
     <col min="6" max="6" width="11" style="66" customWidth="1"/>
-    <col min="7" max="7" width="55.7109375" customWidth="1"/>
-    <col min="8" max="8" width="63.42578125" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" customWidth="1"/>
-    <col min="14" max="14" width="26.7109375" customWidth="1"/>
+    <col min="7" max="7" width="55.6640625" customWidth="1"/>
+    <col min="8" max="8" width="63.44140625" customWidth="1"/>
+    <col min="9" max="9" width="3.44140625" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
+    <col min="14" max="14" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
+    <row r="1" spans="1:14" ht="15" thickBot="1"/>
     <row r="2" spans="1:14">
-      <c r="A2" s="98" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="100"/>
+      <c r="A2" s="120" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="122"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="101"/>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="103"/>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A4" s="110" t="s">
+      <c r="A3" s="123"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="125"/>
+    </row>
+    <row r="4" spans="1:14" ht="15" thickBot="1">
+      <c r="A4" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="104" t="s">
+      <c r="B4" s="133"/>
+      <c r="C4" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
       <c r="F4" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="106"/>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A5" s="107"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="109"/>
-    </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A6" s="93" t="s">
+      <c r="G4" s="127"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="128"/>
+    </row>
+    <row r="5" spans="1:14" ht="15" thickBot="1">
+      <c r="A5" s="129"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="131"/>
+    </row>
+    <row r="6" spans="1:14" s="3" customFormat="1" ht="29.4" thickBot="1">
+      <c r="A6" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="94"/>
+      <c r="B6" s="116"/>
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
@@ -6873,7 +6877,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1">
+    <row r="7" spans="1:14" ht="15" thickBot="1">
       <c r="A7" s="14">
         <v>1</v>
       </c>
@@ -6907,7 +6911,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1">
+    <row r="8" spans="1:14" ht="15" thickBot="1">
       <c r="A8" s="14">
         <v>2</v>
       </c>
@@ -6939,7 +6943,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1">
+    <row r="9" spans="1:14" ht="15" thickBot="1">
       <c r="A9" s="14">
         <v>3</v>
       </c>
@@ -6964,7 +6968,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1">
+    <row r="10" spans="1:14" ht="15" thickBot="1">
       <c r="A10" s="14">
         <v>4</v>
       </c>
@@ -6991,7 +6995,7 @@
       </c>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1">
+    <row r="11" spans="1:14" ht="15" thickBot="1">
       <c r="A11" s="14">
         <v>5</v>
       </c>
@@ -7016,7 +7020,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1">
+    <row r="12" spans="1:14" ht="15" thickBot="1">
       <c r="A12" s="14">
         <v>6</v>
       </c>
@@ -7045,7 +7049,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" thickBot="1">
+    <row r="13" spans="1:14" ht="15" thickBot="1">
       <c r="A13" s="14">
         <v>7</v>
       </c>
@@ -7070,7 +7074,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1">
+    <row r="14" spans="1:14" ht="15" thickBot="1">
       <c r="A14" s="14">
         <v>8</v>
       </c>
@@ -7097,7 +7101,7 @@
       </c>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1">
+    <row r="15" spans="1:14" ht="15" thickBot="1">
       <c r="A15" s="14">
         <v>9</v>
       </c>
@@ -7124,7 +7128,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1">
+    <row r="16" spans="1:14" ht="15" thickBot="1">
       <c r="A16" s="14">
         <v>10</v>
       </c>
@@ -7153,7 +7157,7 @@
       </c>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1">
+    <row r="17" spans="1:10" ht="15" thickBot="1">
       <c r="A17" s="14">
         <v>11</v>
       </c>
@@ -7182,7 +7186,7 @@
       </c>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1">
+    <row r="18" spans="1:10" ht="15" thickBot="1">
       <c r="A18" s="14">
         <v>12</v>
       </c>
@@ -7209,7 +7213,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1">
+    <row r="19" spans="1:10" ht="15" thickBot="1">
       <c r="A19" s="14">
         <v>13</v>
       </c>
@@ -7234,7 +7238,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1">
+    <row r="20" spans="1:10" ht="15" thickBot="1">
       <c r="A20" s="14">
         <v>14</v>
       </c>
@@ -7261,7 +7265,7 @@
       <c r="I20" s="5"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1">
+    <row r="21" spans="1:10" ht="15" thickBot="1">
       <c r="A21" s="14">
         <v>15</v>
       </c>
@@ -7290,7 +7294,7 @@
       </c>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1">
+    <row r="22" spans="1:10" ht="15" thickBot="1">
       <c r="A22" s="14">
         <v>16</v>
       </c>
@@ -7317,7 +7321,7 @@
       <c r="I22" s="5"/>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1">
+    <row r="23" spans="1:10" ht="15" thickBot="1">
       <c r="A23" s="14">
         <v>17</v>
       </c>
@@ -7344,7 +7348,7 @@
       <c r="I23" s="5"/>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="1:10" ht="15.75" thickBot="1">
+    <row r="24" spans="1:10" ht="15" thickBot="1">
       <c r="A24" s="14">
         <v>18</v>
       </c>
@@ -7369,7 +7373,7 @@
       <c r="I24" s="5"/>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="1:10" ht="15.75" thickBot="1">
+    <row r="25" spans="1:10" ht="15" thickBot="1">
       <c r="A25" s="14">
         <v>19</v>
       </c>
@@ -7386,7 +7390,7 @@
       <c r="I25" s="5"/>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1">
+    <row r="26" spans="1:10" ht="15" thickBot="1">
       <c r="A26" s="14">
         <v>20</v>
       </c>
@@ -7403,14 +7407,14 @@
       <c r="I26" s="21"/>
       <c r="J26" s="22"/>
     </row>
-    <row r="27" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A27" s="95" t="s">
+    <row r="27" spans="1:10" ht="15" thickBot="1">
+      <c r="A27" s="117" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="96"/>
-      <c r="C27" s="96"/>
-      <c r="D27" s="96"/>
-      <c r="E27" s="97"/>
+      <c r="B27" s="118"/>
+      <c r="C27" s="118"/>
+      <c r="D27" s="118"/>
+      <c r="E27" s="119"/>
       <c r="F27" s="31">
         <f>SUM(F7:F26)</f>
         <v>838.99999999999932</v>
@@ -7440,689 +7444,702 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="87" zoomScaleNormal="139" zoomScalePageLayoutView="139" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="87" zoomScaleNormal="139" zoomScalePageLayoutView="139" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
     <col min="6" max="6" width="11" style="66" customWidth="1"/>
-    <col min="7" max="7" width="55.7109375" customWidth="1"/>
-    <col min="8" max="8" width="63.42578125" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" customWidth="1"/>
-    <col min="14" max="14" width="26.7109375" customWidth="1"/>
+    <col min="7" max="7" width="55.6640625" customWidth="1"/>
+    <col min="8" max="8" width="63.44140625" customWidth="1"/>
+    <col min="9" max="9" width="3.44140625" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
+    <col min="14" max="14" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
+    <row r="1" spans="1:14" ht="15" thickBot="1"/>
     <row r="2" spans="1:14">
-      <c r="A2" s="98" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="100"/>
+      <c r="A2" s="120" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="122"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="101"/>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="103"/>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A4" s="110" t="s">
+      <c r="A3" s="123"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="125"/>
+    </row>
+    <row r="4" spans="1:14" ht="15" thickBot="1">
+      <c r="A4" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="104" t="s">
+      <c r="B4" s="133"/>
+      <c r="C4" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
       <c r="F4" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="106"/>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A5" s="107"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="109"/>
-    </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" ht="32.25" thickBot="1">
-      <c r="A6" s="121" t="s">
+      <c r="G4" s="127"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="128"/>
+    </row>
+    <row r="5" spans="1:14" ht="15" thickBot="1">
+      <c r="A5" s="129"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="131"/>
+    </row>
+    <row r="6" spans="1:14" s="3" customFormat="1" ht="31.8" thickBot="1">
+      <c r="A6" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="122"/>
-      <c r="C6" s="123" t="s">
+      <c r="B6" s="147"/>
+      <c r="C6" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="123" t="s">
+      <c r="D6" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="124" t="s">
+      <c r="E6" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="125" t="s">
+      <c r="F6" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="124" t="s">
+      <c r="G6" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="124" t="s">
+      <c r="H6" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="124" t="s">
+      <c r="I6" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="126" t="s">
+      <c r="J6" s="96" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="16.5" thickBot="1">
-      <c r="A7" s="127">
+    <row r="7" spans="1:14" ht="16.2" thickBot="1">
+      <c r="A7" s="97">
         <v>1</v>
       </c>
-      <c r="B7" s="128">
+      <c r="B7" s="98">
         <v>43916</v>
       </c>
-      <c r="C7" s="129">
+      <c r="C7" s="99">
         <v>0.48472222222222222</v>
       </c>
-      <c r="D7" s="129">
+      <c r="D7" s="99">
         <v>0.50763888888888886</v>
       </c>
-      <c r="E7" s="130">
-        <v>0</v>
-      </c>
-      <c r="F7" s="131">
+      <c r="E7" s="100">
+        <v>0</v>
+      </c>
+      <c r="F7" s="101">
         <f>(D7-C7)*1440</f>
         <v>32.999999999999964</v>
       </c>
-      <c r="G7" s="130" t="s">
+      <c r="G7" s="100" t="s">
         <v>177</v>
       </c>
-      <c r="H7" s="130" t="s">
+      <c r="H7" s="100" t="s">
         <v>178</v>
       </c>
-      <c r="I7" s="130" t="s">
+      <c r="I7" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="132"/>
+      <c r="J7" s="102"/>
       <c r="N7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="16.5" thickBot="1">
-      <c r="A8" s="127">
+    <row r="8" spans="1:14" ht="16.2" thickBot="1">
+      <c r="A8" s="97">
         <f>A7+1</f>
         <v>2</v>
       </c>
-      <c r="B8" s="133"/>
-      <c r="C8" s="134">
+      <c r="B8" s="103"/>
+      <c r="C8" s="104">
         <v>0.94305555555555554</v>
       </c>
-      <c r="D8" s="134">
+      <c r="D8" s="104">
         <v>0.96875</v>
       </c>
-      <c r="E8" s="135">
-        <v>0</v>
-      </c>
-      <c r="F8" s="131">
+      <c r="E8" s="105">
+        <v>0</v>
+      </c>
+      <c r="F8" s="101">
         <f t="shared" ref="F8:F27" si="0">(D8-C8)*1440</f>
         <v>37.000000000000028</v>
       </c>
-      <c r="G8" s="135" t="s">
+      <c r="G8" s="105" t="s">
         <v>180</v>
       </c>
-      <c r="H8" s="135" t="s">
+      <c r="H8" s="105" t="s">
         <v>179</v>
       </c>
-      <c r="I8" s="135" t="s">
+      <c r="I8" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="136"/>
+      <c r="J8" s="106"/>
       <c r="N8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="16.5" thickBot="1">
-      <c r="A9" s="127">
+    <row r="9" spans="1:14" ht="16.2" thickBot="1">
+      <c r="A9" s="97">
         <f t="shared" ref="A9:A21" si="1">A8+1</f>
         <v>3</v>
       </c>
-      <c r="B9" s="133">
+      <c r="B9" s="103">
         <v>43917</v>
       </c>
-      <c r="C9" s="134">
+      <c r="C9" s="104">
         <v>0.40416666666666662</v>
       </c>
-      <c r="D9" s="134">
+      <c r="D9" s="104">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E9" s="135">
-        <v>0</v>
-      </c>
-      <c r="F9" s="131">
+      <c r="E9" s="105">
+        <v>0</v>
+      </c>
+      <c r="F9" s="101">
         <f t="shared" si="0"/>
         <v>18.000000000000096</v>
       </c>
-      <c r="G9" s="135" t="s">
+      <c r="G9" s="105" t="s">
         <v>181</v>
       </c>
-      <c r="H9" s="135" t="s">
+      <c r="H9" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="I9" s="135" t="s">
+      <c r="I9" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="136"/>
-    </row>
-    <row r="10" spans="1:14" ht="16.5" thickBot="1">
-      <c r="A10" s="127">
+      <c r="J9" s="106"/>
+    </row>
+    <row r="10" spans="1:14" ht="16.2" thickBot="1">
+      <c r="A10" s="97">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B10" s="133"/>
-      <c r="C10" s="134">
+      <c r="B10" s="103"/>
+      <c r="C10" s="104">
         <v>0.44444444444444442</v>
       </c>
-      <c r="D10" s="134">
+      <c r="D10" s="104">
         <v>0.46180555555555558</v>
       </c>
-      <c r="E10" s="135">
-        <v>0</v>
-      </c>
-      <c r="F10" s="131">
+      <c r="E10" s="105">
+        <v>0</v>
+      </c>
+      <c r="F10" s="101">
         <f t="shared" si="0"/>
         <v>25.000000000000071</v>
       </c>
-      <c r="G10" s="135" t="s">
+      <c r="G10" s="105" t="s">
         <v>183</v>
       </c>
-      <c r="H10" s="135"/>
-      <c r="I10" s="135"/>
-      <c r="J10" s="136"/>
-    </row>
-    <row r="11" spans="1:14" ht="16.5" thickBot="1">
-      <c r="A11" s="127">
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="106"/>
+    </row>
+    <row r="11" spans="1:14" ht="16.2" thickBot="1">
+      <c r="A11" s="97">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B11" s="133">
+      <c r="B11" s="103">
         <v>43919</v>
       </c>
-      <c r="C11" s="134">
+      <c r="C11" s="104">
         <v>0.90972222222222221</v>
       </c>
-      <c r="D11" s="134">
+      <c r="D11" s="104">
         <v>0.9291666666666667</v>
       </c>
-      <c r="E11" s="135">
-        <v>0</v>
-      </c>
-      <c r="F11" s="131">
+      <c r="E11" s="105">
+        <v>0</v>
+      </c>
+      <c r="F11" s="101">
         <f t="shared" si="0"/>
         <v>28.00000000000006</v>
       </c>
-      <c r="G11" s="135" t="s">
+      <c r="G11" s="105" t="s">
         <v>184</v>
       </c>
-      <c r="H11" s="135" t="s">
+      <c r="H11" s="105" t="s">
         <v>185</v>
       </c>
-      <c r="I11" s="135"/>
-      <c r="J11" s="136"/>
-    </row>
-    <row r="12" spans="1:14" ht="16.5" thickBot="1">
-      <c r="A12" s="127">
+      <c r="I11" s="105"/>
+      <c r="J11" s="106"/>
+    </row>
+    <row r="12" spans="1:14" ht="16.2" thickBot="1">
+      <c r="A12" s="97">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B12" s="133"/>
-      <c r="C12" s="134">
+      <c r="B12" s="103"/>
+      <c r="C12" s="104">
         <v>0.97013888888888899</v>
       </c>
-      <c r="D12" s="134">
+      <c r="D12" s="104">
         <v>0.98958333333333337</v>
       </c>
-      <c r="E12" s="135">
-        <v>0</v>
-      </c>
-      <c r="F12" s="131">
+      <c r="E12" s="105">
+        <v>0</v>
+      </c>
+      <c r="F12" s="101">
         <f t="shared" si="0"/>
         <v>27.999999999999901</v>
       </c>
-      <c r="G12" s="135" t="s">
+      <c r="G12" s="105" t="s">
         <v>184</v>
       </c>
-      <c r="H12" s="135" t="s">
+      <c r="H12" s="105" t="s">
         <v>185</v>
       </c>
-      <c r="I12" s="135"/>
-      <c r="J12" s="136"/>
-    </row>
-    <row r="13" spans="1:14" ht="16.5" thickBot="1">
-      <c r="A13" s="127">
+      <c r="I12" s="105"/>
+      <c r="J12" s="106"/>
+    </row>
+    <row r="13" spans="1:14" ht="16.2" thickBot="1">
+      <c r="A13" s="97">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B13" s="133">
+      <c r="B13" s="103">
         <v>43920</v>
       </c>
-      <c r="C13" s="134">
+      <c r="C13" s="104">
         <v>0.3923611111111111</v>
       </c>
-      <c r="D13" s="134">
+      <c r="D13" s="104">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E13" s="135">
-        <v>0</v>
-      </c>
-      <c r="F13" s="131">
+      <c r="E13" s="105">
+        <v>0</v>
+      </c>
+      <c r="F13" s="101">
         <f t="shared" si="0"/>
         <v>35.000000000000036</v>
       </c>
-      <c r="G13" s="135" t="s">
+      <c r="G13" s="105" t="s">
         <v>184</v>
       </c>
-      <c r="H13" s="135" t="s">
+      <c r="H13" s="105" t="s">
         <v>185</v>
       </c>
-      <c r="I13" s="135" t="s">
+      <c r="I13" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="136"/>
-    </row>
-    <row r="14" spans="1:14" ht="16.5" thickBot="1">
-      <c r="A14" s="127">
+      <c r="J13" s="106"/>
+    </row>
+    <row r="14" spans="1:14" ht="16.2" thickBot="1">
+      <c r="A14" s="97">
         <v>8</v>
       </c>
-      <c r="B14" s="133"/>
-      <c r="C14" s="134">
+      <c r="B14" s="103"/>
+      <c r="C14" s="104">
         <v>0.8666666666666667</v>
       </c>
-      <c r="D14" s="134">
+      <c r="D14" s="104">
         <v>0.88888888888888884</v>
       </c>
-      <c r="E14" s="135">
-        <v>0</v>
-      </c>
-      <c r="F14" s="131">
+      <c r="E14" s="105">
+        <v>0</v>
+      </c>
+      <c r="F14" s="101">
         <f t="shared" si="0"/>
         <v>31.999999999999886</v>
       </c>
-      <c r="G14" s="135" t="s">
+      <c r="G14" s="105" t="s">
         <v>188</v>
       </c>
-      <c r="H14" s="135"/>
-      <c r="I14" s="135"/>
-      <c r="J14" s="136"/>
-    </row>
-    <row r="15" spans="1:14" ht="16.5" thickBot="1">
-      <c r="A15" s="127">
+      <c r="H14" s="105"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="106"/>
+    </row>
+    <row r="15" spans="1:14" ht="16.2" thickBot="1">
+      <c r="A15" s="97">
         <v>9</v>
       </c>
-      <c r="B15" s="133">
+      <c r="B15" s="103">
         <v>43921</v>
       </c>
-      <c r="C15" s="134">
+      <c r="C15" s="104">
         <v>0.44375000000000003</v>
       </c>
-      <c r="D15" s="134">
+      <c r="D15" s="104">
         <v>0.4694444444444445</v>
       </c>
-      <c r="E15" s="135">
-        <v>0</v>
-      </c>
-      <c r="F15" s="131">
+      <c r="E15" s="105">
+        <v>0</v>
+      </c>
+      <c r="F15" s="101">
         <f t="shared" si="0"/>
         <v>37.000000000000028</v>
       </c>
-      <c r="G15" s="135" t="s">
+      <c r="G15" s="105" t="s">
         <v>186</v>
       </c>
-      <c r="H15" s="135" t="s">
+      <c r="H15" s="105" t="s">
         <v>187</v>
       </c>
-      <c r="I15" s="135" t="s">
+      <c r="I15" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="136"/>
-    </row>
-    <row r="16" spans="1:14" ht="16.5" thickBot="1">
-      <c r="A16" s="127">
+      <c r="J15" s="106"/>
+    </row>
+    <row r="16" spans="1:14" ht="16.2" thickBot="1">
+      <c r="A16" s="97">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B16" s="133"/>
-      <c r="C16" s="134">
+      <c r="B16" s="103"/>
+      <c r="C16" s="104">
         <v>0.4694444444444445</v>
       </c>
-      <c r="D16" s="134">
+      <c r="D16" s="104">
         <v>0.48888888888888887</v>
       </c>
-      <c r="E16" s="135">
-        <v>0</v>
-      </c>
-      <c r="F16" s="131">
+      <c r="E16" s="105">
+        <v>0</v>
+      </c>
+      <c r="F16" s="101">
         <f t="shared" si="0"/>
         <v>27.999999999999901</v>
       </c>
-      <c r="G16" s="135" t="s">
+      <c r="G16" s="105" t="s">
         <v>189</v>
       </c>
-      <c r="H16" s="135"/>
-      <c r="I16" s="135"/>
-      <c r="J16" s="136"/>
-    </row>
-    <row r="17" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A17" s="127">
+      <c r="H16" s="105"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="106"/>
+    </row>
+    <row r="17" spans="1:10" ht="16.2" thickBot="1">
+      <c r="A17" s="97">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B17" s="133"/>
-      <c r="C17" s="134">
+      <c r="B17" s="103"/>
+      <c r="C17" s="104">
         <v>0.57777777777777783</v>
       </c>
-      <c r="D17" s="134">
+      <c r="D17" s="104">
         <v>0.62916666666666665</v>
       </c>
-      <c r="E17" s="135">
-        <v>0</v>
-      </c>
-      <c r="F17" s="131">
+      <c r="E17" s="105">
+        <v>0</v>
+      </c>
+      <c r="F17" s="101">
         <f t="shared" si="0"/>
         <v>73.999999999999901</v>
       </c>
-      <c r="G17" s="135" t="s">
+      <c r="G17" s="105" t="s">
         <v>190</v>
       </c>
-      <c r="H17" s="135" t="s">
+      <c r="H17" s="105" t="s">
         <v>191</v>
       </c>
-      <c r="I17" s="135"/>
-      <c r="J17" s="136"/>
-    </row>
-    <row r="18" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A18" s="127">
+      <c r="I17" s="105"/>
+      <c r="J17" s="106"/>
+    </row>
+    <row r="18" spans="1:10" ht="16.2" thickBot="1">
+      <c r="A18" s="97">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B18" s="133"/>
-      <c r="C18" s="134">
+      <c r="B18" s="103"/>
+      <c r="C18" s="104">
         <v>0.80555555555555547</v>
       </c>
-      <c r="D18" s="134">
+      <c r="D18" s="104">
         <v>0.81319444444444444</v>
       </c>
-      <c r="E18" s="135">
-        <v>0</v>
-      </c>
-      <c r="F18" s="131">
+      <c r="E18" s="105">
+        <v>0</v>
+      </c>
+      <c r="F18" s="101">
         <f t="shared" si="0"/>
         <v>11.000000000000121</v>
       </c>
-      <c r="G18" s="135" t="s">
+      <c r="G18" s="105" t="s">
         <v>192</v>
       </c>
-      <c r="H18" s="135"/>
-      <c r="I18" s="135"/>
-      <c r="J18" s="136"/>
-    </row>
-    <row r="19" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A19" s="127">
+      <c r="H18" s="105"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="106"/>
+    </row>
+    <row r="19" spans="1:10" ht="16.2" thickBot="1">
+      <c r="A19" s="97">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B19" s="133"/>
-      <c r="C19" s="134">
+      <c r="B19" s="103"/>
+      <c r="C19" s="104">
         <v>0.85486111111111107</v>
       </c>
-      <c r="D19" s="134">
+      <c r="D19" s="104">
         <v>0.91736111111111107</v>
       </c>
-      <c r="E19" s="135">
-        <v>0</v>
-      </c>
-      <c r="F19" s="131">
+      <c r="E19" s="105">
+        <v>0</v>
+      </c>
+      <c r="F19" s="101">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="G19" s="135" t="s">
+      <c r="G19" s="105" t="s">
         <v>193</v>
       </c>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="136"/>
-    </row>
-    <row r="20" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A20" s="127">
+      <c r="H19" s="105"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="106"/>
+    </row>
+    <row r="20" spans="1:10" ht="16.2" thickBot="1">
+      <c r="A20" s="97">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B20" s="133"/>
-      <c r="C20" s="134">
+      <c r="B20" s="103"/>
+      <c r="C20" s="104">
         <v>0.94305555555555554</v>
       </c>
-      <c r="D20" s="134">
+      <c r="D20" s="104">
         <v>0.96666666666666667</v>
       </c>
-      <c r="E20" s="135">
-        <v>0</v>
-      </c>
-      <c r="F20" s="131">
+      <c r="E20" s="105">
+        <v>0</v>
+      </c>
+      <c r="F20" s="101">
         <f t="shared" si="0"/>
         <v>34.000000000000043</v>
       </c>
-      <c r="G20" s="135" t="s">
+      <c r="G20" s="105" t="s">
         <v>194</v>
       </c>
-      <c r="H20" s="135" t="s">
+      <c r="H20" s="105" t="s">
         <v>195</v>
       </c>
-      <c r="I20" s="135" t="s">
+      <c r="I20" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="136"/>
-    </row>
-    <row r="21" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A21" s="127">
+      <c r="J20" s="106"/>
+    </row>
+    <row r="21" spans="1:10" ht="16.2" thickBot="1">
+      <c r="A21" s="97">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B21" s="133">
+      <c r="B21" s="103">
         <v>43922</v>
       </c>
-      <c r="C21" s="134">
+      <c r="C21" s="104">
         <v>0.37777777777777777</v>
       </c>
-      <c r="D21" s="134">
+      <c r="D21" s="104">
         <v>0.4201388888888889</v>
       </c>
-      <c r="E21" s="135">
-        <v>0</v>
-      </c>
-      <c r="F21" s="131">
+      <c r="E21" s="105">
+        <v>0</v>
+      </c>
+      <c r="F21" s="101">
         <f t="shared" si="0"/>
         <v>61.000000000000021</v>
       </c>
-      <c r="G21" s="135" t="s">
+      <c r="G21" s="105" t="s">
         <v>196</v>
       </c>
-      <c r="H21" s="135" t="s">
+      <c r="H21" s="105" t="s">
         <v>197</v>
       </c>
-      <c r="I21" s="135" t="s">
+      <c r="I21" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="J21" s="136"/>
-    </row>
-    <row r="22" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A22" s="127">
+      <c r="J21" s="106"/>
+    </row>
+    <row r="22" spans="1:10" ht="16.2" thickBot="1">
+      <c r="A22" s="97">
         <v>16</v>
       </c>
-      <c r="B22" s="133"/>
-      <c r="C22" s="134">
+      <c r="B22" s="103"/>
+      <c r="C22" s="104">
         <v>0.4236111111111111</v>
       </c>
-      <c r="D22" s="134">
+      <c r="D22" s="104">
         <v>0.47222222222222227</v>
       </c>
-      <c r="E22" s="135">
-        <v>0</v>
-      </c>
-      <c r="F22" s="131">
+      <c r="E22" s="105">
+        <v>0</v>
+      </c>
+      <c r="F22" s="101">
         <f t="shared" si="0"/>
         <v>70.000000000000071</v>
       </c>
-      <c r="G22" s="135" t="s">
+      <c r="G22" s="105" t="s">
         <v>198</v>
       </c>
-      <c r="H22" s="135" t="s">
+      <c r="H22" s="105" t="s">
         <v>199</v>
       </c>
-      <c r="I22" s="135" t="s">
+      <c r="I22" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="J22" s="136"/>
+      <c r="J22" s="106"/>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A23" s="127">
+      <c r="A23" s="97">
         <v>17</v>
       </c>
-      <c r="B23" s="133"/>
-      <c r="C23" s="134">
+      <c r="B23" s="103"/>
+      <c r="C23" s="104">
         <v>0.47222222222222227</v>
       </c>
-      <c r="D23" s="134">
+      <c r="D23" s="104">
         <v>0.50277777777777777</v>
       </c>
-      <c r="E23" s="135">
-        <v>0</v>
-      </c>
-      <c r="F23" s="131">
+      <c r="E23" s="105">
+        <v>0</v>
+      </c>
+      <c r="F23" s="101">
         <f t="shared" si="0"/>
         <v>43.999999999999922</v>
       </c>
-      <c r="G23" s="135" t="s">
+      <c r="G23" s="105" t="s">
         <v>200</v>
       </c>
-      <c r="H23" s="147" t="s">
+      <c r="H23" s="114" t="s">
         <v>202</v>
       </c>
-      <c r="I23" s="135"/>
-      <c r="J23" s="136"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="106"/>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A24" s="127"/>
-      <c r="B24" s="133"/>
-      <c r="C24" s="134"/>
-      <c r="D24" s="134"/>
-      <c r="E24" s="135"/>
-      <c r="F24" s="131"/>
-      <c r="G24" s="135" t="s">
+      <c r="A24" s="97"/>
+      <c r="B24" s="103"/>
+      <c r="C24" s="104">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D24" s="104">
+        <v>0.62777777777777777</v>
+      </c>
+      <c r="E24" s="105">
+        <v>0</v>
+      </c>
+      <c r="F24" s="101">
+        <f t="shared" si="0"/>
+        <v>18.999999999999932</v>
+      </c>
+      <c r="G24" s="105" t="s">
         <v>204</v>
       </c>
-      <c r="H24" s="147"/>
-      <c r="I24" s="135"/>
-      <c r="J24" s="136"/>
-    </row>
-    <row r="25" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A25" s="127">
+      <c r="H24" s="148" t="s">
+        <v>205</v>
+      </c>
+      <c r="I24" s="105" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="106"/>
+    </row>
+    <row r="25" spans="1:10" ht="16.2" thickBot="1">
+      <c r="A25" s="97">
         <v>18</v>
       </c>
-      <c r="B25" s="133"/>
-      <c r="C25" s="134"/>
-      <c r="D25" s="134"/>
-      <c r="E25" s="135"/>
-      <c r="F25" s="131"/>
-      <c r="G25" s="135" t="s">
+      <c r="B25" s="103"/>
+      <c r="C25" s="104"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="105" t="s">
         <v>201</v>
       </c>
-      <c r="H25" s="147" t="s">
+      <c r="H25" s="114" t="s">
         <v>203</v>
       </c>
-      <c r="I25" s="135"/>
-      <c r="J25" s="136"/>
-    </row>
-    <row r="26" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A26" s="127">
+      <c r="I25" s="105"/>
+      <c r="J25" s="106"/>
+    </row>
+    <row r="26" spans="1:10" ht="16.2" thickBot="1">
+      <c r="A26" s="97">
         <v>19</v>
       </c>
-      <c r="B26" s="133"/>
-      <c r="C26" s="134"/>
-      <c r="D26" s="134"/>
-      <c r="E26" s="135"/>
-      <c r="F26" s="131">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="135"/>
-      <c r="H26" s="135"/>
-      <c r="I26" s="135"/>
-      <c r="J26" s="136"/>
-    </row>
-    <row r="27" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A27" s="127">
+      <c r="B26" s="103"/>
+      <c r="C26" s="104"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="105"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="105"/>
+      <c r="J26" s="106"/>
+    </row>
+    <row r="27" spans="1:10" ht="16.2" thickBot="1">
+      <c r="A27" s="97">
         <v>20</v>
       </c>
-      <c r="B27" s="137"/>
-      <c r="C27" s="138"/>
-      <c r="D27" s="138"/>
-      <c r="E27" s="139"/>
-      <c r="F27" s="131">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="139"/>
-      <c r="H27" s="139"/>
-      <c r="I27" s="139"/>
-      <c r="J27" s="140"/>
-    </row>
-    <row r="28" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A28" s="141" t="s">
+      <c r="B27" s="107"/>
+      <c r="C27" s="108"/>
+      <c r="D27" s="108"/>
+      <c r="E27" s="109"/>
+      <c r="F27" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="109"/>
+      <c r="H27" s="109"/>
+      <c r="I27" s="109"/>
+      <c r="J27" s="110"/>
+    </row>
+    <row r="28" spans="1:10" ht="16.2" thickBot="1">
+      <c r="A28" s="143" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="142"/>
-      <c r="C28" s="142"/>
-      <c r="D28" s="142"/>
-      <c r="E28" s="143"/>
-      <c r="F28" s="144">
+      <c r="B28" s="144"/>
+      <c r="C28" s="144"/>
+      <c r="D28" s="144"/>
+      <c r="E28" s="145"/>
+      <c r="F28" s="111">
         <f>SUM(F7:F27)</f>
-        <v>685</v>
-      </c>
-      <c r="G28" s="145"/>
-      <c r="H28" s="145"/>
-      <c r="I28" s="145"/>
-      <c r="J28" s="146"/>
+        <v>703.99999999999989</v>
+      </c>
+      <c r="G28" s="112"/>
+      <c r="H28" s="112"/>
+      <c r="I28" s="112"/>
+      <c r="J28" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/AJALOGI/PROGE_Time recording log.xlsx
+++ b/AJALOGI/PROGE_Time recording log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kasutaja\source\repos\AnnabelMa\VL\AJALOGI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C68813-E054-4252-96E5-72628F943FDF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1DAA48-F6B0-4310-9AB2-4A1E6B1A7AC8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1269,6 +1269,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="1" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1368,7 +1369,6 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="1" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -1708,68 +1708,68 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1"/>
     <row r="2" spans="1:14">
-      <c r="A2" s="120" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="122"/>
+      <c r="A2" s="121" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="123"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="123"/>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="125"/>
+      <c r="A3" s="124"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="126"/>
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1">
-      <c r="A4" s="132" t="s">
+      <c r="A4" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="133"/>
-      <c r="C4" s="126" t="s">
+      <c r="B4" s="134"/>
+      <c r="C4" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="127">
+      <c r="G4" s="128">
         <v>43863</v>
       </c>
-      <c r="H4" s="127"/>
-      <c r="I4" s="127"/>
-      <c r="J4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="129"/>
     </row>
     <row r="5" spans="1:14" ht="15" thickBot="1">
-      <c r="A5" s="129"/>
-      <c r="B5" s="130"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
-      <c r="G5" s="130"/>
-      <c r="H5" s="130"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="131"/>
+      <c r="A5" s="130"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="132"/>
     </row>
     <row r="6" spans="1:14" s="3" customFormat="1" ht="29.4" thickBot="1">
-      <c r="A6" s="115" t="s">
+      <c r="A6" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="116"/>
+      <c r="B6" s="117"/>
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
@@ -2251,13 +2251,13 @@
       <c r="J22" s="22"/>
     </row>
     <row r="23" spans="1:10" ht="15" thickBot="1">
-      <c r="A23" s="117" t="s">
+      <c r="A23" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="118"/>
-      <c r="C23" s="118"/>
-      <c r="D23" s="118"/>
-      <c r="E23" s="119"/>
+      <c r="B23" s="119"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="120"/>
       <c r="F23" s="25">
         <f>SUM(F7:F22)</f>
         <v>0.71180555555555591</v>
@@ -2308,66 +2308,66 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1"/>
     <row r="2" spans="1:14">
-      <c r="A2" s="120" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="122"/>
+      <c r="A2" s="121" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="123"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="123"/>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="125"/>
+      <c r="A3" s="124"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="126"/>
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1">
-      <c r="A4" s="132" t="s">
+      <c r="A4" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="133"/>
-      <c r="C4" s="126" t="s">
+      <c r="B4" s="134"/>
+      <c r="C4" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
       <c r="F4" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="127"/>
-      <c r="H4" s="127"/>
-      <c r="I4" s="127"/>
-      <c r="J4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="129"/>
     </row>
     <row r="5" spans="1:14" ht="15" thickBot="1">
-      <c r="A5" s="129"/>
-      <c r="B5" s="130"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
-      <c r="G5" s="130"/>
-      <c r="H5" s="130"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="131"/>
+      <c r="A5" s="130"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="132"/>
     </row>
     <row r="6" spans="1:14" s="3" customFormat="1" ht="29.4" thickBot="1">
-      <c r="A6" s="115" t="s">
+      <c r="A6" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="116"/>
+      <c r="B6" s="117"/>
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
@@ -2689,13 +2689,13 @@
       <c r="J22" s="22"/>
     </row>
     <row r="23" spans="1:10" ht="15" thickBot="1">
-      <c r="A23" s="117" t="s">
+      <c r="A23" s="118" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="118"/>
-      <c r="C23" s="118"/>
-      <c r="D23" s="118"/>
-      <c r="E23" s="119"/>
+      <c r="B23" s="119"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="120"/>
       <c r="F23" s="31">
         <f>SUM(F7:F22)</f>
         <v>0</v>
@@ -2746,68 +2746,68 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1"/>
     <row r="2" spans="1:14">
-      <c r="A2" s="120" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="122"/>
+      <c r="A2" s="121" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="123"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="123"/>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="125"/>
+      <c r="A3" s="124"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="126"/>
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1">
-      <c r="A4" s="132" t="s">
+      <c r="A4" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="133"/>
-      <c r="C4" s="126" t="s">
+      <c r="B4" s="134"/>
+      <c r="C4" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="127">
+      <c r="G4" s="128">
         <v>43871</v>
       </c>
-      <c r="H4" s="127"/>
-      <c r="I4" s="127"/>
-      <c r="J4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="129"/>
     </row>
     <row r="5" spans="1:14" ht="15" thickBot="1">
-      <c r="A5" s="129"/>
-      <c r="B5" s="130"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
-      <c r="G5" s="130"/>
-      <c r="H5" s="130"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="131"/>
+      <c r="A5" s="130"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="132"/>
     </row>
     <row r="6" spans="1:14" s="3" customFormat="1" ht="29.4" thickBot="1">
-      <c r="A6" s="115" t="s">
+      <c r="A6" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="116"/>
+      <c r="B6" s="117"/>
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
@@ -3395,13 +3395,13 @@
       <c r="J26" s="22"/>
     </row>
     <row r="27" spans="1:10" ht="15" thickBot="1">
-      <c r="A27" s="117" t="s">
+      <c r="A27" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="118"/>
-      <c r="C27" s="118"/>
-      <c r="D27" s="118"/>
-      <c r="E27" s="119"/>
+      <c r="B27" s="119"/>
+      <c r="C27" s="119"/>
+      <c r="D27" s="119"/>
+      <c r="E27" s="120"/>
       <c r="F27" s="25">
         <f>SUM(F7:F26)</f>
         <v>0.77291666666666681</v>
@@ -3452,66 +3452,66 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1"/>
     <row r="2" spans="1:14">
-      <c r="A2" s="120" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="122"/>
+      <c r="A2" s="121" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="123"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="123"/>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="125"/>
+      <c r="A3" s="124"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="126"/>
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1">
-      <c r="A4" s="132" t="s">
+      <c r="A4" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="133"/>
-      <c r="C4" s="126" t="s">
+      <c r="B4" s="134"/>
+      <c r="C4" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="127"/>
-      <c r="H4" s="127"/>
-      <c r="I4" s="127"/>
-      <c r="J4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="129"/>
     </row>
     <row r="5" spans="1:14" ht="15" thickBot="1">
-      <c r="A5" s="129"/>
-      <c r="B5" s="130"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
-      <c r="G5" s="130"/>
-      <c r="H5" s="130"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="131"/>
+      <c r="A5" s="130"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="132"/>
     </row>
     <row r="6" spans="1:14" s="3" customFormat="1" ht="29.4" thickBot="1">
-      <c r="A6" s="115" t="s">
+      <c r="A6" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="116"/>
+      <c r="B6" s="117"/>
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
@@ -3949,13 +3949,13 @@
       <c r="J22" s="22"/>
     </row>
     <row r="23" spans="1:10" ht="15" thickBot="1">
-      <c r="A23" s="117" t="s">
+      <c r="A23" s="118" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="118"/>
-      <c r="C23" s="118"/>
-      <c r="D23" s="118"/>
-      <c r="E23" s="119"/>
+      <c r="B23" s="119"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="120"/>
       <c r="F23" s="31">
         <f>SUM(F7:F22)</f>
         <v>1260.0000000000002</v>
@@ -4565,66 +4565,66 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1"/>
     <row r="2" spans="1:14">
-      <c r="A2" s="120" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="122"/>
+      <c r="A2" s="121" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="123"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="123"/>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="125"/>
+      <c r="A3" s="124"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="126"/>
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1">
-      <c r="A4" s="132" t="s">
+      <c r="A4" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="133"/>
-      <c r="C4" s="126" t="s">
+      <c r="B4" s="134"/>
+      <c r="C4" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
       <c r="F4" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="127"/>
-      <c r="H4" s="127"/>
-      <c r="I4" s="127"/>
-      <c r="J4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="129"/>
     </row>
     <row r="5" spans="1:14" ht="15" thickBot="1">
-      <c r="A5" s="129"/>
-      <c r="B5" s="130"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
-      <c r="G5" s="130"/>
-      <c r="H5" s="130"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="131"/>
+      <c r="A5" s="130"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="132"/>
     </row>
     <row r="6" spans="1:14" s="3" customFormat="1" ht="29.4" thickBot="1">
-      <c r="A6" s="115" t="s">
+      <c r="A6" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="116"/>
+      <c r="B6" s="117"/>
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
@@ -5217,13 +5217,13 @@
       <c r="J27" s="22"/>
     </row>
     <row r="28" spans="1:10" ht="15" thickBot="1">
-      <c r="A28" s="134" t="s">
+      <c r="A28" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="135"/>
-      <c r="C28" s="135"/>
-      <c r="D28" s="135"/>
-      <c r="E28" s="136"/>
+      <c r="B28" s="136"/>
+      <c r="C28" s="136"/>
+      <c r="D28" s="136"/>
+      <c r="E28" s="137"/>
       <c r="F28" s="31">
         <f>SUM(F7:F27)</f>
         <v>1058.0000000000002</v>
@@ -5274,66 +5274,66 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1"/>
     <row r="2" spans="1:14">
-      <c r="A2" s="120" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="122"/>
+      <c r="A2" s="121" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="123"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="123"/>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="125"/>
+      <c r="A3" s="124"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="126"/>
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1">
-      <c r="A4" s="132" t="s">
+      <c r="A4" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="133"/>
-      <c r="C4" s="126" t="s">
+      <c r="B4" s="134"/>
+      <c r="C4" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
       <c r="F4" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="127"/>
-      <c r="H4" s="127"/>
-      <c r="I4" s="127"/>
-      <c r="J4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="129"/>
     </row>
     <row r="5" spans="1:14" ht="15" thickBot="1">
-      <c r="A5" s="129"/>
-      <c r="B5" s="130"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
-      <c r="G5" s="130"/>
-      <c r="H5" s="130"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="131"/>
+      <c r="A5" s="130"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="132"/>
     </row>
     <row r="6" spans="1:14" s="3" customFormat="1" ht="29.4" thickBot="1">
-      <c r="A6" s="115" t="s">
+      <c r="A6" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="116"/>
+      <c r="B6" s="117"/>
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
@@ -5905,13 +5905,13 @@
       <c r="J26" s="22"/>
     </row>
     <row r="27" spans="1:10" ht="15" thickBot="1">
-      <c r="A27" s="117" t="s">
+      <c r="A27" s="118" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="118"/>
-      <c r="C27" s="118"/>
-      <c r="D27" s="118"/>
-      <c r="E27" s="119"/>
+      <c r="B27" s="119"/>
+      <c r="C27" s="119"/>
+      <c r="D27" s="119"/>
+      <c r="E27" s="120"/>
       <c r="F27" s="31">
         <f>SUM(F7:F26)</f>
         <v>702.99999999999989</v>
@@ -5964,66 +5964,66 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1"/>
     <row r="2" spans="1:14">
-      <c r="A2" s="120" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="122"/>
+      <c r="A2" s="121" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="123"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="123"/>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="125"/>
+      <c r="A3" s="124"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="126"/>
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1">
-      <c r="A4" s="132" t="s">
+      <c r="A4" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="133"/>
-      <c r="C4" s="137" t="s">
+      <c r="B4" s="134"/>
+      <c r="C4" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="137"/>
-      <c r="E4" s="137"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
       <c r="F4" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="138"/>
-      <c r="H4" s="138"/>
-      <c r="I4" s="138"/>
-      <c r="J4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="140"/>
     </row>
     <row r="5" spans="1:14" ht="15" thickBot="1">
-      <c r="A5" s="140"/>
-      <c r="B5" s="141"/>
-      <c r="C5" s="141"/>
-      <c r="D5" s="141"/>
-      <c r="E5" s="141"/>
-      <c r="F5" s="141"/>
-      <c r="G5" s="141"/>
-      <c r="H5" s="141"/>
-      <c r="I5" s="141"/>
-      <c r="J5" s="142"/>
+      <c r="A5" s="141"/>
+      <c r="B5" s="142"/>
+      <c r="C5" s="142"/>
+      <c r="D5" s="142"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="142"/>
+      <c r="I5" s="142"/>
+      <c r="J5" s="143"/>
     </row>
     <row r="6" spans="1:14" s="73" customFormat="1" ht="29.4" thickBot="1">
-      <c r="A6" s="115" t="s">
+      <c r="A6" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="116"/>
+      <c r="B6" s="117"/>
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
@@ -6735,13 +6735,13 @@
       <c r="J32" s="88"/>
     </row>
     <row r="33" spans="1:10" ht="15" thickBot="1">
-      <c r="A33" s="117" t="s">
+      <c r="A33" s="118" t="s">
         <v>102</v>
       </c>
-      <c r="B33" s="118"/>
-      <c r="C33" s="118"/>
-      <c r="D33" s="118"/>
-      <c r="E33" s="119"/>
+      <c r="B33" s="119"/>
+      <c r="C33" s="119"/>
+      <c r="D33" s="119"/>
+      <c r="E33" s="120"/>
       <c r="F33" s="31">
         <f>SUM(F7:F32)</f>
         <v>1039.0000000000007</v>
@@ -6792,66 +6792,66 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1"/>
     <row r="2" spans="1:14">
-      <c r="A2" s="120" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="122"/>
+      <c r="A2" s="121" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="123"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="123"/>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="125"/>
+      <c r="A3" s="124"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="126"/>
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1">
-      <c r="A4" s="132" t="s">
+      <c r="A4" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="133"/>
-      <c r="C4" s="126" t="s">
+      <c r="B4" s="134"/>
+      <c r="C4" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
       <c r="F4" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="127"/>
-      <c r="H4" s="127"/>
-      <c r="I4" s="127"/>
-      <c r="J4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="129"/>
     </row>
     <row r="5" spans="1:14" ht="15" thickBot="1">
-      <c r="A5" s="129"/>
-      <c r="B5" s="130"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
-      <c r="G5" s="130"/>
-      <c r="H5" s="130"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="131"/>
+      <c r="A5" s="130"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="132"/>
     </row>
     <row r="6" spans="1:14" s="3" customFormat="1" ht="29.4" thickBot="1">
-      <c r="A6" s="115" t="s">
+      <c r="A6" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="116"/>
+      <c r="B6" s="117"/>
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
@@ -7408,13 +7408,13 @@
       <c r="J26" s="22"/>
     </row>
     <row r="27" spans="1:10" ht="15" thickBot="1">
-      <c r="A27" s="117" t="s">
+      <c r="A27" s="118" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="118"/>
-      <c r="C27" s="118"/>
-      <c r="D27" s="118"/>
-      <c r="E27" s="119"/>
+      <c r="B27" s="119"/>
+      <c r="C27" s="119"/>
+      <c r="D27" s="119"/>
+      <c r="E27" s="120"/>
       <c r="F27" s="31">
         <f>SUM(F7:F26)</f>
         <v>838.99999999999932</v>
@@ -7444,8 +7444,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="87" zoomScaleNormal="139" zoomScalePageLayoutView="139" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="87" zoomScaleNormal="139" zoomScalePageLayoutView="139" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -7465,66 +7465,66 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1"/>
     <row r="2" spans="1:14">
-      <c r="A2" s="120" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="122"/>
+      <c r="A2" s="121" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="123"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="123"/>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="125"/>
+      <c r="A3" s="124"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="126"/>
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1">
-      <c r="A4" s="132" t="s">
+      <c r="A4" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="133"/>
-      <c r="C4" s="126" t="s">
+      <c r="B4" s="134"/>
+      <c r="C4" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
       <c r="F4" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="127"/>
-      <c r="H4" s="127"/>
-      <c r="I4" s="127"/>
-      <c r="J4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="129"/>
     </row>
     <row r="5" spans="1:14" ht="15" thickBot="1">
-      <c r="A5" s="129"/>
-      <c r="B5" s="130"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
-      <c r="G5" s="130"/>
-      <c r="H5" s="130"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="131"/>
+      <c r="A5" s="130"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="132"/>
     </row>
     <row r="6" spans="1:14" s="3" customFormat="1" ht="31.8" thickBot="1">
-      <c r="A6" s="146" t="s">
+      <c r="A6" s="147" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="147"/>
+      <c r="B6" s="148"/>
       <c r="C6" s="93" t="s">
         <v>4</v>
       </c>
@@ -8046,7 +8046,9 @@
       <c r="J23" s="106"/>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A24" s="97"/>
+      <c r="A24" s="97">
+        <v>18</v>
+      </c>
       <c r="B24" s="103"/>
       <c r="C24" s="104">
         <v>0.61458333333333337</v>
@@ -8064,7 +8066,7 @@
       <c r="G24" s="105" t="s">
         <v>204</v>
       </c>
-      <c r="H24" s="148" t="s">
+      <c r="H24" s="115" t="s">
         <v>205</v>
       </c>
       <c r="I24" s="105" t="s">
@@ -8074,13 +8076,22 @@
     </row>
     <row r="25" spans="1:10" ht="16.2" thickBot="1">
       <c r="A25" s="97">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B25" s="103"/>
-      <c r="C25" s="104"/>
-      <c r="D25" s="104"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="101"/>
+      <c r="C25" s="104">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="D25" s="104">
+        <v>0.81458333333333333</v>
+      </c>
+      <c r="E25" s="105">
+        <v>0</v>
+      </c>
+      <c r="F25" s="101">
+        <f t="shared" si="0"/>
+        <v>56.999999999999957</v>
+      </c>
       <c r="G25" s="105" t="s">
         <v>201</v>
       </c>
@@ -8092,7 +8103,7 @@
     </row>
     <row r="26" spans="1:10" ht="16.2" thickBot="1">
       <c r="A26" s="97">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B26" s="103"/>
       <c r="C26" s="104"/>
@@ -8109,7 +8120,7 @@
     </row>
     <row r="27" spans="1:10" ht="16.2" thickBot="1">
       <c r="A27" s="97">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B27" s="107"/>
       <c r="C27" s="108"/>
@@ -8125,16 +8136,16 @@
       <c r="J27" s="110"/>
     </row>
     <row r="28" spans="1:10" ht="16.2" thickBot="1">
-      <c r="A28" s="143" t="s">
+      <c r="A28" s="144" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="144"/>
-      <c r="C28" s="144"/>
-      <c r="D28" s="144"/>
-      <c r="E28" s="145"/>
+      <c r="B28" s="145"/>
+      <c r="C28" s="145"/>
+      <c r="D28" s="145"/>
+      <c r="E28" s="146"/>
       <c r="F28" s="111">
         <f>SUM(F7:F27)</f>
-        <v>703.99999999999989</v>
+        <v>760.99999999999989</v>
       </c>
       <c r="G28" s="112"/>
       <c r="H28" s="112"/>

--- a/AJALOGI/PROGE_Time recording log.xlsx
+++ b/AJALOGI/PROGE_Time recording log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kasutaja\source\repos\AnnabelMa\VL\AJALOGI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1DAA48-F6B0-4310-9AB2-4A1E6B1A7AC8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1151E32E-1E68-48DA-A5F8-D2273C0BA983}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="375" windowWidth="21600" windowHeight="13680" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nädal 1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="207">
   <si>
     <t>Time recording log:</t>
   </si>
@@ -661,6 +661,9 @@
   </si>
   <si>
     <t>+vigade parandused</t>
+  </si>
+  <si>
+    <t>+konspekt, PTK8</t>
   </si>
 </sst>
 </file>
@@ -1067,7 +1070,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1369,6 +1372,7 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -1691,22 +1695,22 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="11" style="4" customWidth="1"/>
-    <col min="7" max="7" width="55.6640625" customWidth="1"/>
-    <col min="8" max="8" width="63.44140625" customWidth="1"/>
-    <col min="9" max="9" width="3.44140625" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" customWidth="1"/>
-    <col min="14" max="14" width="26.6640625" customWidth="1"/>
+    <col min="7" max="7" width="55.7109375" customWidth="1"/>
+    <col min="8" max="8" width="63.42578125" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" customWidth="1"/>
+    <col min="14" max="14" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1"/>
+    <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:14">
       <c r="A2" s="121" t="s">
         <v>0</v>
@@ -1733,7 +1737,7 @@
       <c r="I3" s="125"/>
       <c r="J3" s="126"/>
     </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1">
+    <row r="4" spans="1:14" ht="15.75" thickBot="1">
       <c r="A4" s="133" t="s">
         <v>1</v>
       </c>
@@ -1753,7 +1757,7 @@
       <c r="I4" s="128"/>
       <c r="J4" s="129"/>
     </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1">
+    <row r="5" spans="1:14" ht="15.75" thickBot="1">
       <c r="A5" s="130"/>
       <c r="B5" s="131"/>
       <c r="C5" s="131"/>
@@ -1765,7 +1769,7 @@
       <c r="I5" s="131"/>
       <c r="J5" s="132"/>
     </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" ht="29.4" thickBot="1">
+    <row r="6" spans="1:14" s="3" customFormat="1" ht="30.75" thickBot="1">
       <c r="A6" s="116" t="s">
         <v>3</v>
       </c>
@@ -1795,7 +1799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1">
+    <row r="7" spans="1:14" ht="15.75" thickBot="1">
       <c r="A7" s="14">
         <v>1</v>
       </c>
@@ -1827,7 +1831,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1">
+    <row r="8" spans="1:14" ht="15.75" thickBot="1">
       <c r="A8" s="14">
         <f>A7+1</f>
         <v>2</v>
@@ -1858,7 +1862,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1">
+    <row r="9" spans="1:14" ht="15.75" thickBot="1">
       <c r="A9" s="14">
         <f t="shared" ref="A9:A22" si="1">A8+1</f>
         <v>3</v>
@@ -1886,7 +1890,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1">
+    <row r="10" spans="1:14" ht="15.75" thickBot="1">
       <c r="A10" s="14">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1916,7 +1920,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1">
+    <row r="11" spans="1:14" ht="15.75" thickBot="1">
       <c r="A11" s="14">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -1944,7 +1948,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1">
+    <row r="12" spans="1:14" ht="15.75" thickBot="1">
       <c r="A12" s="14">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -1972,7 +1976,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1">
+    <row r="13" spans="1:14" ht="15.75" thickBot="1">
       <c r="A13" s="14">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -2000,7 +2004,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:14" ht="15" thickBot="1">
+    <row r="14" spans="1:14" ht="15.75" thickBot="1">
       <c r="A14" s="14">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -2028,7 +2032,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1">
       <c r="A15" s="14">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -2056,7 +2060,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1">
       <c r="A16" s="14">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -2088,7 +2092,7 @@
       </c>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1">
+    <row r="17" spans="1:10" ht="15.75" thickBot="1">
       <c r="A17" s="14">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -2116,7 +2120,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="14">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -2146,7 +2150,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="15" thickBot="1">
+    <row r="19" spans="1:10" ht="15.75" thickBot="1">
       <c r="A19" s="14">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -2176,7 +2180,7 @@
       </c>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1">
+    <row r="20" spans="1:10" ht="15.75" thickBot="1">
       <c r="A20" s="14">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -2204,7 +2208,7 @@
       </c>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1">
       <c r="A21" s="14">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -2232,7 +2236,7 @@
       <c r="I21" s="5"/>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1">
       <c r="A22" s="14">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -2250,7 +2254,7 @@
       <c r="I22" s="21"/>
       <c r="J22" s="22"/>
     </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1">
+    <row r="23" spans="1:10" ht="15.75" thickBot="1">
       <c r="A23" s="118" t="s">
         <v>21</v>
       </c>
@@ -2291,22 +2295,22 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="11" style="66" customWidth="1"/>
-    <col min="7" max="7" width="55.6640625" customWidth="1"/>
-    <col min="8" max="8" width="63.44140625" customWidth="1"/>
-    <col min="9" max="9" width="3.44140625" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" customWidth="1"/>
-    <col min="14" max="14" width="26.6640625" customWidth="1"/>
+    <col min="7" max="7" width="55.7109375" customWidth="1"/>
+    <col min="8" max="8" width="63.42578125" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" customWidth="1"/>
+    <col min="14" max="14" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1"/>
+    <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:14">
       <c r="A2" s="121" t="s">
         <v>0</v>
@@ -2333,7 +2337,7 @@
       <c r="I3" s="125"/>
       <c r="J3" s="126"/>
     </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1">
+    <row r="4" spans="1:14" ht="15.75" thickBot="1">
       <c r="A4" s="133" t="s">
         <v>1</v>
       </c>
@@ -2351,7 +2355,7 @@
       <c r="I4" s="128"/>
       <c r="J4" s="129"/>
     </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1">
+    <row r="5" spans="1:14" ht="15.75" thickBot="1">
       <c r="A5" s="130"/>
       <c r="B5" s="131"/>
       <c r="C5" s="131"/>
@@ -2363,7 +2367,7 @@
       <c r="I5" s="131"/>
       <c r="J5" s="132"/>
     </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" ht="29.4" thickBot="1">
+    <row r="6" spans="1:14" s="3" customFormat="1" ht="30.75" thickBot="1">
       <c r="A6" s="116" t="s">
         <v>3</v>
       </c>
@@ -2393,7 +2397,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1">
+    <row r="7" spans="1:14" ht="15.75" thickBot="1">
       <c r="A7" s="14">
         <v>1</v>
       </c>
@@ -2415,7 +2419,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1">
+    <row r="8" spans="1:14" ht="15.75" thickBot="1">
       <c r="A8" s="14">
         <f>A7+1</f>
         <v>2</v>
@@ -2436,7 +2440,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1">
+    <row r="9" spans="1:14" ht="15.75" thickBot="1">
       <c r="A9" s="14">
         <f t="shared" ref="A9:A22" si="1">A8+1</f>
         <v>3</v>
@@ -2454,7 +2458,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1">
+    <row r="10" spans="1:14" ht="15.75" thickBot="1">
       <c r="A10" s="14">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -2472,7 +2476,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1">
+    <row r="11" spans="1:14" ht="15.75" thickBot="1">
       <c r="A11" s="14">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -2490,7 +2494,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1">
+    <row r="12" spans="1:14" ht="15.75" thickBot="1">
       <c r="A12" s="14">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -2508,7 +2512,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1">
+    <row r="13" spans="1:14" ht="15.75" thickBot="1">
       <c r="A13" s="14">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -2526,7 +2530,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:14" ht="15" thickBot="1">
+    <row r="14" spans="1:14" ht="15.75" thickBot="1">
       <c r="A14" s="14">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -2544,7 +2548,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1">
       <c r="A15" s="14">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -2562,7 +2566,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1">
       <c r="A16" s="14">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -2580,7 +2584,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1">
+    <row r="17" spans="1:10" ht="15.75" thickBot="1">
       <c r="A17" s="14">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -2598,7 +2602,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="14">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -2616,7 +2620,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="15" thickBot="1">
+    <row r="19" spans="1:10" ht="15.75" thickBot="1">
       <c r="A19" s="14">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -2634,7 +2638,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1">
+    <row r="20" spans="1:10" ht="15.75" thickBot="1">
       <c r="A20" s="14">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -2652,7 +2656,7 @@
       <c r="I20" s="5"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1">
       <c r="A21" s="14">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -2670,7 +2674,7 @@
       <c r="I21" s="5"/>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1">
       <c r="A22" s="14">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -2688,7 +2692,7 @@
       <c r="I22" s="21"/>
       <c r="J22" s="22"/>
     </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1">
+    <row r="23" spans="1:10" ht="15.75" thickBot="1">
       <c r="A23" s="118" t="s">
         <v>102</v>
       </c>
@@ -2729,22 +2733,22 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="11" style="4" customWidth="1"/>
-    <col min="7" max="7" width="55.6640625" customWidth="1"/>
-    <col min="8" max="8" width="63.44140625" customWidth="1"/>
-    <col min="9" max="9" width="3.44140625" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" customWidth="1"/>
-    <col min="14" max="14" width="26.6640625" customWidth="1"/>
+    <col min="7" max="7" width="55.7109375" customWidth="1"/>
+    <col min="8" max="8" width="63.42578125" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" customWidth="1"/>
+    <col min="14" max="14" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1"/>
+    <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:14">
       <c r="A2" s="121" t="s">
         <v>0</v>
@@ -2771,7 +2775,7 @@
       <c r="I3" s="125"/>
       <c r="J3" s="126"/>
     </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1">
+    <row r="4" spans="1:14" ht="15.75" thickBot="1">
       <c r="A4" s="133" t="s">
         <v>1</v>
       </c>
@@ -2791,7 +2795,7 @@
       <c r="I4" s="128"/>
       <c r="J4" s="129"/>
     </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1">
+    <row r="5" spans="1:14" ht="15.75" thickBot="1">
       <c r="A5" s="130"/>
       <c r="B5" s="131"/>
       <c r="C5" s="131"/>
@@ -2803,7 +2807,7 @@
       <c r="I5" s="131"/>
       <c r="J5" s="132"/>
     </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" ht="29.4" thickBot="1">
+    <row r="6" spans="1:14" s="3" customFormat="1" ht="30.75" thickBot="1">
       <c r="A6" s="116" t="s">
         <v>3</v>
       </c>
@@ -2833,7 +2837,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1">
+    <row r="7" spans="1:14" ht="15.75" thickBot="1">
       <c r="A7" s="14">
         <v>1</v>
       </c>
@@ -2867,7 +2871,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1">
+    <row r="8" spans="1:14" ht="15.75" thickBot="1">
       <c r="A8" s="14">
         <f>A7+1</f>
         <v>2</v>
@@ -2900,7 +2904,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1">
+    <row r="9" spans="1:14" ht="15.75" thickBot="1">
       <c r="A9" s="14">
         <f t="shared" ref="A9:A21" si="1">A8+1</f>
         <v>3</v>
@@ -2928,7 +2932,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1">
+    <row r="10" spans="1:14" ht="15.75" thickBot="1">
       <c r="A10" s="14">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -2960,7 +2964,7 @@
       </c>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1">
+    <row r="11" spans="1:14" ht="15.75" thickBot="1">
       <c r="A11" s="14">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -2990,7 +2994,7 @@
       </c>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1">
+    <row r="12" spans="1:14" ht="15.75" thickBot="1">
       <c r="A12" s="14">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -3020,7 +3024,7 @@
       </c>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1">
+    <row r="13" spans="1:14" ht="15.75" thickBot="1">
       <c r="A13" s="14">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -3050,7 +3054,7 @@
       </c>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:14" ht="15" thickBot="1">
+    <row r="14" spans="1:14" ht="15.75" thickBot="1">
       <c r="A14" s="14">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -3080,7 +3084,7 @@
       </c>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1">
       <c r="A15" s="14">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -3110,7 +3114,7 @@
       </c>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1">
       <c r="A16" s="14">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -3136,7 +3140,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1">
+    <row r="17" spans="1:10" ht="15.75" thickBot="1">
       <c r="A17" s="14">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -3162,7 +3166,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="14">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -3190,7 +3194,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="15" thickBot="1">
+    <row r="19" spans="1:10" ht="15.75" thickBot="1">
       <c r="A19" s="14">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -3218,7 +3222,7 @@
       </c>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1">
+    <row r="20" spans="1:10" ht="15.75" thickBot="1">
       <c r="A20" s="14">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -3246,7 +3250,7 @@
       <c r="I20" s="5"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1">
       <c r="A21" s="14">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -3272,7 +3276,7 @@
       <c r="I21" s="5"/>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1">
       <c r="A22" s="14"/>
       <c r="B22" s="26"/>
       <c r="C22" s="27">
@@ -3295,7 +3299,7 @@
       <c r="I22" s="28"/>
       <c r="J22" s="29"/>
     </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1">
+    <row r="23" spans="1:10" ht="15.75" thickBot="1">
       <c r="A23" s="14"/>
       <c r="B23" s="26"/>
       <c r="C23" s="27">
@@ -3318,7 +3322,7 @@
       <c r="I23" s="28"/>
       <c r="J23" s="29"/>
     </row>
-    <row r="24" spans="1:10" ht="15" thickBot="1">
+    <row r="24" spans="1:10" ht="15.75" thickBot="1">
       <c r="A24" s="14"/>
       <c r="B24" s="26"/>
       <c r="C24" s="27">
@@ -3341,7 +3345,7 @@
       <c r="I24" s="28"/>
       <c r="J24" s="29"/>
     </row>
-    <row r="25" spans="1:10" ht="15" thickBot="1">
+    <row r="25" spans="1:10" ht="15.75" thickBot="1">
       <c r="A25" s="14"/>
       <c r="B25" s="26">
         <v>43870</v>
@@ -3368,7 +3372,7 @@
       <c r="I25" s="28"/>
       <c r="J25" s="29"/>
     </row>
-    <row r="26" spans="1:10" ht="15" thickBot="1">
+    <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="14">
         <f>A21+1</f>
         <v>16</v>
@@ -3394,7 +3398,7 @@
       <c r="I26" s="21"/>
       <c r="J26" s="22"/>
     </row>
-    <row r="27" spans="1:10" ht="15" thickBot="1">
+    <row r="27" spans="1:10" ht="15.75" thickBot="1">
       <c r="A27" s="118" t="s">
         <v>21</v>
       </c>
@@ -3435,22 +3439,22 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="55.6640625" customWidth="1"/>
-    <col min="8" max="8" width="63.44140625" customWidth="1"/>
-    <col min="9" max="9" width="3.44140625" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" customWidth="1"/>
-    <col min="14" max="14" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="55.7109375" customWidth="1"/>
+    <col min="8" max="8" width="63.42578125" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" customWidth="1"/>
+    <col min="14" max="14" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1"/>
+    <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:14">
       <c r="A2" s="121" t="s">
         <v>0</v>
@@ -3477,7 +3481,7 @@
       <c r="I3" s="125"/>
       <c r="J3" s="126"/>
     </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1">
+    <row r="4" spans="1:14" ht="15.75" thickBot="1">
       <c r="A4" s="133" t="s">
         <v>1</v>
       </c>
@@ -3495,7 +3499,7 @@
       <c r="I4" s="128"/>
       <c r="J4" s="129"/>
     </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1">
+    <row r="5" spans="1:14" ht="15.75" thickBot="1">
       <c r="A5" s="130"/>
       <c r="B5" s="131"/>
       <c r="C5" s="131"/>
@@ -3507,7 +3511,7 @@
       <c r="I5" s="131"/>
       <c r="J5" s="132"/>
     </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" ht="29.4" thickBot="1">
+    <row r="6" spans="1:14" s="3" customFormat="1" ht="30.75" thickBot="1">
       <c r="A6" s="116" t="s">
         <v>3</v>
       </c>
@@ -3537,7 +3541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1">
+    <row r="7" spans="1:14" ht="15.75" thickBot="1">
       <c r="A7" s="14">
         <v>1</v>
       </c>
@@ -3567,7 +3571,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1">
+    <row r="8" spans="1:14" ht="15.75" thickBot="1">
       <c r="A8" s="14">
         <f>A7+1</f>
         <v>2</v>
@@ -3600,7 +3604,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1">
+    <row r="9" spans="1:14" ht="15.75" thickBot="1">
       <c r="A9" s="14">
         <f t="shared" ref="A9:A22" si="1">A8+1</f>
         <v>3</v>
@@ -3628,7 +3632,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1">
+    <row r="10" spans="1:14" ht="15.75" thickBot="1">
       <c r="A10" s="14">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -3656,7 +3660,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1">
+    <row r="11" spans="1:14" ht="15.75" thickBot="1">
       <c r="A11" s="14">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -3684,7 +3688,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1">
+    <row r="12" spans="1:14" ht="15.75" thickBot="1">
       <c r="A12" s="14">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -3710,7 +3714,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1">
+    <row r="13" spans="1:14" ht="15.75" thickBot="1">
       <c r="A13" s="14">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -3740,7 +3744,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:14" ht="15" thickBot="1">
+    <row r="14" spans="1:14" ht="15.75" thickBot="1">
       <c r="A14" s="14">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -3766,7 +3770,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1">
       <c r="A15" s="14">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -3794,7 +3798,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1">
       <c r="A16" s="14">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -3822,7 +3826,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1">
+    <row r="17" spans="1:10" ht="15.75" thickBot="1">
       <c r="A17" s="14">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -3850,7 +3854,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="14">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -3876,7 +3880,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="15" thickBot="1">
+    <row r="19" spans="1:10" ht="15.75" thickBot="1">
       <c r="A19" s="14">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -3894,7 +3898,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1">
+    <row r="20" spans="1:10" ht="15.75" thickBot="1">
       <c r="A20" s="14">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -3912,7 +3916,7 @@
       <c r="I20" s="5"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1">
       <c r="A21" s="14">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -3930,7 +3934,7 @@
       <c r="I21" s="5"/>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1">
       <c r="A22" s="14">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -3948,7 +3952,7 @@
       <c r="I22" s="21"/>
       <c r="J22" s="22"/>
     </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1">
+    <row r="23" spans="1:10" ht="15.75" thickBot="1">
       <c r="A23" s="118" t="s">
         <v>55</v>
       </c>
@@ -3989,22 +3993,22 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="11" style="4" customWidth="1"/>
-    <col min="7" max="7" width="55.6640625" customWidth="1"/>
-    <col min="8" max="8" width="72.109375" style="39" customWidth="1"/>
-    <col min="9" max="9" width="3.44140625" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" customWidth="1"/>
-    <col min="14" max="14" width="26.6640625" customWidth="1"/>
+    <col min="7" max="7" width="55.7109375" customWidth="1"/>
+    <col min="8" max="8" width="72.140625" style="39" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" customWidth="1"/>
+    <col min="14" max="14" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1"/>
+    <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:14">
       <c r="A2" s="43" t="s">
         <v>0</v>
@@ -4031,7 +4035,7 @@
       <c r="I3" s="47"/>
       <c r="J3" s="48"/>
     </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1">
+    <row r="4" spans="1:14" ht="15.75" thickBot="1">
       <c r="A4" s="49" t="s">
         <v>1</v>
       </c>
@@ -4049,7 +4053,7 @@
       <c r="I4" s="52"/>
       <c r="J4" s="53"/>
     </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1">
+    <row r="5" spans="1:14" ht="15.75" thickBot="1">
       <c r="A5" s="54"/>
       <c r="B5" s="55"/>
       <c r="C5" s="55"/>
@@ -4061,7 +4065,7 @@
       <c r="I5" s="55"/>
       <c r="J5" s="56"/>
     </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" ht="29.4" thickBot="1">
+    <row r="6" spans="1:14" s="3" customFormat="1" ht="30.75" thickBot="1">
       <c r="A6" s="57" t="s">
         <v>3</v>
       </c>
@@ -4091,7 +4095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1">
+    <row r="7" spans="1:14" ht="15.75" thickBot="1">
       <c r="A7" s="14">
         <v>1</v>
       </c>
@@ -4121,7 +4125,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1">
+    <row r="8" spans="1:14" ht="15.75" thickBot="1">
       <c r="A8" s="14">
         <f>A7+1</f>
         <v>2</v>
@@ -4152,7 +4156,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1">
+    <row r="9" spans="1:14" ht="15.75" thickBot="1">
       <c r="A9" s="14">
         <f t="shared" ref="A9:A22" si="1">A8+1</f>
         <v>3</v>
@@ -4180,7 +4184,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1">
+    <row r="10" spans="1:14" ht="15.75" thickBot="1">
       <c r="A10" s="14">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -4208,7 +4212,7 @@
       </c>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1">
+    <row r="11" spans="1:14" ht="15.75" thickBot="1">
       <c r="A11" s="14">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -4240,7 +4244,7 @@
       </c>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1">
+    <row r="12" spans="1:14" ht="15.75" thickBot="1">
       <c r="A12" s="14">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -4266,7 +4270,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1">
+    <row r="13" spans="1:14" ht="15.75" thickBot="1">
       <c r="A13" s="14">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -4298,7 +4302,7 @@
       </c>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:14" ht="15" thickBot="1">
+    <row r="14" spans="1:14" ht="15.75" thickBot="1">
       <c r="A14" s="14">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -4324,7 +4328,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1">
       <c r="A15" s="14">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -4354,7 +4358,7 @@
       </c>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:14" s="39" customFormat="1" ht="43.8" thickBot="1">
+    <row r="16" spans="1:14" s="39" customFormat="1" ht="60.75" thickBot="1">
       <c r="A16" s="32">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -4386,7 +4390,7 @@
       </c>
       <c r="J16" s="38"/>
     </row>
-    <row r="17" spans="1:10" ht="29.4" thickBot="1">
+    <row r="17" spans="1:10" ht="30.75" thickBot="1">
       <c r="A17" s="14">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -4416,7 +4420,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="14">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -4444,7 +4448,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="15" thickBot="1">
+    <row r="19" spans="1:10" ht="15.75" thickBot="1">
       <c r="A19" s="14">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -4462,7 +4466,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1">
+    <row r="20" spans="1:10" ht="15.75" thickBot="1">
       <c r="A20" s="14">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -4480,7 +4484,7 @@
       <c r="I20" s="5"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1">
       <c r="A21" s="14">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -4498,7 +4502,7 @@
       <c r="I21" s="5"/>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1">
       <c r="A22" s="14">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -4516,7 +4520,7 @@
       <c r="I22" s="21"/>
       <c r="J22" s="22"/>
     </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1">
+    <row r="23" spans="1:10" ht="15.75" thickBot="1">
       <c r="A23" s="40" t="s">
         <v>21</v>
       </c>
@@ -4548,22 +4552,22 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="11" style="66" customWidth="1"/>
-    <col min="7" max="7" width="55.6640625" customWidth="1"/>
-    <col min="8" max="8" width="92.88671875" customWidth="1"/>
-    <col min="9" max="9" width="3.44140625" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" customWidth="1"/>
-    <col min="14" max="14" width="26.6640625" customWidth="1"/>
+    <col min="7" max="7" width="55.7109375" customWidth="1"/>
+    <col min="8" max="8" width="92.85546875" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" customWidth="1"/>
+    <col min="14" max="14" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1"/>
+    <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:14">
       <c r="A2" s="121" t="s">
         <v>0</v>
@@ -4590,7 +4594,7 @@
       <c r="I3" s="125"/>
       <c r="J3" s="126"/>
     </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1">
+    <row r="4" spans="1:14" ht="15.75" thickBot="1">
       <c r="A4" s="133" t="s">
         <v>1</v>
       </c>
@@ -4608,7 +4612,7 @@
       <c r="I4" s="128"/>
       <c r="J4" s="129"/>
     </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1">
+    <row r="5" spans="1:14" ht="15.75" thickBot="1">
       <c r="A5" s="130"/>
       <c r="B5" s="131"/>
       <c r="C5" s="131"/>
@@ -4620,7 +4624,7 @@
       <c r="I5" s="131"/>
       <c r="J5" s="132"/>
     </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" ht="29.4" thickBot="1">
+    <row r="6" spans="1:14" s="3" customFormat="1" ht="30.75" thickBot="1">
       <c r="A6" s="116" t="s">
         <v>3</v>
       </c>
@@ -4650,7 +4654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1">
+    <row r="7" spans="1:14" ht="15.75" thickBot="1">
       <c r="A7" s="14">
         <v>1</v>
       </c>
@@ -4680,7 +4684,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1">
+    <row r="8" spans="1:14" ht="15.75" thickBot="1">
       <c r="A8" s="14">
         <f>A7+1</f>
         <v>2</v>
@@ -4715,7 +4719,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1">
+    <row r="9" spans="1:14" ht="15.75" thickBot="1">
       <c r="A9" s="14">
         <f t="shared" ref="A9:A20" si="1">A8+1</f>
         <v>3</v>
@@ -4743,7 +4747,7 @@
       </c>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1">
+    <row r="10" spans="1:14" ht="15.75" thickBot="1">
       <c r="A10" s="14">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -4773,7 +4777,7 @@
       </c>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1">
+    <row r="11" spans="1:14" ht="15.75" thickBot="1">
       <c r="A11" s="14">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -4803,7 +4807,7 @@
       </c>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1">
+    <row r="12" spans="1:14" ht="15.75" thickBot="1">
       <c r="A12" s="14">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -4831,7 +4835,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1">
+    <row r="13" spans="1:14" ht="15.75" thickBot="1">
       <c r="A13" s="14">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -4861,7 +4865,7 @@
       </c>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:14" ht="15" thickBot="1">
+    <row r="14" spans="1:14" ht="15.75" thickBot="1">
       <c r="A14" s="14">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -4889,7 +4893,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1">
       <c r="A15" s="14">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -4917,7 +4921,7 @@
       </c>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1">
       <c r="A16" s="14">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -4945,7 +4949,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1">
+    <row r="17" spans="1:10" ht="15.75" thickBot="1">
       <c r="A17" s="14">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -4973,7 +4977,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="14">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -5003,7 +5007,7 @@
       </c>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="15" thickBot="1">
+    <row r="19" spans="1:10" ht="15.75" thickBot="1">
       <c r="A19" s="14">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -5033,7 +5037,7 @@
       </c>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1">
+    <row r="20" spans="1:10" ht="15.75" thickBot="1">
       <c r="A20" s="14">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -5063,7 +5067,7 @@
       </c>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1">
       <c r="A21" s="14">
         <v>15</v>
       </c>
@@ -5092,7 +5096,7 @@
       </c>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1">
       <c r="A22" s="14">
         <v>16</v>
       </c>
@@ -5119,7 +5123,7 @@
       <c r="I22" s="5"/>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1">
+    <row r="23" spans="1:10" ht="15.75" thickBot="1">
       <c r="A23" s="14">
         <v>17</v>
       </c>
@@ -5148,7 +5152,7 @@
       </c>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="1:10" ht="15" thickBot="1">
+    <row r="24" spans="1:10" ht="15.75" thickBot="1">
       <c r="A24" s="14">
         <v>18</v>
       </c>
@@ -5165,7 +5169,7 @@
       <c r="I24" s="5"/>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="1:10" ht="15" thickBot="1">
+    <row r="25" spans="1:10" ht="15.75" thickBot="1">
       <c r="A25" s="14">
         <v>19</v>
       </c>
@@ -5182,7 +5186,7 @@
       <c r="I25" s="5"/>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="1:10" ht="15" thickBot="1">
+    <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="14">
         <v>20</v>
       </c>
@@ -5199,7 +5203,7 @@
       <c r="I26" s="5"/>
       <c r="J26" s="8"/>
     </row>
-    <row r="27" spans="1:10" ht="15" thickBot="1">
+    <row r="27" spans="1:10" ht="15.75" thickBot="1">
       <c r="A27" s="14">
         <v>21</v>
       </c>
@@ -5216,7 +5220,7 @@
       <c r="I27" s="21"/>
       <c r="J27" s="22"/>
     </row>
-    <row r="28" spans="1:10" ht="15" thickBot="1">
+    <row r="28" spans="1:10" ht="15.75" thickBot="1">
       <c r="A28" s="135" t="s">
         <v>21</v>
       </c>
@@ -5257,22 +5261,22 @@
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="11" style="66" customWidth="1"/>
-    <col min="7" max="7" width="55.6640625" customWidth="1"/>
-    <col min="8" max="8" width="63.44140625" customWidth="1"/>
-    <col min="9" max="9" width="3.44140625" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" customWidth="1"/>
-    <col min="14" max="14" width="26.6640625" customWidth="1"/>
+    <col min="7" max="7" width="55.7109375" customWidth="1"/>
+    <col min="8" max="8" width="63.42578125" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" customWidth="1"/>
+    <col min="14" max="14" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1"/>
+    <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:14">
       <c r="A2" s="121" t="s">
         <v>0</v>
@@ -5299,7 +5303,7 @@
       <c r="I3" s="125"/>
       <c r="J3" s="126"/>
     </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1">
+    <row r="4" spans="1:14" ht="15.75" thickBot="1">
       <c r="A4" s="133" t="s">
         <v>1</v>
       </c>
@@ -5317,7 +5321,7 @@
       <c r="I4" s="128"/>
       <c r="J4" s="129"/>
     </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1">
+    <row r="5" spans="1:14" ht="15.75" thickBot="1">
       <c r="A5" s="130"/>
       <c r="B5" s="131"/>
       <c r="C5" s="131"/>
@@ -5329,7 +5333,7 @@
       <c r="I5" s="131"/>
       <c r="J5" s="132"/>
     </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" ht="29.4" thickBot="1">
+    <row r="6" spans="1:14" s="3" customFormat="1" ht="30.75" thickBot="1">
       <c r="A6" s="116" t="s">
         <v>3</v>
       </c>
@@ -5359,7 +5363,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1">
+    <row r="7" spans="1:14" ht="15.75" thickBot="1">
       <c r="A7" s="14">
         <v>1</v>
       </c>
@@ -5393,7 +5397,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1">
+    <row r="8" spans="1:14" ht="15.75" thickBot="1">
       <c r="A8" s="14">
         <v>2</v>
       </c>
@@ -5425,7 +5429,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1">
+    <row r="9" spans="1:14" ht="15.75" thickBot="1">
       <c r="A9" s="14">
         <v>3</v>
       </c>
@@ -5452,7 +5456,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1">
+    <row r="10" spans="1:14" ht="15.75" thickBot="1">
       <c r="A10" s="14">
         <v>4</v>
       </c>
@@ -5480,7 +5484,7 @@
       </c>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1">
+    <row r="11" spans="1:14" ht="15.75" thickBot="1">
       <c r="A11" s="14">
         <v>5</v>
       </c>
@@ -5509,7 +5513,7 @@
       </c>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1">
+    <row r="12" spans="1:14" ht="15.75" thickBot="1">
       <c r="A12" s="14">
         <v>6</v>
       </c>
@@ -5540,7 +5544,7 @@
       </c>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1">
+    <row r="13" spans="1:14" ht="15.75" thickBot="1">
       <c r="A13" s="14">
         <v>7</v>
       </c>
@@ -5567,7 +5571,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:14" ht="15" thickBot="1">
+    <row r="14" spans="1:14" ht="15.75" thickBot="1">
       <c r="A14" s="14">
         <v>8</v>
       </c>
@@ -5592,7 +5596,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1">
       <c r="A15" s="14">
         <v>9</v>
       </c>
@@ -5619,7 +5623,7 @@
       </c>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1">
       <c r="A16" s="14">
         <v>10</v>
       </c>
@@ -5644,7 +5648,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1">
+    <row r="17" spans="1:10" ht="15.75" thickBot="1">
       <c r="A17" s="14">
         <v>11</v>
       </c>
@@ -5673,7 +5677,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="14">
         <v>12</v>
       </c>
@@ -5702,7 +5706,7 @@
       </c>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="15" thickBot="1">
+    <row r="19" spans="1:10" ht="15.75" thickBot="1">
       <c r="A19" s="14">
         <v>13</v>
       </c>
@@ -5727,7 +5731,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1">
+    <row r="20" spans="1:10" ht="15.75" thickBot="1">
       <c r="A20" s="14">
         <v>14</v>
       </c>
@@ -5752,7 +5756,7 @@
       <c r="I20" s="5"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1">
       <c r="A21" s="14">
         <v>15</v>
       </c>
@@ -5781,7 +5785,7 @@
       <c r="I21" s="5"/>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1">
       <c r="A22" s="14">
         <v>16</v>
       </c>
@@ -5810,7 +5814,7 @@
       </c>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1">
+    <row r="23" spans="1:10" ht="15.75" thickBot="1">
       <c r="A23" s="14">
         <v>17</v>
       </c>
@@ -5841,7 +5845,7 @@
       </c>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="1:10" ht="15" thickBot="1">
+    <row r="24" spans="1:10" ht="15.75" thickBot="1">
       <c r="A24" s="14">
         <v>18</v>
       </c>
@@ -5870,7 +5874,7 @@
       </c>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="1:10" ht="15" thickBot="1">
+    <row r="25" spans="1:10" ht="15.75" thickBot="1">
       <c r="A25" s="14">
         <v>19</v>
       </c>
@@ -5887,7 +5891,7 @@
       <c r="I25" s="5"/>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="1:10" ht="15" thickBot="1">
+    <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="14">
         <v>20</v>
       </c>
@@ -5904,7 +5908,7 @@
       <c r="I26" s="21"/>
       <c r="J26" s="22"/>
     </row>
-    <row r="27" spans="1:10" ht="15" thickBot="1">
+    <row r="27" spans="1:10" ht="15.75" thickBot="1">
       <c r="A27" s="118" t="s">
         <v>102</v>
       </c>
@@ -5945,24 +5949,24 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="69" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="70" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" style="71" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="71" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" style="69" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="69" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="70" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="71" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="71" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="69" customWidth="1"/>
     <col min="6" max="6" width="11" style="72" customWidth="1"/>
-    <col min="7" max="7" width="55.6640625" style="69" customWidth="1"/>
-    <col min="8" max="8" width="63.44140625" style="69" customWidth="1"/>
-    <col min="9" max="9" width="3.44140625" style="69" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" style="69" customWidth="1"/>
-    <col min="11" max="13" width="8.6640625" style="69"/>
-    <col min="14" max="14" width="26.6640625" style="69" customWidth="1"/>
-    <col min="15" max="16384" width="8.6640625" style="69"/>
+    <col min="7" max="7" width="55.7109375" style="69" customWidth="1"/>
+    <col min="8" max="8" width="63.42578125" style="69" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" style="69" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="69" customWidth="1"/>
+    <col min="11" max="13" width="8.7109375" style="69"/>
+    <col min="14" max="14" width="26.7109375" style="69" customWidth="1"/>
+    <col min="15" max="16384" width="8.7109375" style="69"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1"/>
+    <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:14">
       <c r="A2" s="121" t="s">
         <v>0</v>
@@ -5989,7 +5993,7 @@
       <c r="I3" s="125"/>
       <c r="J3" s="126"/>
     </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1">
+    <row r="4" spans="1:14" ht="15.75" thickBot="1">
       <c r="A4" s="133" t="s">
         <v>1</v>
       </c>
@@ -6007,7 +6011,7 @@
       <c r="I4" s="139"/>
       <c r="J4" s="140"/>
     </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1">
+    <row r="5" spans="1:14" ht="15.75" thickBot="1">
       <c r="A5" s="141"/>
       <c r="B5" s="142"/>
       <c r="C5" s="142"/>
@@ -6019,7 +6023,7 @@
       <c r="I5" s="142"/>
       <c r="J5" s="143"/>
     </row>
-    <row r="6" spans="1:14" s="73" customFormat="1" ht="29.4" thickBot="1">
+    <row r="6" spans="1:14" s="73" customFormat="1" ht="30.75" thickBot="1">
       <c r="A6" s="116" t="s">
         <v>3</v>
       </c>
@@ -6049,7 +6053,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1">
+    <row r="7" spans="1:14" ht="15.75" thickBot="1">
       <c r="A7" s="74">
         <v>1</v>
       </c>
@@ -6081,7 +6085,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1">
+    <row r="8" spans="1:14" ht="15.75" thickBot="1">
       <c r="A8" s="74">
         <f>A7+1</f>
         <v>2</v>
@@ -6112,7 +6116,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1">
+    <row r="9" spans="1:14" ht="15.75" thickBot="1">
       <c r="A9" s="74">
         <f>A8+1</f>
         <v>3</v>
@@ -6140,7 +6144,7 @@
       </c>
       <c r="J9" s="83"/>
     </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1">
+    <row r="10" spans="1:14" ht="15.75" thickBot="1">
       <c r="A10" s="74">
         <v>4</v>
       </c>
@@ -6169,7 +6173,7 @@
       <c r="I10" s="82"/>
       <c r="J10" s="83"/>
     </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1">
+    <row r="11" spans="1:14" ht="15.75" thickBot="1">
       <c r="A11" s="74">
         <f>A10+1</f>
         <v>5</v>
@@ -6199,7 +6203,7 @@
       </c>
       <c r="J11" s="83"/>
     </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1">
+    <row r="12" spans="1:14" ht="15.75" thickBot="1">
       <c r="A12" s="74">
         <f>A11+1</f>
         <v>6</v>
@@ -6227,7 +6231,7 @@
       <c r="I12" s="82"/>
       <c r="J12" s="83"/>
     </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1">
+    <row r="13" spans="1:14" ht="15.75" thickBot="1">
       <c r="A13" s="74">
         <v>7</v>
       </c>
@@ -6254,7 +6258,7 @@
       </c>
       <c r="J13" s="83"/>
     </row>
-    <row r="14" spans="1:14" ht="15" thickBot="1">
+    <row r="14" spans="1:14" ht="15.75" thickBot="1">
       <c r="A14" s="74">
         <f>A13+1</f>
         <v>8</v>
@@ -6282,7 +6286,7 @@
       <c r="I14" s="82"/>
       <c r="J14" s="83"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1">
       <c r="A15" s="74">
         <f>A14+1</f>
         <v>9</v>
@@ -6310,7 +6314,7 @@
       </c>
       <c r="J15" s="83"/>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1">
       <c r="A16" s="74">
         <v>10</v>
       </c>
@@ -6335,7 +6339,7 @@
       <c r="I16" s="82"/>
       <c r="J16" s="83"/>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1">
+    <row r="17" spans="1:10" ht="15.75" thickBot="1">
       <c r="A17" s="74">
         <f>A16+1</f>
         <v>11</v>
@@ -6365,7 +6369,7 @@
       <c r="I17" s="82"/>
       <c r="J17" s="83"/>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="74">
         <f>A17+1</f>
         <v>12</v>
@@ -6391,7 +6395,7 @@
       <c r="I18" s="82"/>
       <c r="J18" s="83"/>
     </row>
-    <row r="19" spans="1:10" ht="15" thickBot="1">
+    <row r="19" spans="1:10" ht="15.75" thickBot="1">
       <c r="A19" s="74">
         <v>13</v>
       </c>
@@ -6416,7 +6420,7 @@
       <c r="I19" s="82"/>
       <c r="J19" s="83"/>
     </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1">
+    <row r="20" spans="1:10" ht="15.75" thickBot="1">
       <c r="A20" s="74">
         <f>A19+1</f>
         <v>14</v>
@@ -6442,7 +6446,7 @@
       <c r="I20" s="82"/>
       <c r="J20" s="83"/>
     </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1">
       <c r="A21" s="74">
         <f>A20+1</f>
         <v>15</v>
@@ -6470,7 +6474,7 @@
       <c r="I21" s="82"/>
       <c r="J21" s="83"/>
     </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1">
       <c r="A22" s="74">
         <v>16</v>
       </c>
@@ -6499,7 +6503,7 @@
       </c>
       <c r="J22" s="83"/>
     </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1">
+    <row r="23" spans="1:10" ht="15.75" thickBot="1">
       <c r="A23" s="74">
         <f>A22+1</f>
         <v>17</v>
@@ -6525,7 +6529,7 @@
       <c r="I23" s="82"/>
       <c r="J23" s="83"/>
     </row>
-    <row r="24" spans="1:10" ht="15" thickBot="1">
+    <row r="24" spans="1:10" ht="15.75" thickBot="1">
       <c r="A24" s="74">
         <f>A23+1</f>
         <v>18</v>
@@ -6553,7 +6557,7 @@
       </c>
       <c r="J24" s="83"/>
     </row>
-    <row r="25" spans="1:10" ht="15" thickBot="1">
+    <row r="25" spans="1:10" ht="15.75" thickBot="1">
       <c r="A25" s="74">
         <v>19</v>
       </c>
@@ -6584,7 +6588,7 @@
       </c>
       <c r="J25" s="83"/>
     </row>
-    <row r="26" spans="1:10" ht="15" thickBot="1">
+    <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="74">
         <f>A25+1</f>
         <v>20</v>
@@ -6616,7 +6620,7 @@
       </c>
       <c r="J26" s="83"/>
     </row>
-    <row r="27" spans="1:10" ht="15" thickBot="1">
+    <row r="27" spans="1:10" ht="15.75" thickBot="1">
       <c r="A27" s="74">
         <f>A26+1</f>
         <v>21</v>
@@ -6646,7 +6650,7 @@
       </c>
       <c r="J27" s="83"/>
     </row>
-    <row r="28" spans="1:10" ht="15" thickBot="1">
+    <row r="28" spans="1:10" ht="15.75" thickBot="1">
       <c r="A28" s="74">
         <v>22</v>
       </c>
@@ -6663,7 +6667,7 @@
       <c r="I28" s="82"/>
       <c r="J28" s="83"/>
     </row>
-    <row r="29" spans="1:10" ht="15" thickBot="1">
+    <row r="29" spans="1:10" ht="15.75" thickBot="1">
       <c r="A29" s="74">
         <f>A28+1</f>
         <v>23</v>
@@ -6681,7 +6685,7 @@
       <c r="I29" s="82"/>
       <c r="J29" s="83"/>
     </row>
-    <row r="30" spans="1:10" ht="15" thickBot="1">
+    <row r="30" spans="1:10" ht="15.75" thickBot="1">
       <c r="A30" s="74">
         <f>A29+1</f>
         <v>24</v>
@@ -6699,7 +6703,7 @@
       <c r="I30" s="82"/>
       <c r="J30" s="83"/>
     </row>
-    <row r="31" spans="1:10" ht="15" thickBot="1">
+    <row r="31" spans="1:10" ht="15.75" thickBot="1">
       <c r="A31" s="74">
         <v>25</v>
       </c>
@@ -6716,7 +6720,7 @@
       <c r="I31" s="82"/>
       <c r="J31" s="83"/>
     </row>
-    <row r="32" spans="1:10" ht="15" thickBot="1">
+    <row r="32" spans="1:10" ht="15.75" thickBot="1">
       <c r="A32" s="74">
         <f>A31+1</f>
         <v>26</v>
@@ -6734,7 +6738,7 @@
       <c r="I32" s="87"/>
       <c r="J32" s="88"/>
     </row>
-    <row r="33" spans="1:10" ht="15" thickBot="1">
+    <row r="33" spans="1:10" ht="15.75" thickBot="1">
       <c r="A33" s="118" t="s">
         <v>102</v>
       </c>
@@ -6775,22 +6779,22 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="11" style="66" customWidth="1"/>
-    <col min="7" max="7" width="55.6640625" customWidth="1"/>
-    <col min="8" max="8" width="63.44140625" customWidth="1"/>
-    <col min="9" max="9" width="3.44140625" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" customWidth="1"/>
-    <col min="14" max="14" width="26.6640625" customWidth="1"/>
+    <col min="7" max="7" width="55.7109375" customWidth="1"/>
+    <col min="8" max="8" width="63.42578125" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" customWidth="1"/>
+    <col min="14" max="14" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1"/>
+    <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:14">
       <c r="A2" s="121" t="s">
         <v>0</v>
@@ -6817,7 +6821,7 @@
       <c r="I3" s="125"/>
       <c r="J3" s="126"/>
     </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1">
+    <row r="4" spans="1:14" ht="15.75" thickBot="1">
       <c r="A4" s="133" t="s">
         <v>1</v>
       </c>
@@ -6835,7 +6839,7 @@
       <c r="I4" s="128"/>
       <c r="J4" s="129"/>
     </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1">
+    <row r="5" spans="1:14" ht="15.75" thickBot="1">
       <c r="A5" s="130"/>
       <c r="B5" s="131"/>
       <c r="C5" s="131"/>
@@ -6847,7 +6851,7 @@
       <c r="I5" s="131"/>
       <c r="J5" s="132"/>
     </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" ht="29.4" thickBot="1">
+    <row r="6" spans="1:14" s="3" customFormat="1" ht="30.75" thickBot="1">
       <c r="A6" s="116" t="s">
         <v>3</v>
       </c>
@@ -6877,7 +6881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1">
+    <row r="7" spans="1:14" ht="15.75" thickBot="1">
       <c r="A7" s="14">
         <v>1</v>
       </c>
@@ -6911,7 +6915,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1">
+    <row r="8" spans="1:14" ht="15.75" thickBot="1">
       <c r="A8" s="14">
         <v>2</v>
       </c>
@@ -6943,7 +6947,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1">
+    <row r="9" spans="1:14" ht="15.75" thickBot="1">
       <c r="A9" s="14">
         <v>3</v>
       </c>
@@ -6968,7 +6972,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1">
+    <row r="10" spans="1:14" ht="15.75" thickBot="1">
       <c r="A10" s="14">
         <v>4</v>
       </c>
@@ -6995,7 +6999,7 @@
       </c>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1">
+    <row r="11" spans="1:14" ht="15.75" thickBot="1">
       <c r="A11" s="14">
         <v>5</v>
       </c>
@@ -7020,7 +7024,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1">
+    <row r="12" spans="1:14" ht="15.75" thickBot="1">
       <c r="A12" s="14">
         <v>6</v>
       </c>
@@ -7049,7 +7053,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1">
+    <row r="13" spans="1:14" ht="15.75" thickBot="1">
       <c r="A13" s="14">
         <v>7</v>
       </c>
@@ -7074,7 +7078,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:14" ht="15" thickBot="1">
+    <row r="14" spans="1:14" ht="15.75" thickBot="1">
       <c r="A14" s="14">
         <v>8</v>
       </c>
@@ -7101,7 +7105,7 @@
       </c>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1">
       <c r="A15" s="14">
         <v>9</v>
       </c>
@@ -7128,7 +7132,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1">
       <c r="A16" s="14">
         <v>10</v>
       </c>
@@ -7157,7 +7161,7 @@
       </c>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1">
+    <row r="17" spans="1:10" ht="15.75" thickBot="1">
       <c r="A17" s="14">
         <v>11</v>
       </c>
@@ -7186,7 +7190,7 @@
       </c>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="14">
         <v>12</v>
       </c>
@@ -7213,7 +7217,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="15" thickBot="1">
+    <row r="19" spans="1:10" ht="15.75" thickBot="1">
       <c r="A19" s="14">
         <v>13</v>
       </c>
@@ -7238,7 +7242,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1">
+    <row r="20" spans="1:10" ht="15.75" thickBot="1">
       <c r="A20" s="14">
         <v>14</v>
       </c>
@@ -7265,7 +7269,7 @@
       <c r="I20" s="5"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1">
       <c r="A21" s="14">
         <v>15</v>
       </c>
@@ -7294,7 +7298,7 @@
       </c>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1">
       <c r="A22" s="14">
         <v>16</v>
       </c>
@@ -7321,7 +7325,7 @@
       <c r="I22" s="5"/>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1">
+    <row r="23" spans="1:10" ht="15.75" thickBot="1">
       <c r="A23" s="14">
         <v>17</v>
       </c>
@@ -7348,7 +7352,7 @@
       <c r="I23" s="5"/>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="1:10" ht="15" thickBot="1">
+    <row r="24" spans="1:10" ht="15.75" thickBot="1">
       <c r="A24" s="14">
         <v>18</v>
       </c>
@@ -7373,7 +7377,7 @@
       <c r="I24" s="5"/>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="1:10" ht="15" thickBot="1">
+    <row r="25" spans="1:10" ht="15.75" thickBot="1">
       <c r="A25" s="14">
         <v>19</v>
       </c>
@@ -7390,7 +7394,7 @@
       <c r="I25" s="5"/>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="1:10" ht="15" thickBot="1">
+    <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="14">
         <v>20</v>
       </c>
@@ -7407,7 +7411,7 @@
       <c r="I26" s="21"/>
       <c r="J26" s="22"/>
     </row>
-    <row r="27" spans="1:10" ht="15" thickBot="1">
+    <row r="27" spans="1:10" ht="15.75" thickBot="1">
       <c r="A27" s="118" t="s">
         <v>102</v>
       </c>
@@ -7445,25 +7449,25 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="87" zoomScaleNormal="139" zoomScalePageLayoutView="139" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="11" style="66" customWidth="1"/>
-    <col min="7" max="7" width="55.6640625" customWidth="1"/>
-    <col min="8" max="8" width="63.44140625" customWidth="1"/>
-    <col min="9" max="9" width="3.44140625" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" customWidth="1"/>
-    <col min="14" max="14" width="26.6640625" customWidth="1"/>
+    <col min="7" max="7" width="55.7109375" customWidth="1"/>
+    <col min="8" max="8" width="63.42578125" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" customWidth="1"/>
+    <col min="14" max="14" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1"/>
+    <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:14">
       <c r="A2" s="121" t="s">
         <v>0</v>
@@ -7490,7 +7494,7 @@
       <c r="I3" s="125"/>
       <c r="J3" s="126"/>
     </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1">
+    <row r="4" spans="1:14" ht="15.75" thickBot="1">
       <c r="A4" s="133" t="s">
         <v>1</v>
       </c>
@@ -7508,7 +7512,7 @@
       <c r="I4" s="128"/>
       <c r="J4" s="129"/>
     </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1">
+    <row r="5" spans="1:14" ht="15.75" thickBot="1">
       <c r="A5" s="130"/>
       <c r="B5" s="131"/>
       <c r="C5" s="131"/>
@@ -7520,7 +7524,7 @@
       <c r="I5" s="131"/>
       <c r="J5" s="132"/>
     </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" ht="31.8" thickBot="1">
+    <row r="6" spans="1:14" s="3" customFormat="1" ht="32.25" thickBot="1">
       <c r="A6" s="147" t="s">
         <v>3</v>
       </c>
@@ -7550,7 +7554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="16.2" thickBot="1">
+    <row r="7" spans="1:14" ht="16.5" thickBot="1">
       <c r="A7" s="97">
         <v>1</v>
       </c>
@@ -7584,7 +7588,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="16.2" thickBot="1">
+    <row r="8" spans="1:14" ht="16.5" thickBot="1">
       <c r="A8" s="97">
         <f>A7+1</f>
         <v>2</v>
@@ -7617,7 +7621,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="16.2" thickBot="1">
+    <row r="9" spans="1:14" ht="16.5" thickBot="1">
       <c r="A9" s="97">
         <f t="shared" ref="A9:A21" si="1">A8+1</f>
         <v>3</v>
@@ -7649,7 +7653,7 @@
       </c>
       <c r="J9" s="106"/>
     </row>
-    <row r="10" spans="1:14" ht="16.2" thickBot="1">
+    <row r="10" spans="1:14" ht="16.5" thickBot="1">
       <c r="A10" s="97">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -7675,7 +7679,7 @@
       <c r="I10" s="105"/>
       <c r="J10" s="106"/>
     </row>
-    <row r="11" spans="1:14" ht="16.2" thickBot="1">
+    <row r="11" spans="1:14" ht="16.5" thickBot="1">
       <c r="A11" s="97">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -7705,7 +7709,7 @@
       <c r="I11" s="105"/>
       <c r="J11" s="106"/>
     </row>
-    <row r="12" spans="1:14" ht="16.2" thickBot="1">
+    <row r="12" spans="1:14" ht="16.5" thickBot="1">
       <c r="A12" s="97">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -7733,7 +7737,7 @@
       <c r="I12" s="105"/>
       <c r="J12" s="106"/>
     </row>
-    <row r="13" spans="1:14" ht="16.2" thickBot="1">
+    <row r="13" spans="1:14" ht="16.5" thickBot="1">
       <c r="A13" s="97">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -7765,7 +7769,7 @@
       </c>
       <c r="J13" s="106"/>
     </row>
-    <row r="14" spans="1:14" ht="16.2" thickBot="1">
+    <row r="14" spans="1:14" ht="16.5" thickBot="1">
       <c r="A14" s="97">
         <v>8</v>
       </c>
@@ -7790,7 +7794,7 @@
       <c r="I14" s="105"/>
       <c r="J14" s="106"/>
     </row>
-    <row r="15" spans="1:14" ht="16.2" thickBot="1">
+    <row r="15" spans="1:14" ht="16.5" thickBot="1">
       <c r="A15" s="97">
         <v>9</v>
       </c>
@@ -7821,7 +7825,7 @@
       </c>
       <c r="J15" s="106"/>
     </row>
-    <row r="16" spans="1:14" ht="16.2" thickBot="1">
+    <row r="16" spans="1:14" ht="16.5" thickBot="1">
       <c r="A16" s="97">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -7847,7 +7851,7 @@
       <c r="I16" s="105"/>
       <c r="J16" s="106"/>
     </row>
-    <row r="17" spans="1:10" ht="16.2" thickBot="1">
+    <row r="17" spans="1:10" ht="16.5" thickBot="1">
       <c r="A17" s="97">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -7875,7 +7879,7 @@
       <c r="I17" s="105"/>
       <c r="J17" s="106"/>
     </row>
-    <row r="18" spans="1:10" ht="16.2" thickBot="1">
+    <row r="18" spans="1:10" ht="16.5" thickBot="1">
       <c r="A18" s="97">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -7901,7 +7905,7 @@
       <c r="I18" s="105"/>
       <c r="J18" s="106"/>
     </row>
-    <row r="19" spans="1:10" ht="16.2" thickBot="1">
+    <row r="19" spans="1:10" ht="16.5" thickBot="1">
       <c r="A19" s="97">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -7927,7 +7931,7 @@
       <c r="I19" s="105"/>
       <c r="J19" s="106"/>
     </row>
-    <row r="20" spans="1:10" ht="16.2" thickBot="1">
+    <row r="20" spans="1:10" ht="16.5" thickBot="1">
       <c r="A20" s="97">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -7957,7 +7961,7 @@
       </c>
       <c r="J20" s="106"/>
     </row>
-    <row r="21" spans="1:10" ht="16.2" thickBot="1">
+    <row r="21" spans="1:10" ht="16.5" thickBot="1">
       <c r="A21" s="97">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -7989,7 +7993,7 @@
       </c>
       <c r="J21" s="106"/>
     </row>
-    <row r="22" spans="1:10" ht="16.2" thickBot="1">
+    <row r="22" spans="1:10" ht="16.5" thickBot="1">
       <c r="A22" s="97">
         <v>16</v>
       </c>
@@ -8074,7 +8078,7 @@
       </c>
       <c r="J24" s="106"/>
     </row>
-    <row r="25" spans="1:10" ht="16.2" thickBot="1">
+    <row r="25" spans="1:10" ht="16.5" thickBot="1">
       <c r="A25" s="97">
         <v>19</v>
       </c>
@@ -8101,24 +8105,36 @@
       <c r="I25" s="105"/>
       <c r="J25" s="106"/>
     </row>
-    <row r="26" spans="1:10" ht="16.2" thickBot="1">
+    <row r="26" spans="1:10" ht="16.5" thickBot="1">
       <c r="A26" s="97">
         <v>20</v>
       </c>
-      <c r="B26" s="103"/>
-      <c r="C26" s="104"/>
-      <c r="D26" s="104"/>
-      <c r="E26" s="105"/>
+      <c r="B26" s="103">
+        <v>43923</v>
+      </c>
+      <c r="C26" s="104">
+        <v>0.52638888888888891</v>
+      </c>
+      <c r="D26" s="104">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="E26" s="105">
+        <v>0</v>
+      </c>
       <c r="F26" s="101">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="105"/>
-      <c r="H26" s="105"/>
+        <v>72.000000000000057</v>
+      </c>
+      <c r="G26" s="105" t="s">
+        <v>129</v>
+      </c>
+      <c r="H26" s="149" t="s">
+        <v>206</v>
+      </c>
       <c r="I26" s="105"/>
       <c r="J26" s="106"/>
     </row>
-    <row r="27" spans="1:10" ht="16.2" thickBot="1">
+    <row r="27" spans="1:10" ht="16.5" thickBot="1">
       <c r="A27" s="97">
         <v>21</v>
       </c>
@@ -8135,7 +8151,7 @@
       <c r="I27" s="109"/>
       <c r="J27" s="110"/>
     </row>
-    <row r="28" spans="1:10" ht="16.2" thickBot="1">
+    <row r="28" spans="1:10" ht="16.5" thickBot="1">
       <c r="A28" s="144" t="s">
         <v>102</v>
       </c>
@@ -8145,7 +8161,7 @@
       <c r="E28" s="146"/>
       <c r="F28" s="111">
         <f>SUM(F7:F27)</f>
-        <v>760.99999999999989</v>
+        <v>833</v>
       </c>
       <c r="G28" s="112"/>
       <c r="H28" s="112"/>

--- a/AJALOGI/PROGE_Time recording log.xlsx
+++ b/AJALOGI/PROGE_Time recording log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kasutaja\source\repos\AnnabelMa\VL\AJALOGI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1151E32E-1E68-48DA-A5F8-D2273C0BA983}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5A9046-72C2-4D59-8B18-ECF9DA265F37}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="375" windowWidth="21600" windowHeight="13680" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11325" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nädal 1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,8 @@
     <sheet name="Nädal7" sheetId="10" r:id="rId7"/>
     <sheet name="Nädal8" sheetId="11" r:id="rId8"/>
     <sheet name="Nädal9" sheetId="12" r:id="rId9"/>
-    <sheet name="Nädal" sheetId="4" r:id="rId10"/>
+    <sheet name="Nädal10" sheetId="14" r:id="rId10"/>
+    <sheet name="Nädal" sheetId="4" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="208">
   <si>
     <t>Time recording log:</t>
   </si>
@@ -664,6 +665,9 @@
   </si>
   <si>
     <t>+konspekt, PTK8</t>
+  </si>
+  <si>
+    <t>Kordamine KTks + KT</t>
   </si>
 </sst>
 </file>
@@ -1273,6 +1277,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="1" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1372,7 +1377,6 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -1712,68 +1716,68 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:14">
-      <c r="A2" s="121" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="123"/>
+      <c r="A2" s="122" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="124"/>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="126"/>
+      <c r="A3" s="125"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="127"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A4" s="133" t="s">
+      <c r="A4" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="134"/>
-      <c r="C4" s="127" t="s">
+      <c r="B4" s="135"/>
+      <c r="C4" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="128">
+      <c r="G4" s="129">
         <v>43863</v>
       </c>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="130"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A5" s="130"/>
-      <c r="B5" s="131"/>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="132"/>
+      <c r="A5" s="131"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="133"/>
     </row>
     <row r="6" spans="1:14" s="3" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A6" s="116" t="s">
+      <c r="A6" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="117"/>
+      <c r="B6" s="118"/>
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
@@ -2255,13 +2259,13 @@
       <c r="J22" s="22"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A23" s="118" t="s">
+      <c r="A23" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="119"/>
-      <c r="C23" s="119"/>
-      <c r="D23" s="119"/>
-      <c r="E23" s="120"/>
+      <c r="B23" s="120"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="120"/>
+      <c r="E23" s="121"/>
       <c r="F23" s="25">
         <f>SUM(F7:F22)</f>
         <v>0.71180555555555591</v>
@@ -2287,12 +2291,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Sheet9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C189D2D8-B184-4F89-ADB6-75E0F761228E}">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C2" zoomScale="116" zoomScaleNormal="139" zoomScalePageLayoutView="139" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="116" zoomScaleNormal="139" zoomScalePageLayoutView="139" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -2312,66 +2315,512 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:14">
-      <c r="A2" s="121" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="123"/>
+      <c r="A2" s="122" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="124"/>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="126"/>
+      <c r="A3" s="125"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="127"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A4" s="133" t="s">
+      <c r="A4" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="134"/>
-      <c r="C4" s="127" t="s">
+      <c r="B4" s="135"/>
+      <c r="C4" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
       <c r="F4" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="130"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A5" s="130"/>
-      <c r="B5" s="131"/>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="132"/>
+      <c r="A5" s="131"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="133"/>
     </row>
     <row r="6" spans="1:14" s="3" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A6" s="116" t="s">
+      <c r="A6" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="117"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A7" s="14">
+        <v>1</v>
+      </c>
+      <c r="B7" s="15">
+        <v>43925</v>
+      </c>
+      <c r="C7" s="16">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0</v>
+      </c>
+      <c r="F7" s="30">
+        <f>(D7-C7)*1440</f>
+        <v>84.999999999999943</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="18"/>
+      <c r="N7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A8" s="14">
+        <f>A7+1</f>
+        <v>2</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="30">
+        <f t="shared" ref="F8:F22" si="0">(D8-C8)*1440</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="8"/>
+      <c r="N8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A9" s="14">
+        <f t="shared" ref="A9:A22" si="1">A8+1</f>
+        <v>3</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A10" s="14">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A11" s="14">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A12" s="14">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A13" s="14">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A14" s="14">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A15" s="14">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A16" s="14">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A17" s="14">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A18" s="14">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A19" s="14">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A20" s="14">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A21" s="14">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A22" s="14">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="22"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A23" s="119" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="120"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="120"/>
+      <c r="E23" s="121"/>
+      <c r="F23" s="31">
+        <f>SUM(F7:F22)</f>
+        <v>84.999999999999943</v>
+      </c>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A2:J3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:B6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:N23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="C2" zoomScale="116" zoomScaleNormal="139" zoomScalePageLayoutView="139" workbookViewId="0">
+      <selection activeCell="G9" sqref="A6:J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11" style="66" customWidth="1"/>
+    <col min="7" max="7" width="55.7109375" customWidth="1"/>
+    <col min="8" max="8" width="63.42578125" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" customWidth="1"/>
+    <col min="14" max="14" width="26.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
+    <row r="2" spans="1:14">
+      <c r="A2" s="122" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="125"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="127"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A4" s="134" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="135"/>
+      <c r="C4" s="128" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="130"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A5" s="131"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="133"/>
+    </row>
+    <row r="6" spans="1:14" s="3" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A6" s="117" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="118"/>
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
@@ -2693,13 +3142,13 @@
       <c r="J22" s="22"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A23" s="118" t="s">
+      <c r="A23" s="119" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="119"/>
-      <c r="C23" s="119"/>
-      <c r="D23" s="119"/>
-      <c r="E23" s="120"/>
+      <c r="B23" s="120"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="120"/>
+      <c r="E23" s="121"/>
       <c r="F23" s="31">
         <f>SUM(F7:F22)</f>
         <v>0</v>
@@ -2750,68 +3199,68 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:14">
-      <c r="A2" s="121" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="123"/>
+      <c r="A2" s="122" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="124"/>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="126"/>
+      <c r="A3" s="125"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="127"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A4" s="133" t="s">
+      <c r="A4" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="134"/>
-      <c r="C4" s="127" t="s">
+      <c r="B4" s="135"/>
+      <c r="C4" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="128">
+      <c r="G4" s="129">
         <v>43871</v>
       </c>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="130"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A5" s="130"/>
-      <c r="B5" s="131"/>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="132"/>
+      <c r="A5" s="131"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="133"/>
     </row>
     <row r="6" spans="1:14" s="3" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A6" s="116" t="s">
+      <c r="A6" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="117"/>
+      <c r="B6" s="118"/>
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
@@ -3399,13 +3848,13 @@
       <c r="J26" s="22"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A27" s="118" t="s">
+      <c r="A27" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="119"/>
-      <c r="C27" s="119"/>
-      <c r="D27" s="119"/>
-      <c r="E27" s="120"/>
+      <c r="B27" s="120"/>
+      <c r="C27" s="120"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="121"/>
       <c r="F27" s="25">
         <f>SUM(F7:F26)</f>
         <v>0.77291666666666681</v>
@@ -3456,66 +3905,66 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:14">
-      <c r="A2" s="121" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="123"/>
+      <c r="A2" s="122" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="124"/>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="126"/>
+      <c r="A3" s="125"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="127"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A4" s="133" t="s">
+      <c r="A4" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="134"/>
-      <c r="C4" s="127" t="s">
+      <c r="B4" s="135"/>
+      <c r="C4" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="130"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A5" s="130"/>
-      <c r="B5" s="131"/>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="132"/>
+      <c r="A5" s="131"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="133"/>
     </row>
     <row r="6" spans="1:14" s="3" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A6" s="116" t="s">
+      <c r="A6" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="117"/>
+      <c r="B6" s="118"/>
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
@@ -3953,13 +4402,13 @@
       <c r="J22" s="22"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A23" s="118" t="s">
+      <c r="A23" s="119" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="119"/>
-      <c r="C23" s="119"/>
-      <c r="D23" s="119"/>
-      <c r="E23" s="120"/>
+      <c r="B23" s="120"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="120"/>
+      <c r="E23" s="121"/>
       <c r="F23" s="31">
         <f>SUM(F7:F22)</f>
         <v>1260.0000000000002</v>
@@ -4569,66 +5018,66 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:14">
-      <c r="A2" s="121" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="123"/>
+      <c r="A2" s="122" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="124"/>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="126"/>
+      <c r="A3" s="125"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="127"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A4" s="133" t="s">
+      <c r="A4" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="134"/>
-      <c r="C4" s="127" t="s">
+      <c r="B4" s="135"/>
+      <c r="C4" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
       <c r="F4" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="130"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A5" s="130"/>
-      <c r="B5" s="131"/>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="132"/>
+      <c r="A5" s="131"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="133"/>
     </row>
     <row r="6" spans="1:14" s="3" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A6" s="116" t="s">
+      <c r="A6" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="117"/>
+      <c r="B6" s="118"/>
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
@@ -5221,13 +5670,13 @@
       <c r="J27" s="22"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A28" s="135" t="s">
+      <c r="A28" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="136"/>
-      <c r="C28" s="136"/>
-      <c r="D28" s="136"/>
-      <c r="E28" s="137"/>
+      <c r="B28" s="137"/>
+      <c r="C28" s="137"/>
+      <c r="D28" s="137"/>
+      <c r="E28" s="138"/>
       <c r="F28" s="31">
         <f>SUM(F7:F27)</f>
         <v>1058.0000000000002</v>
@@ -5278,66 +5727,66 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:14">
-      <c r="A2" s="121" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="123"/>
+      <c r="A2" s="122" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="124"/>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="126"/>
+      <c r="A3" s="125"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="127"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A4" s="133" t="s">
+      <c r="A4" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="134"/>
-      <c r="C4" s="127" t="s">
+      <c r="B4" s="135"/>
+      <c r="C4" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
       <c r="F4" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="130"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A5" s="130"/>
-      <c r="B5" s="131"/>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="132"/>
+      <c r="A5" s="131"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="133"/>
     </row>
     <row r="6" spans="1:14" s="3" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A6" s="116" t="s">
+      <c r="A6" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="117"/>
+      <c r="B6" s="118"/>
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
@@ -5909,13 +6358,13 @@
       <c r="J26" s="22"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A27" s="118" t="s">
+      <c r="A27" s="119" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="119"/>
-      <c r="C27" s="119"/>
-      <c r="D27" s="119"/>
-      <c r="E27" s="120"/>
+      <c r="B27" s="120"/>
+      <c r="C27" s="120"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="121"/>
       <c r="F27" s="31">
         <f>SUM(F7:F26)</f>
         <v>702.99999999999989</v>
@@ -5968,66 +6417,66 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:14">
-      <c r="A2" s="121" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="123"/>
+      <c r="A2" s="122" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="124"/>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="126"/>
+      <c r="A3" s="125"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="127"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A4" s="133" t="s">
+      <c r="A4" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="134"/>
-      <c r="C4" s="138" t="s">
+      <c r="B4" s="135"/>
+      <c r="C4" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
       <c r="F4" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="140"/>
+      <c r="G4" s="140"/>
+      <c r="H4" s="140"/>
+      <c r="I4" s="140"/>
+      <c r="J4" s="141"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A5" s="141"/>
-      <c r="B5" s="142"/>
-      <c r="C5" s="142"/>
-      <c r="D5" s="142"/>
-      <c r="E5" s="142"/>
-      <c r="F5" s="142"/>
-      <c r="G5" s="142"/>
-      <c r="H5" s="142"/>
-      <c r="I5" s="142"/>
-      <c r="J5" s="143"/>
+      <c r="A5" s="142"/>
+      <c r="B5" s="143"/>
+      <c r="C5" s="143"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="1:14" s="73" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A6" s="116" t="s">
+      <c r="A6" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="117"/>
+      <c r="B6" s="118"/>
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
@@ -6739,13 +7188,13 @@
       <c r="J32" s="88"/>
     </row>
     <row r="33" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A33" s="118" t="s">
+      <c r="A33" s="119" t="s">
         <v>102</v>
       </c>
-      <c r="B33" s="119"/>
-      <c r="C33" s="119"/>
-      <c r="D33" s="119"/>
-      <c r="E33" s="120"/>
+      <c r="B33" s="120"/>
+      <c r="C33" s="120"/>
+      <c r="D33" s="120"/>
+      <c r="E33" s="121"/>
       <c r="F33" s="31">
         <f>SUM(F7:F32)</f>
         <v>1039.0000000000007</v>
@@ -6796,66 +7245,66 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:14">
-      <c r="A2" s="121" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="123"/>
+      <c r="A2" s="122" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="124"/>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="126"/>
+      <c r="A3" s="125"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="127"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A4" s="133" t="s">
+      <c r="A4" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="134"/>
-      <c r="C4" s="127" t="s">
+      <c r="B4" s="135"/>
+      <c r="C4" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
       <c r="F4" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="130"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A5" s="130"/>
-      <c r="B5" s="131"/>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="132"/>
+      <c r="A5" s="131"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="133"/>
     </row>
     <row r="6" spans="1:14" s="3" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A6" s="116" t="s">
+      <c r="A6" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="117"/>
+      <c r="B6" s="118"/>
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
@@ -7412,13 +7861,13 @@
       <c r="J26" s="22"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A27" s="118" t="s">
+      <c r="A27" s="119" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="119"/>
-      <c r="C27" s="119"/>
-      <c r="D27" s="119"/>
-      <c r="E27" s="120"/>
+      <c r="B27" s="120"/>
+      <c r="C27" s="120"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="121"/>
       <c r="F27" s="31">
         <f>SUM(F7:F26)</f>
         <v>838.99999999999932</v>
@@ -7448,7 +7897,7 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="87" zoomScaleNormal="139" zoomScalePageLayoutView="139" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="87" zoomScaleNormal="139" zoomScalePageLayoutView="139" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
@@ -7469,66 +7918,66 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:14">
-      <c r="A2" s="121" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="123"/>
+      <c r="A2" s="122" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="124"/>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="126"/>
+      <c r="A3" s="125"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="127"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A4" s="133" t="s">
+      <c r="A4" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="134"/>
-      <c r="C4" s="127" t="s">
+      <c r="B4" s="135"/>
+      <c r="C4" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
       <c r="F4" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="130"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A5" s="130"/>
-      <c r="B5" s="131"/>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="132"/>
+      <c r="A5" s="131"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="133"/>
     </row>
     <row r="6" spans="1:14" s="3" customFormat="1" ht="32.25" thickBot="1">
-      <c r="A6" s="147" t="s">
+      <c r="A6" s="148" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="148"/>
+      <c r="B6" s="149"/>
       <c r="C6" s="93" t="s">
         <v>4</v>
       </c>
@@ -8128,7 +8577,7 @@
       <c r="G26" s="105" t="s">
         <v>129</v>
       </c>
-      <c r="H26" s="149" t="s">
+      <c r="H26" s="116" t="s">
         <v>206</v>
       </c>
       <c r="I26" s="105"/>
@@ -8152,13 +8601,13 @@
       <c r="J27" s="110"/>
     </row>
     <row r="28" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A28" s="144" t="s">
+      <c r="A28" s="145" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="145"/>
-      <c r="C28" s="145"/>
-      <c r="D28" s="145"/>
-      <c r="E28" s="146"/>
+      <c r="B28" s="146"/>
+      <c r="C28" s="146"/>
+      <c r="D28" s="146"/>
+      <c r="E28" s="147"/>
       <c r="F28" s="111">
         <f>SUM(F7:F27)</f>
         <v>833</v>

--- a/AJALOGI/PROGE_Time recording log.xlsx
+++ b/AJALOGI/PROGE_Time recording log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kasutaja\source\repos\AnnabelMa\VL\AJALOGI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5A9046-72C2-4D59-8B18-ECF9DA265F37}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6E83E3-5CC5-496C-B774-993AF3832586}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11325" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11325" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nädal 1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="210">
   <si>
     <t>Time recording log:</t>
   </si>
@@ -668,6 +668,33 @@
   </si>
   <si>
     <t>Kordamine KTks + KT</t>
+  </si>
+  <si>
+    <t>VL53</t>
+  </si>
+  <si>
+    <r>
+      <t>Infra </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF7D5A29"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>QuantityDbContext </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7D5A29"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>testid</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -677,7 +704,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -725,6 +752,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7D5A29"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7D5A29"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1074,7 +1114,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1377,6 +1417,7 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -2295,7 +2336,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="116" zoomScaleNormal="139" zoomScalePageLayoutView="139" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -2436,15 +2477,25 @@
         <v>2</v>
       </c>
       <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="5"/>
+      <c r="C8" s="7">
+        <v>0.80138888888888893</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.83472222222222225</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
       <c r="F8" s="30">
         <f t="shared" ref="F8:F22" si="0">(D8-C8)*1440</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+        <v>47.999999999999986</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="H8" s="150" t="s">
+        <v>209</v>
+      </c>
       <c r="I8" s="5"/>
       <c r="J8" s="8"/>
       <c r="N8" t="s">
@@ -2713,7 +2764,7 @@
       <c r="E23" s="121"/>
       <c r="F23" s="31">
         <f>SUM(F7:F22)</f>
-        <v>84.999999999999943</v>
+        <v>132.99999999999994</v>
       </c>
       <c r="G23" s="23"/>
       <c r="H23" s="23"/>
@@ -2731,7 +2782,7 @@
     <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/AJALOGI/PROGE_Time recording log.xlsx
+++ b/AJALOGI/PROGE_Time recording log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kasutaja\source\repos\AnnabelMa\VL\AJALOGI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6E83E3-5CC5-496C-B774-993AF3832586}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA386D3-8F2A-4FFB-8EF2-37587419AD71}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11325" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="2685" windowWidth="21600" windowHeight="11325" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nädal 1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="214">
   <si>
     <t>Time recording log:</t>
   </si>
@@ -673,28 +673,19 @@
     <t>VL53</t>
   </si>
   <si>
-    <r>
-      <t>Infra </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF7D5A29"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>QuantityDbContext </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7D5A29"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>testid</t>
-    </r>
+    <t>VL54</t>
+  </si>
+  <si>
+    <t>Infra QuantityDbContext testid</t>
+  </si>
+  <si>
+    <t>Infra QuantityDbInitializer testid</t>
+  </si>
+  <si>
+    <t>jätk</t>
+  </si>
+  <si>
+    <t>AddTerms() viga</t>
   </si>
 </sst>
 </file>
@@ -704,7 +695,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -754,20 +745,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7D5A29"/>
-      <name val="Arial"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7D5A29"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="186"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -779,8 +766,14 @@
         <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1109,10 +1102,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1417,11 +1426,12 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2335,8 +2345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C189D2D8-B184-4F89-ADB6-75E0F761228E}">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="116" zoomScaleNormal="139" zoomScalePageLayoutView="139" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" zoomScale="116" zoomScaleNormal="139" zoomScalePageLayoutView="139" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -2465,7 +2475,9 @@
         <v>207</v>
       </c>
       <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
+      <c r="I7" s="17" t="s">
+        <v>14</v>
+      </c>
       <c r="J7" s="18"/>
       <c r="N7" t="s">
         <v>12</v>
@@ -2494,7 +2506,7 @@
         <v>208</v>
       </c>
       <c r="H8" s="150" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="8"/>
@@ -2507,16 +2519,28 @@
         <f t="shared" ref="A9:A22" si="1">A8+1</f>
         <v>3</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="5"/>
+      <c r="B9" s="6">
+        <v>43926</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.48194444444444445</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.51874999999999993</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
       <c r="F9" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+        <v>52.999999999999893</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="H9" s="150" t="s">
+        <v>211</v>
+      </c>
       <c r="I9" s="5"/>
       <c r="J9" s="8"/>
     </row>
@@ -2526,15 +2550,25 @@
         <v>4</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="5"/>
+      <c r="C10" s="7">
+        <v>0.52222222222222225</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.52569444444444446</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
       <c r="F10" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+        <v>4.9999999999999822</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>212</v>
+      </c>
       <c r="I10" s="5"/>
       <c r="J10" s="8"/>
     </row>
@@ -2544,16 +2578,28 @@
         <v>5</v>
       </c>
       <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="5"/>
+      <c r="C11" s="7">
+        <v>0.77916666666666667</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.79305555555555562</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
       <c r="F11" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+        <v>20.000000000000089</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" thickBot="1">
@@ -2764,7 +2810,7 @@
       <c r="E23" s="121"/>
       <c r="F23" s="31">
         <f>SUM(F7:F22)</f>
-        <v>132.99999999999994</v>
+        <v>210.99999999999989</v>
       </c>
       <c r="G23" s="23"/>
       <c r="H23" s="23"/>

--- a/AJALOGI/PROGE_Time recording log.xlsx
+++ b/AJALOGI/PROGE_Time recording log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kasutaja\source\repos\AnnabelMa\VL\AJALOGI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA386D3-8F2A-4FFB-8EF2-37587419AD71}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5CF8B0-47F7-40EB-9149-A2613279AF9D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="2685" windowWidth="21600" windowHeight="11325" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="215">
   <si>
     <t>Time recording log:</t>
   </si>
@@ -686,6 +686,9 @@
   </si>
   <si>
     <t>AddTerms() viga</t>
+  </si>
+  <si>
+    <t>MVC&amp;Razor</t>
   </si>
 </sst>
 </file>
@@ -1327,6 +1330,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="1" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1426,7 +1430,6 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -1767,68 +1770,68 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:14">
-      <c r="A2" s="122" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="A2" s="123" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="125"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="125"/>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="127"/>
+      <c r="A3" s="126"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="128"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A4" s="134" t="s">
+      <c r="A4" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="135"/>
-      <c r="C4" s="128" t="s">
+      <c r="B4" s="136"/>
+      <c r="C4" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="129">
+      <c r="G4" s="130">
         <v>43863</v>
       </c>
-      <c r="H4" s="129"/>
-      <c r="I4" s="129"/>
-      <c r="J4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="131"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A5" s="131"/>
-      <c r="B5" s="132"/>
-      <c r="C5" s="132"/>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="132"/>
-      <c r="J5" s="133"/>
+      <c r="A5" s="132"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="133"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="134"/>
     </row>
     <row r="6" spans="1:14" s="3" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A6" s="117" t="s">
+      <c r="A6" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="118"/>
+      <c r="B6" s="119"/>
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
@@ -2310,13 +2313,13 @@
       <c r="J22" s="22"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A23" s="119" t="s">
+      <c r="A23" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="120"/>
-      <c r="C23" s="120"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="121"/>
+      <c r="B23" s="121"/>
+      <c r="C23" s="121"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="122"/>
       <c r="F23" s="25">
         <f>SUM(F7:F22)</f>
         <v>0.71180555555555591</v>
@@ -2346,7 +2349,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" zoomScale="116" zoomScaleNormal="139" zoomScalePageLayoutView="139" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -2366,66 +2369,66 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:14">
-      <c r="A2" s="122" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="A2" s="123" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="125"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="125"/>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="127"/>
+      <c r="A3" s="126"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="128"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A4" s="134" t="s">
+      <c r="A4" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="135"/>
-      <c r="C4" s="128" t="s">
+      <c r="B4" s="136"/>
+      <c r="C4" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
       <c r="F4" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="129"/>
-      <c r="H4" s="129"/>
-      <c r="I4" s="129"/>
-      <c r="J4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="131"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A5" s="131"/>
-      <c r="B5" s="132"/>
-      <c r="C5" s="132"/>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="132"/>
-      <c r="J5" s="133"/>
+      <c r="A5" s="132"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="133"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="134"/>
     </row>
     <row r="6" spans="1:14" s="3" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A6" s="117" t="s">
+      <c r="A6" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="118"/>
+      <c r="B6" s="119"/>
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
@@ -2505,7 +2508,7 @@
       <c r="G8" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="H8" s="150" t="s">
+      <c r="H8" s="117" t="s">
         <v>210</v>
       </c>
       <c r="I8" s="5"/>
@@ -2538,7 +2541,7 @@
       <c r="G9" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="H9" s="150" t="s">
+      <c r="H9" s="117" t="s">
         <v>211</v>
       </c>
       <c r="I9" s="5"/>
@@ -2608,14 +2611,22 @@
         <v>6</v>
       </c>
       <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="5"/>
+      <c r="C12" s="7">
+        <v>0.87152777777777779</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0.8833333333333333</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
       <c r="F12" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="5"/>
+        <v>16.99999999999994</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>214</v>
+      </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="8"/>
@@ -2801,16 +2812,16 @@
       <c r="J22" s="22"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A23" s="119" t="s">
+      <c r="A23" s="120" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="120"/>
-      <c r="C23" s="120"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="121"/>
+      <c r="B23" s="121"/>
+      <c r="C23" s="121"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="122"/>
       <c r="F23" s="31">
         <f>SUM(F7:F22)</f>
-        <v>210.99999999999989</v>
+        <v>227.99999999999983</v>
       </c>
       <c r="G23" s="23"/>
       <c r="H23" s="23"/>
@@ -2858,66 +2869,66 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:14">
-      <c r="A2" s="122" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="A2" s="123" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="125"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="125"/>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="127"/>
+      <c r="A3" s="126"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="128"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A4" s="134" t="s">
+      <c r="A4" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="135"/>
-      <c r="C4" s="128" t="s">
+      <c r="B4" s="136"/>
+      <c r="C4" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
       <c r="F4" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="129"/>
-      <c r="H4" s="129"/>
-      <c r="I4" s="129"/>
-      <c r="J4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="131"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A5" s="131"/>
-      <c r="B5" s="132"/>
-      <c r="C5" s="132"/>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="132"/>
-      <c r="J5" s="133"/>
+      <c r="A5" s="132"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="133"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="134"/>
     </row>
     <row r="6" spans="1:14" s="3" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A6" s="117" t="s">
+      <c r="A6" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="118"/>
+      <c r="B6" s="119"/>
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
@@ -3239,13 +3250,13 @@
       <c r="J22" s="22"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A23" s="119" t="s">
+      <c r="A23" s="120" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="120"/>
-      <c r="C23" s="120"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="121"/>
+      <c r="B23" s="121"/>
+      <c r="C23" s="121"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="122"/>
       <c r="F23" s="31">
         <f>SUM(F7:F22)</f>
         <v>0</v>
@@ -3296,68 +3307,68 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:14">
-      <c r="A2" s="122" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="A2" s="123" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="125"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="125"/>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="127"/>
+      <c r="A3" s="126"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="128"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A4" s="134" t="s">
+      <c r="A4" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="135"/>
-      <c r="C4" s="128" t="s">
+      <c r="B4" s="136"/>
+      <c r="C4" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="129">
+      <c r="G4" s="130">
         <v>43871</v>
       </c>
-      <c r="H4" s="129"/>
-      <c r="I4" s="129"/>
-      <c r="J4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="131"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A5" s="131"/>
-      <c r="B5" s="132"/>
-      <c r="C5" s="132"/>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="132"/>
-      <c r="J5" s="133"/>
+      <c r="A5" s="132"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="133"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="134"/>
     </row>
     <row r="6" spans="1:14" s="3" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A6" s="117" t="s">
+      <c r="A6" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="118"/>
+      <c r="B6" s="119"/>
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
@@ -3945,13 +3956,13 @@
       <c r="J26" s="22"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A27" s="119" t="s">
+      <c r="A27" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="120"/>
-      <c r="C27" s="120"/>
-      <c r="D27" s="120"/>
-      <c r="E27" s="121"/>
+      <c r="B27" s="121"/>
+      <c r="C27" s="121"/>
+      <c r="D27" s="121"/>
+      <c r="E27" s="122"/>
       <c r="F27" s="25">
         <f>SUM(F7:F26)</f>
         <v>0.77291666666666681</v>
@@ -4002,66 +4013,66 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:14">
-      <c r="A2" s="122" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="A2" s="123" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="125"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="125"/>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="127"/>
+      <c r="A3" s="126"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="128"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A4" s="134" t="s">
+      <c r="A4" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="135"/>
-      <c r="C4" s="128" t="s">
+      <c r="B4" s="136"/>
+      <c r="C4" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="129"/>
-      <c r="H4" s="129"/>
-      <c r="I4" s="129"/>
-      <c r="J4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="131"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A5" s="131"/>
-      <c r="B5" s="132"/>
-      <c r="C5" s="132"/>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="132"/>
-      <c r="J5" s="133"/>
+      <c r="A5" s="132"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="133"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="134"/>
     </row>
     <row r="6" spans="1:14" s="3" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A6" s="117" t="s">
+      <c r="A6" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="118"/>
+      <c r="B6" s="119"/>
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
@@ -4499,13 +4510,13 @@
       <c r="J22" s="22"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A23" s="119" t="s">
+      <c r="A23" s="120" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="120"/>
-      <c r="C23" s="120"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="121"/>
+      <c r="B23" s="121"/>
+      <c r="C23" s="121"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="122"/>
       <c r="F23" s="31">
         <f>SUM(F7:F22)</f>
         <v>1260.0000000000002</v>
@@ -5115,66 +5126,66 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:14">
-      <c r="A2" s="122" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="A2" s="123" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="125"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="125"/>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="127"/>
+      <c r="A3" s="126"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="128"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A4" s="134" t="s">
+      <c r="A4" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="135"/>
-      <c r="C4" s="128" t="s">
+      <c r="B4" s="136"/>
+      <c r="C4" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
       <c r="F4" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="129"/>
-      <c r="H4" s="129"/>
-      <c r="I4" s="129"/>
-      <c r="J4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="131"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A5" s="131"/>
-      <c r="B5" s="132"/>
-      <c r="C5" s="132"/>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="132"/>
-      <c r="J5" s="133"/>
+      <c r="A5" s="132"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="133"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="134"/>
     </row>
     <row r="6" spans="1:14" s="3" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A6" s="117" t="s">
+      <c r="A6" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="118"/>
+      <c r="B6" s="119"/>
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
@@ -5767,13 +5778,13 @@
       <c r="J27" s="22"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A28" s="136" t="s">
+      <c r="A28" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="137"/>
-      <c r="C28" s="137"/>
-      <c r="D28" s="137"/>
-      <c r="E28" s="138"/>
+      <c r="B28" s="138"/>
+      <c r="C28" s="138"/>
+      <c r="D28" s="138"/>
+      <c r="E28" s="139"/>
       <c r="F28" s="31">
         <f>SUM(F7:F27)</f>
         <v>1058.0000000000002</v>
@@ -5824,66 +5835,66 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:14">
-      <c r="A2" s="122" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="A2" s="123" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="125"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="125"/>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="127"/>
+      <c r="A3" s="126"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="128"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A4" s="134" t="s">
+      <c r="A4" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="135"/>
-      <c r="C4" s="128" t="s">
+      <c r="B4" s="136"/>
+      <c r="C4" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
       <c r="F4" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="129"/>
-      <c r="H4" s="129"/>
-      <c r="I4" s="129"/>
-      <c r="J4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="131"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A5" s="131"/>
-      <c r="B5" s="132"/>
-      <c r="C5" s="132"/>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="132"/>
-      <c r="J5" s="133"/>
+      <c r="A5" s="132"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="133"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="134"/>
     </row>
     <row r="6" spans="1:14" s="3" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A6" s="117" t="s">
+      <c r="A6" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="118"/>
+      <c r="B6" s="119"/>
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
@@ -6455,13 +6466,13 @@
       <c r="J26" s="22"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A27" s="119" t="s">
+      <c r="A27" s="120" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="120"/>
-      <c r="C27" s="120"/>
-      <c r="D27" s="120"/>
-      <c r="E27" s="121"/>
+      <c r="B27" s="121"/>
+      <c r="C27" s="121"/>
+      <c r="D27" s="121"/>
+      <c r="E27" s="122"/>
       <c r="F27" s="31">
         <f>SUM(F7:F26)</f>
         <v>702.99999999999989</v>
@@ -6514,66 +6525,66 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:14">
-      <c r="A2" s="122" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="A2" s="123" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="125"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="125"/>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="127"/>
+      <c r="A3" s="126"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="128"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A4" s="134" t="s">
+      <c r="A4" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="135"/>
-      <c r="C4" s="139" t="s">
+      <c r="B4" s="136"/>
+      <c r="C4" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="140"/>
       <c r="F4" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="140"/>
-      <c r="H4" s="140"/>
-      <c r="I4" s="140"/>
-      <c r="J4" s="141"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="141"/>
+      <c r="I4" s="141"/>
+      <c r="J4" s="142"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A5" s="142"/>
-      <c r="B5" s="143"/>
-      <c r="C5" s="143"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="144"/>
+      <c r="A5" s="143"/>
+      <c r="B5" s="144"/>
+      <c r="C5" s="144"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="145"/>
     </row>
     <row r="6" spans="1:14" s="73" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A6" s="117" t="s">
+      <c r="A6" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="118"/>
+      <c r="B6" s="119"/>
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
@@ -7285,13 +7296,13 @@
       <c r="J32" s="88"/>
     </row>
     <row r="33" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A33" s="119" t="s">
+      <c r="A33" s="120" t="s">
         <v>102</v>
       </c>
-      <c r="B33" s="120"/>
-      <c r="C33" s="120"/>
-      <c r="D33" s="120"/>
-      <c r="E33" s="121"/>
+      <c r="B33" s="121"/>
+      <c r="C33" s="121"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="122"/>
       <c r="F33" s="31">
         <f>SUM(F7:F32)</f>
         <v>1039.0000000000007</v>
@@ -7342,66 +7353,66 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:14">
-      <c r="A2" s="122" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="A2" s="123" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="125"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="125"/>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="127"/>
+      <c r="A3" s="126"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="128"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A4" s="134" t="s">
+      <c r="A4" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="135"/>
-      <c r="C4" s="128" t="s">
+      <c r="B4" s="136"/>
+      <c r="C4" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
       <c r="F4" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="129"/>
-      <c r="H4" s="129"/>
-      <c r="I4" s="129"/>
-      <c r="J4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="131"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A5" s="131"/>
-      <c r="B5" s="132"/>
-      <c r="C5" s="132"/>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="132"/>
-      <c r="J5" s="133"/>
+      <c r="A5" s="132"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="133"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="134"/>
     </row>
     <row r="6" spans="1:14" s="3" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A6" s="117" t="s">
+      <c r="A6" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="118"/>
+      <c r="B6" s="119"/>
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
@@ -7958,13 +7969,13 @@
       <c r="J26" s="22"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A27" s="119" t="s">
+      <c r="A27" s="120" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="120"/>
-      <c r="C27" s="120"/>
-      <c r="D27" s="120"/>
-      <c r="E27" s="121"/>
+      <c r="B27" s="121"/>
+      <c r="C27" s="121"/>
+      <c r="D27" s="121"/>
+      <c r="E27" s="122"/>
       <c r="F27" s="31">
         <f>SUM(F7:F26)</f>
         <v>838.99999999999932</v>
@@ -8015,66 +8026,66 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:14">
-      <c r="A2" s="122" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="A2" s="123" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="125"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="125"/>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="127"/>
+      <c r="A3" s="126"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="128"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A4" s="134" t="s">
+      <c r="A4" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="135"/>
-      <c r="C4" s="128" t="s">
+      <c r="B4" s="136"/>
+      <c r="C4" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
       <c r="F4" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="129"/>
-      <c r="H4" s="129"/>
-      <c r="I4" s="129"/>
-      <c r="J4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="131"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A5" s="131"/>
-      <c r="B5" s="132"/>
-      <c r="C5" s="132"/>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="132"/>
-      <c r="J5" s="133"/>
+      <c r="A5" s="132"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="133"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="134"/>
     </row>
     <row r="6" spans="1:14" s="3" customFormat="1" ht="32.25" thickBot="1">
-      <c r="A6" s="148" t="s">
+      <c r="A6" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="149"/>
+      <c r="B6" s="150"/>
       <c r="C6" s="93" t="s">
         <v>4</v>
       </c>
@@ -8698,13 +8709,13 @@
       <c r="J27" s="110"/>
     </row>
     <row r="28" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A28" s="145" t="s">
+      <c r="A28" s="146" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="146"/>
-      <c r="C28" s="146"/>
-      <c r="D28" s="146"/>
-      <c r="E28" s="147"/>
+      <c r="B28" s="147"/>
+      <c r="C28" s="147"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="148"/>
       <c r="F28" s="111">
         <f>SUM(F7:F27)</f>
         <v>833</v>

--- a/AJALOGI/PROGE_Time recording log.xlsx
+++ b/AJALOGI/PROGE_Time recording log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kasutaja\source\repos\AnnabelMa\VL\AJALOGI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5CF8B0-47F7-40EB-9149-A2613279AF9D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D87BEF-D586-4531-91B5-C252F6558454}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="2685" windowWidth="21600" windowHeight="11325" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1455" yWindow="735" windowWidth="24930" windowHeight="14100" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nädal 1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="217">
   <si>
     <t>Time recording log:</t>
   </si>
@@ -689,6 +689,12 @@
   </si>
   <si>
     <t>MVC&amp;Razor</t>
+  </si>
+  <si>
+    <t>VL55</t>
+  </si>
+  <si>
+    <t>Infra UnitsRepository testid</t>
   </si>
 </sst>
 </file>
@@ -2349,7 +2355,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" zoomScale="116" zoomScaleNormal="139" zoomScalePageLayoutView="139" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -2636,16 +2642,28 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="5"/>
+      <c r="B13" s="6">
+        <v>43927</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.84722222222222221</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0.86875000000000002</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
       <c r="F13" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+        <v>31.00000000000005</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>216</v>
+      </c>
       <c r="I13" s="5"/>
       <c r="J13" s="8"/>
     </row>
@@ -2821,7 +2839,7 @@
       <c r="E23" s="122"/>
       <c r="F23" s="31">
         <f>SUM(F7:F22)</f>
-        <v>227.99999999999983</v>
+        <v>258.99999999999989</v>
       </c>
       <c r="G23" s="23"/>
       <c r="H23" s="23"/>

--- a/AJALOGI/PROGE_Time recording log.xlsx
+++ b/AJALOGI/PROGE_Time recording log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kasutaja\source\repos\AnnabelMa\VL\AJALOGI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D87BEF-D586-4531-91B5-C252F6558454}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6811E1EE-7322-493C-9B40-5979B3F97D70}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1455" yWindow="735" windowWidth="24930" windowHeight="14100" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="220">
   <si>
     <t>Time recording log:</t>
   </si>
@@ -695,6 +695,15 @@
   </si>
   <si>
     <t>Infra UnitsRepository testid</t>
+  </si>
+  <si>
+    <t>Infra teised Quantity repositooriumid</t>
+  </si>
+  <si>
+    <t>VL56</t>
+  </si>
+  <si>
+    <t>VL56 jätk</t>
   </si>
 </sst>
 </file>
@@ -2355,7 +2364,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" zoomScale="116" zoomScaleNormal="139" zoomScalePageLayoutView="139" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -2664,7 +2673,9 @@
       <c r="H13" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="I13" s="5"/>
+      <c r="I13" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" thickBot="1">
@@ -2673,15 +2684,25 @@
         <v>8</v>
       </c>
       <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="5"/>
+      <c r="C14" s="7">
+        <v>0.87916666666666676</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.8881944444444444</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
       <c r="F14" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+        <v>12.999999999999794</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>217</v>
+      </c>
       <c r="I14" s="5"/>
       <c r="J14" s="8"/>
     </row>
@@ -2691,16 +2712,26 @@
         <v>9</v>
       </c>
       <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="5"/>
+      <c r="C15" s="7">
+        <v>0.92499999999999993</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0.96597222222222223</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
       <c r="F15" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="5"/>
+        <v>59.000000000000114</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>219</v>
+      </c>
       <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="I15" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" thickBot="1">
@@ -2839,7 +2870,7 @@
       <c r="E23" s="122"/>
       <c r="F23" s="31">
         <f>SUM(F7:F22)</f>
-        <v>258.99999999999989</v>
+        <v>330.99999999999977</v>
       </c>
       <c r="G23" s="23"/>
       <c r="H23" s="23"/>

--- a/AJALOGI/PROGE_Time recording log.xlsx
+++ b/AJALOGI/PROGE_Time recording log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kasutaja\source\repos\AnnabelMa\VL\AJALOGI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6811E1EE-7322-493C-9B40-5979B3F97D70}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1B217D-4E26-437F-A647-F2459050625A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1455" yWindow="735" windowWidth="24930" windowHeight="14100" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11280" yWindow="1905" windowWidth="24930" windowHeight="14100" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nädal 1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="224">
   <si>
     <t>Time recording log:</t>
   </si>
@@ -704,6 +704,18 @@
   </si>
   <si>
     <t>VL56 jätk</t>
+  </si>
+  <si>
+    <t>VL57</t>
+  </si>
+  <si>
+    <t>Infra Quantity repositooriumite testid</t>
+  </si>
+  <si>
+    <t>VL58</t>
+  </si>
+  <si>
+    <t>Uued lehed ja view'd</t>
   </si>
 </sst>
 </file>
@@ -2364,7 +2376,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" zoomScale="116" zoomScaleNormal="139" zoomScalePageLayoutView="139" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -2739,16 +2751,28 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="5"/>
+      <c r="B16" s="6">
+        <v>43928</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.39374999999999999</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0.41041666666666665</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
       <c r="F16" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+        <v>23.999999999999993</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>221</v>
+      </c>
       <c r="I16" s="5"/>
       <c r="J16" s="8"/>
     </row>
@@ -2765,8 +2789,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="G17" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>223</v>
+      </c>
       <c r="I17" s="5"/>
       <c r="J17" s="8"/>
     </row>
@@ -2870,7 +2898,7 @@
       <c r="E23" s="122"/>
       <c r="F23" s="31">
         <f>SUM(F7:F22)</f>
-        <v>330.99999999999977</v>
+        <v>354.99999999999977</v>
       </c>
       <c r="G23" s="23"/>
       <c r="H23" s="23"/>

--- a/AJALOGI/PROGE_Time recording log.xlsx
+++ b/AJALOGI/PROGE_Time recording log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kasutaja\source\repos\AnnabelMa\VL\AJALOGI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1B217D-4E26-437F-A647-F2459050625A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6539F548-469A-4CFB-A432-7F62916C7B27}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11280" yWindow="1905" windowWidth="24930" windowHeight="14100" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3345" yWindow="3915" windowWidth="24930" windowHeight="14100" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nädal 1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="224">
   <si>
     <t>Time recording log:</t>
   </si>
@@ -2376,7 +2376,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" zoomScale="116" zoomScaleNormal="139" zoomScalePageLayoutView="139" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -2782,12 +2782,18 @@
         <v>11</v>
       </c>
       <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="5"/>
+      <c r="C17" s="7">
+        <v>0.41875000000000001</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0.49027777777777781</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
       <c r="F17" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>103.00000000000003</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>222</v>
@@ -2795,7 +2801,9 @@
       <c r="H17" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="I17" s="5"/>
+      <c r="I17" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1">
@@ -2898,7 +2906,7 @@
       <c r="E23" s="122"/>
       <c r="F23" s="31">
         <f>SUM(F7:F22)</f>
-        <v>354.99999999999977</v>
+        <v>457.99999999999977</v>
       </c>
       <c r="G23" s="23"/>
       <c r="H23" s="23"/>

--- a/AJALOGI/PROGE_Time recording log.xlsx
+++ b/AJALOGI/PROGE_Time recording log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kasutaja\source\repos\AnnabelMa\VL\AJALOGI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6539F548-469A-4CFB-A432-7F62916C7B27}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E3F753-DBE8-4381-A0DC-ED20435FB4F9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3345" yWindow="3915" windowWidth="24930" windowHeight="14100" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3345" yWindow="1500" windowWidth="24930" windowHeight="14100" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nädal 1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="230">
   <si>
     <t>Time recording log:</t>
   </si>
@@ -716,6 +716,24 @@
   </si>
   <si>
     <t>Uued lehed ja view'd</t>
+  </si>
+  <si>
+    <t>Exception</t>
+  </si>
+  <si>
+    <t>VL59</t>
+  </si>
+  <si>
+    <t>Uute lehtede ja vaadete testimine</t>
+  </si>
+  <si>
+    <t>Start debugging viskab exceptioni, ei tunne MeasureTermsi</t>
+  </si>
+  <si>
+    <t>Page baasklasside testimin</t>
+  </si>
+  <si>
+    <t>VL60</t>
   </si>
 </sst>
 </file>
@@ -2375,8 +2393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C189D2D8-B184-4F89-ADB6-75E0F761228E}">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" zoomScale="116" zoomScaleNormal="139" zoomScalePageLayoutView="139" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="116" zoomScaleNormal="139" zoomScalePageLayoutView="139" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -2812,15 +2830,25 @@
         <v>12</v>
       </c>
       <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="5"/>
+      <c r="C18" s="7">
+        <v>0.65694444444444444</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0.66736111111111107</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
       <c r="F18" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+        <v>14.999999999999947</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>227</v>
+      </c>
       <c r="I18" s="5"/>
       <c r="J18" s="8"/>
     </row>
@@ -2830,16 +2858,28 @@
         <v>13</v>
       </c>
       <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="5"/>
+      <c r="C19" s="7">
+        <v>0.66736111111111107</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
       <c r="F19" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+        <v>34.000000000000043</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" thickBot="1">
@@ -2848,15 +2888,21 @@
         <v>14</v>
       </c>
       <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
+      <c r="C20" s="7">
+        <v>0.69097222222222221</v>
+      </c>
       <c r="D20" s="7"/>
       <c r="E20" s="5"/>
       <c r="F20" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+        <v>-995</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>228</v>
+      </c>
       <c r="I20" s="5"/>
       <c r="J20" s="8"/>
     </row>
@@ -2906,7 +2952,7 @@
       <c r="E23" s="122"/>
       <c r="F23" s="31">
         <f>SUM(F7:F22)</f>
-        <v>457.99999999999977</v>
+        <v>-488.00000000000023</v>
       </c>
       <c r="G23" s="23"/>
       <c r="H23" s="23"/>

--- a/AJALOGI/PROGE_Time recording log.xlsx
+++ b/AJALOGI/PROGE_Time recording log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kasutaja\source\repos\AnnabelMa\VL\AJALOGI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E3F753-DBE8-4381-A0DC-ED20435FB4F9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820F85AA-4E4A-4143-8A6D-E1E98A2A715E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3345" yWindow="1500" windowWidth="24930" windowHeight="14100" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="232">
   <si>
     <t>Time recording log:</t>
   </si>
@@ -730,10 +730,16 @@
     <t>Start debugging viskab exceptioni, ei tunne MeasureTermsi</t>
   </si>
   <si>
-    <t>Page baasklasside testimin</t>
-  </si>
-  <si>
     <t>VL60</t>
+  </si>
+  <si>
+    <t>VL60 jätk</t>
+  </si>
+  <si>
+    <t>Page baasklasside testimine</t>
+  </si>
+  <si>
+    <t>int32 ja byte erinevus kahes testis</t>
   </si>
 </sst>
 </file>
@@ -2391,10 +2397,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C189D2D8-B184-4F89-ADB6-75E0F761228E}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="116" zoomScaleNormal="139" zoomScalePageLayoutView="139" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -2547,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="30">
-        <f t="shared" ref="F8:F22" si="0">(D8-C8)*1440</f>
+        <f t="shared" ref="F8:F24" si="0">(D8-C8)*1440</f>
         <v>47.999999999999986</v>
       </c>
       <c r="G8" s="5" t="s">
@@ -2564,7 +2570,7 @@
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1">
       <c r="A9" s="14">
-        <f t="shared" ref="A9:A22" si="1">A8+1</f>
+        <f t="shared" ref="A9:A21" si="1">A8+1</f>
         <v>3</v>
       </c>
       <c r="B9" s="6">
@@ -2891,17 +2897,21 @@
       <c r="C20" s="7">
         <v>0.69097222222222221</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="5"/>
+      <c r="D20" s="7">
+        <v>0.7055555555555556</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
       <c r="F20" s="30">
         <f t="shared" si="0"/>
-        <v>-995</v>
+        <v>21.000000000000085</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="8"/>
@@ -2912,56 +2922,92 @@
         <v>15</v>
       </c>
       <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="5"/>
+      <c r="C21" s="7">
+        <v>0.89027777777777783</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0.9145833333333333</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
       <c r="F21" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
+        <v>34.999999999999872</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="J21" s="8"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A22" s="14">
-        <f t="shared" si="1"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="29"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A23" s="14"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A24" s="14">
+        <f>A21+1</f>
         <v>16</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="22"/>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A23" s="120" t="s">
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="22"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A25" s="120" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="121"/>
-      <c r="C23" s="121"/>
-      <c r="D23" s="121"/>
-      <c r="E23" s="122"/>
-      <c r="F23" s="31">
-        <f>SUM(F7:F22)</f>
-        <v>-488.00000000000023</v>
-      </c>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="24"/>
+      <c r="B25" s="121"/>
+      <c r="C25" s="121"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="31">
+        <f>SUM(F7:F24)</f>
+        <v>562.99999999999977</v>
+      </c>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A25:E25"/>
     <mergeCell ref="A2:J3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:E4"/>

--- a/AJALOGI/PROGE_Time recording log.xlsx
+++ b/AJALOGI/PROGE_Time recording log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kasutaja\source\repos\AnnabelMa\VL\AJALOGI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820F85AA-4E4A-4143-8A6D-E1E98A2A715E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C14DB6-746F-4688-9DFC-3A508E683E50}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3345" yWindow="1500" windowWidth="24930" windowHeight="14100" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="235">
   <si>
     <t>Time recording log:</t>
   </si>
@@ -740,6 +740,15 @@
   </si>
   <si>
     <t>int32 ja byte erinevus kahes testis</t>
+  </si>
+  <si>
+    <t>VL61</t>
+  </si>
+  <si>
+    <t>Select lisamine Units ja Measures loenditele</t>
+  </si>
+  <si>
+    <t>VL61 jätk</t>
   </si>
 </sst>
 </file>
@@ -2397,10 +2406,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C189D2D8-B184-4F89-ADB6-75E0F761228E}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="116" zoomScaleNormal="139" zoomScalePageLayoutView="139" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -2553,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="30">
-        <f t="shared" ref="F8:F24" si="0">(D8-C8)*1440</f>
+        <f t="shared" ref="F8:F27" si="0">(D8-C8)*1440</f>
         <v>47.999999999999986</v>
       </c>
       <c r="G8" s="5" t="s">
@@ -2948,66 +2957,130 @@
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1">
       <c r="A22" s="14"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
+      <c r="B22" s="26">
+        <v>43929</v>
+      </c>
+      <c r="C22" s="27">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="D22" s="27">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E22" s="28">
+        <v>0</v>
+      </c>
+      <c r="F22" s="30">
+        <f t="shared" si="0"/>
+        <v>28.00000000000006</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>233</v>
+      </c>
       <c r="I22" s="28"/>
       <c r="J22" s="29"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1">
       <c r="A23" s="14"/>
       <c r="B23" s="26"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="28"/>
+      <c r="C23" s="27">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D23" s="27">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="E23" s="28">
+        <v>0</v>
+      </c>
+      <c r="F23" s="30">
+        <f t="shared" si="0"/>
+        <v>95.000000000000057</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>234</v>
+      </c>
       <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
+      <c r="I23" s="28" t="s">
+        <v>14</v>
+      </c>
       <c r="J23" s="29"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A24" s="14">
+      <c r="A24" s="14"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="29"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A25" s="14"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="29"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A26" s="14"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="29"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A27" s="14">
         <f>A21+1</f>
         <v>16</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="22"/>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A25" s="120" t="s">
+      <c r="B27" s="19"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="22"/>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A28" s="120" t="s">
         <v>102</v>
       </c>
-      <c r="B25" s="121"/>
-      <c r="C25" s="121"/>
-      <c r="D25" s="121"/>
-      <c r="E25" s="122"/>
-      <c r="F25" s="31">
-        <f>SUM(F7:F24)</f>
-        <v>562.99999999999977</v>
-      </c>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="24"/>
+      <c r="B28" s="121"/>
+      <c r="C28" s="121"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="122"/>
+      <c r="F28" s="31">
+        <f>SUM(F7:F27)</f>
+        <v>686</v>
+      </c>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A28:E28"/>
     <mergeCell ref="A2:J3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:E4"/>

--- a/AJALOGI/PROGE_Time recording log.xlsx
+++ b/AJALOGI/PROGE_Time recording log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kasutaja\source\repos\AnnabelMa\VL\AJALOGI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C14DB6-746F-4688-9DFC-3A508E683E50}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB71DB3-F9F1-49CB-B2FB-71A6D010AF44}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3345" yWindow="1500" windowWidth="24930" windowHeight="14100" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2955" yWindow="420" windowWidth="24930" windowHeight="14100" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nädal 1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="240">
   <si>
     <t>Time recording log:</t>
   </si>
@@ -749,6 +749,21 @@
   </si>
   <si>
     <t>VL61 jätk</t>
+  </si>
+  <si>
+    <t>Vea paranduse otsimine</t>
+  </si>
+  <si>
+    <t>VL62</t>
+  </si>
+  <si>
+    <t>DropDown lisamine Create vaadetele + eelmise vea likvideerimine</t>
+  </si>
+  <si>
+    <t>UnitTests</t>
+  </si>
+  <si>
+    <t>Konspekti korrastamine</t>
   </si>
 </sst>
 </file>
@@ -2406,10 +2421,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C189D2D8-B184-4F89-ADB6-75E0F761228E}">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="116" zoomScaleNormal="139" zoomScalePageLayoutView="139" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B13" zoomScale="116" zoomScaleNormal="139" zoomScalePageLayoutView="139" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -2562,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="30">
-        <f t="shared" ref="F8:F27" si="0">(D8-C8)*1440</f>
+        <f t="shared" ref="F8:F29" si="0">(D8-C8)*1440</f>
         <v>47.999999999999986</v>
       </c>
       <c r="G8" s="5" t="s">
@@ -3010,77 +3025,157 @@
     <row r="24" spans="1:10" ht="15.75" thickBot="1">
       <c r="A24" s="14"/>
       <c r="B24" s="26"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
+      <c r="C24" s="27">
+        <v>0.93194444444444446</v>
+      </c>
+      <c r="D24" s="27">
+        <v>0.9555555555555556</v>
+      </c>
+      <c r="E24" s="28">
+        <v>0</v>
+      </c>
+      <c r="F24" s="30">
+        <f t="shared" si="0"/>
+        <v>34.000000000000043</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>238</v>
+      </c>
       <c r="I24" s="28"/>
       <c r="J24" s="29"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" thickBot="1">
       <c r="A25" s="14"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="28"/>
+      <c r="B25" s="26">
+        <v>43930</v>
+      </c>
+      <c r="C25" s="27">
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="D25" s="27">
+        <v>0.59791666666666665</v>
+      </c>
+      <c r="E25" s="28">
+        <v>0</v>
+      </c>
+      <c r="F25" s="30">
+        <f t="shared" si="0"/>
+        <v>14.999999999999947</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>235</v>
+      </c>
       <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
+      <c r="I25" s="28" t="s">
+        <v>14</v>
+      </c>
       <c r="J25" s="29"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="14"/>
       <c r="B26" s="26"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
+      <c r="C26" s="27">
+        <v>0.61319444444444449</v>
+      </c>
+      <c r="D26" s="27">
+        <v>0.69374999999999998</v>
+      </c>
+      <c r="E26" s="28">
+        <v>0</v>
+      </c>
+      <c r="F26" s="30">
+        <f t="shared" si="0"/>
+        <v>115.99999999999991</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="I26" s="28" t="s">
+        <v>14</v>
+      </c>
       <c r="J26" s="29"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A27" s="14">
+      <c r="A27" s="14"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="27">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="D27" s="27">
+        <v>0.69861111111111107</v>
+      </c>
+      <c r="E27" s="28">
+        <v>0</v>
+      </c>
+      <c r="F27" s="30">
+        <f t="shared" si="0"/>
+        <v>5.9999999999998188</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="29"/>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A28" s="14"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="30">
+        <v>0</v>
+      </c>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="29"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A29" s="14">
         <f>A21+1</f>
         <v>16</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="22"/>
-    </row>
-    <row r="28" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A28" s="120" t="s">
+      <c r="B29" s="19"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="22"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A30" s="120" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="121"/>
-      <c r="C28" s="121"/>
-      <c r="D28" s="121"/>
-      <c r="E28" s="122"/>
-      <c r="F28" s="31">
-        <f>SUM(F7:F27)</f>
-        <v>686</v>
-      </c>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="24"/>
+      <c r="B30" s="121"/>
+      <c r="C30" s="121"/>
+      <c r="D30" s="121"/>
+      <c r="E30" s="122"/>
+      <c r="F30" s="31">
+        <f>SUM(F7:F29)</f>
+        <v>856.99999999999966</v>
+      </c>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A30:E30"/>
     <mergeCell ref="A2:J3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:E4"/>

--- a/AJALOGI/PROGE_Time recording log.xlsx
+++ b/AJALOGI/PROGE_Time recording log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kasutaja\source\repos\AnnabelMa\VL\AJALOGI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB71DB3-F9F1-49CB-B2FB-71A6D010AF44}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D7C7E5-1FE7-47AC-B4E2-90566C434D9D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2955" yWindow="420" windowWidth="24930" windowHeight="14100" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="408" yWindow="756" windowWidth="23280" windowHeight="13200" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nädal 1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="242">
   <si>
     <t>Time recording log:</t>
   </si>
@@ -764,6 +764,12 @@
   </si>
   <si>
     <t>Konspekti korrastamine</t>
+  </si>
+  <si>
+    <t>Testid</t>
+  </si>
+  <si>
+    <t>Meeskonnaprojekti arutamine</t>
   </si>
 </sst>
 </file>
@@ -2421,10 +2427,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C189D2D8-B184-4F89-ADB6-75E0F761228E}">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B13" zoomScale="116" zoomScaleNormal="139" zoomScalePageLayoutView="139" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="116" zoomScaleNormal="139" zoomScalePageLayoutView="139" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -2577,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="30">
-        <f t="shared" ref="F8:F29" si="0">(D8-C8)*1440</f>
+        <f t="shared" ref="F8:F30" si="0">(D8-C8)*1440</f>
         <v>47.999999999999986</v>
       </c>
       <c r="G8" s="5" t="s">
@@ -3127,55 +3133,87 @@
     <row r="28" spans="1:10" ht="15.75" thickBot="1">
       <c r="A28" s="14"/>
       <c r="B28" s="26"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="28"/>
+      <c r="C28" s="27">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="D28" s="27">
+        <v>0.75208333333333333</v>
+      </c>
+      <c r="E28" s="28">
+        <v>0</v>
+      </c>
       <c r="F28" s="30">
-        <v>0</v>
-      </c>
-      <c r="G28" s="28"/>
+        <f t="shared" si="0"/>
+        <v>17.999999999999936</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>240</v>
+      </c>
       <c r="H28" s="28"/>
       <c r="I28" s="28"/>
       <c r="J28" s="29"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A29" s="14">
+      <c r="A29" s="14"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="27">
+        <v>0.81944444444444453</v>
+      </c>
+      <c r="D29" s="27">
+        <v>0.87916666666666676</v>
+      </c>
+      <c r="E29" s="28">
+        <v>0</v>
+      </c>
+      <c r="F29" s="30">
+        <f t="shared" si="0"/>
+        <v>86.000000000000014</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="29"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A30" s="14">
         <f>A21+1</f>
         <v>16</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="22"/>
-    </row>
-    <row r="30" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A30" s="120" t="s">
+      <c r="B30" s="19"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="22"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A31" s="120" t="s">
         <v>102</v>
       </c>
-      <c r="B30" s="121"/>
-      <c r="C30" s="121"/>
-      <c r="D30" s="121"/>
-      <c r="E30" s="122"/>
-      <c r="F30" s="31">
-        <f>SUM(F7:F29)</f>
-        <v>856.99999999999966</v>
-      </c>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="24"/>
+      <c r="B31" s="121"/>
+      <c r="C31" s="121"/>
+      <c r="D31" s="121"/>
+      <c r="E31" s="122"/>
+      <c r="F31" s="31">
+        <f>SUM(F7:F30)</f>
+        <v>960.99999999999955</v>
+      </c>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A31:E31"/>
     <mergeCell ref="A2:J3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:E4"/>

--- a/AJALOGI/PROGE_Time recording log.xlsx
+++ b/AJALOGI/PROGE_Time recording log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kasutaja\source\repos\AnnabelMa\VL\AJALOGI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D7C7E5-1FE7-47AC-B4E2-90566C434D9D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5766EEB0-7076-431B-8ABA-CB43A5978EC5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="408" yWindow="756" windowWidth="23280" windowHeight="13200" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="20412" windowHeight="11100" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nädal 1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="243">
   <si>
     <t>Time recording log:</t>
   </si>
@@ -770,6 +770,9 @@
   </si>
   <si>
     <t>Meeskonnaprojekti arutamine</t>
+  </si>
+  <si>
+    <t>klassidiagrammid</t>
   </si>
 </sst>
 </file>
@@ -1834,22 +1837,22 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
     <col min="6" max="6" width="11" style="4" customWidth="1"/>
-    <col min="7" max="7" width="55.7109375" customWidth="1"/>
-    <col min="8" max="8" width="63.42578125" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" customWidth="1"/>
-    <col min="14" max="14" width="26.7109375" customWidth="1"/>
+    <col min="7" max="7" width="55.6640625" customWidth="1"/>
+    <col min="8" max="8" width="63.44140625" customWidth="1"/>
+    <col min="9" max="9" width="3.44140625" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
+    <col min="14" max="14" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
+    <row r="1" spans="1:14" ht="15" thickBot="1"/>
     <row r="2" spans="1:14">
       <c r="A2" s="123" t="s">
         <v>0</v>
@@ -1876,7 +1879,7 @@
       <c r="I3" s="127"/>
       <c r="J3" s="128"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1">
+    <row r="4" spans="1:14" ht="15" thickBot="1">
       <c r="A4" s="135" t="s">
         <v>1</v>
       </c>
@@ -1896,7 +1899,7 @@
       <c r="I4" s="130"/>
       <c r="J4" s="131"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1">
+    <row r="5" spans="1:14" ht="15" thickBot="1">
       <c r="A5" s="132"/>
       <c r="B5" s="133"/>
       <c r="C5" s="133"/>
@@ -1908,7 +1911,7 @@
       <c r="I5" s="133"/>
       <c r="J5" s="134"/>
     </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" ht="30.75" thickBot="1">
+    <row r="6" spans="1:14" s="3" customFormat="1" ht="29.4" thickBot="1">
       <c r="A6" s="118" t="s">
         <v>3</v>
       </c>
@@ -1938,7 +1941,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1">
+    <row r="7" spans="1:14" ht="15" thickBot="1">
       <c r="A7" s="14">
         <v>1</v>
       </c>
@@ -1970,7 +1973,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1">
+    <row r="8" spans="1:14" ht="15" thickBot="1">
       <c r="A8" s="14">
         <f>A7+1</f>
         <v>2</v>
@@ -2001,7 +2004,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1">
+    <row r="9" spans="1:14" ht="15" thickBot="1">
       <c r="A9" s="14">
         <f t="shared" ref="A9:A22" si="1">A8+1</f>
         <v>3</v>
@@ -2029,7 +2032,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1">
+    <row r="10" spans="1:14" ht="15" thickBot="1">
       <c r="A10" s="14">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -2059,7 +2062,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1">
+    <row r="11" spans="1:14" ht="15" thickBot="1">
       <c r="A11" s="14">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -2087,7 +2090,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1">
+    <row r="12" spans="1:14" ht="15" thickBot="1">
       <c r="A12" s="14">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -2115,7 +2118,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" thickBot="1">
+    <row r="13" spans="1:14" ht="15" thickBot="1">
       <c r="A13" s="14">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -2143,7 +2146,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1">
+    <row r="14" spans="1:14" ht="15" thickBot="1">
       <c r="A14" s="14">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -2171,7 +2174,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1">
+    <row r="15" spans="1:14" ht="15" thickBot="1">
       <c r="A15" s="14">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -2199,7 +2202,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1">
+    <row r="16" spans="1:14" ht="15" thickBot="1">
       <c r="A16" s="14">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -2231,7 +2234,7 @@
       </c>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1">
+    <row r="17" spans="1:10" ht="15" thickBot="1">
       <c r="A17" s="14">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -2259,7 +2262,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1">
+    <row r="18" spans="1:10" ht="15" thickBot="1">
       <c r="A18" s="14">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -2289,7 +2292,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1">
+    <row r="19" spans="1:10" ht="15" thickBot="1">
       <c r="A19" s="14">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -2319,7 +2322,7 @@
       </c>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1">
+    <row r="20" spans="1:10" ht="15" thickBot="1">
       <c r="A20" s="14">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -2347,7 +2350,7 @@
       </c>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1">
+    <row r="21" spans="1:10" ht="15" thickBot="1">
       <c r="A21" s="14">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -2375,7 +2378,7 @@
       <c r="I21" s="5"/>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1">
+    <row r="22" spans="1:10" ht="15" thickBot="1">
       <c r="A22" s="14">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -2393,7 +2396,7 @@
       <c r="I22" s="21"/>
       <c r="J22" s="22"/>
     </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1">
+    <row r="23" spans="1:10" ht="15" thickBot="1">
       <c r="A23" s="120" t="s">
         <v>21</v>
       </c>
@@ -2429,26 +2432,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C189D2D8-B184-4F89-ADB6-75E0F761228E}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="116" zoomScaleNormal="139" zoomScalePageLayoutView="139" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A17" zoomScale="116" zoomScaleNormal="139" zoomScalePageLayoutView="139" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
     <col min="6" max="6" width="11" style="66" customWidth="1"/>
-    <col min="7" max="7" width="55.7109375" customWidth="1"/>
-    <col min="8" max="8" width="63.42578125" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" customWidth="1"/>
-    <col min="14" max="14" width="26.7109375" customWidth="1"/>
+    <col min="7" max="7" width="55.6640625" customWidth="1"/>
+    <col min="8" max="8" width="63.44140625" customWidth="1"/>
+    <col min="9" max="9" width="3.44140625" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
+    <col min="14" max="14" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
+    <row r="1" spans="1:14" ht="15" thickBot="1"/>
     <row r="2" spans="1:14">
       <c r="A2" s="123" t="s">
         <v>0</v>
@@ -2475,7 +2478,7 @@
       <c r="I3" s="127"/>
       <c r="J3" s="128"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1">
+    <row r="4" spans="1:14" ht="15" thickBot="1">
       <c r="A4" s="135" t="s">
         <v>1</v>
       </c>
@@ -2493,7 +2496,7 @@
       <c r="I4" s="130"/>
       <c r="J4" s="131"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1">
+    <row r="5" spans="1:14" ht="15" thickBot="1">
       <c r="A5" s="132"/>
       <c r="B5" s="133"/>
       <c r="C5" s="133"/>
@@ -2505,7 +2508,7 @@
       <c r="I5" s="133"/>
       <c r="J5" s="134"/>
     </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" ht="30.75" thickBot="1">
+    <row r="6" spans="1:14" s="3" customFormat="1" ht="29.4" thickBot="1">
       <c r="A6" s="118" t="s">
         <v>3</v>
       </c>
@@ -2535,7 +2538,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1">
+    <row r="7" spans="1:14" ht="15" thickBot="1">
       <c r="A7" s="14">
         <v>1</v>
       </c>
@@ -2567,7 +2570,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1">
+    <row r="8" spans="1:14" ht="15" thickBot="1">
       <c r="A8" s="14">
         <f>A7+1</f>
         <v>2</v>
@@ -2598,7 +2601,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1">
+    <row r="9" spans="1:14" ht="15" thickBot="1">
       <c r="A9" s="14">
         <f t="shared" ref="A9:A21" si="1">A8+1</f>
         <v>3</v>
@@ -2628,7 +2631,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1">
+    <row r="10" spans="1:14" ht="15" thickBot="1">
       <c r="A10" s="14">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -2656,7 +2659,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1">
+    <row r="11" spans="1:14" ht="15" thickBot="1">
       <c r="A11" s="14">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -2686,7 +2689,7 @@
       </c>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1">
+    <row r="12" spans="1:14" ht="15" thickBot="1">
       <c r="A12" s="14">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -2712,7 +2715,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" thickBot="1">
+    <row r="13" spans="1:14" ht="15" thickBot="1">
       <c r="A13" s="14">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -2744,7 +2747,7 @@
       </c>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1">
+    <row r="14" spans="1:14" ht="15" thickBot="1">
       <c r="A14" s="14">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -2772,7 +2775,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1">
+    <row r="15" spans="1:14" ht="15" thickBot="1">
       <c r="A15" s="14">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -2800,7 +2803,7 @@
       </c>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1">
+    <row r="16" spans="1:14" ht="15" thickBot="1">
       <c r="A16" s="14">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -2830,7 +2833,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1">
+    <row r="17" spans="1:10" ht="15" thickBot="1">
       <c r="A17" s="14">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -2860,7 +2863,7 @@
       </c>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1">
+    <row r="18" spans="1:10" ht="15" thickBot="1">
       <c r="A18" s="14">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -2888,7 +2891,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1">
+    <row r="19" spans="1:10" ht="15" thickBot="1">
       <c r="A19" s="14">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -2918,7 +2921,7 @@
       </c>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1">
+    <row r="20" spans="1:10" ht="15" thickBot="1">
       <c r="A20" s="14">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -2946,7 +2949,7 @@
       <c r="I20" s="5"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1">
+    <row r="21" spans="1:10" ht="15" thickBot="1">
       <c r="A21" s="14">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -2976,7 +2979,7 @@
       </c>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1">
+    <row r="22" spans="1:10" ht="15" thickBot="1">
       <c r="A22" s="14"/>
       <c r="B22" s="26">
         <v>43929</v>
@@ -3003,7 +3006,7 @@
       <c r="I22" s="28"/>
       <c r="J22" s="29"/>
     </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1">
+    <row r="23" spans="1:10" ht="15" thickBot="1">
       <c r="A23" s="14"/>
       <c r="B23" s="26"/>
       <c r="C23" s="27">
@@ -3028,7 +3031,7 @@
       </c>
       <c r="J23" s="29"/>
     </row>
-    <row r="24" spans="1:10" ht="15.75" thickBot="1">
+    <row r="24" spans="1:10" ht="15" thickBot="1">
       <c r="A24" s="14"/>
       <c r="B24" s="26"/>
       <c r="C24" s="27">
@@ -3053,7 +3056,7 @@
       <c r="I24" s="28"/>
       <c r="J24" s="29"/>
     </row>
-    <row r="25" spans="1:10" ht="15.75" thickBot="1">
+    <row r="25" spans="1:10" ht="15" thickBot="1">
       <c r="A25" s="14"/>
       <c r="B25" s="26">
         <v>43930</v>
@@ -3080,7 +3083,7 @@
       </c>
       <c r="J25" s="29"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1">
+    <row r="26" spans="1:10" ht="15" thickBot="1">
       <c r="A26" s="14"/>
       <c r="B26" s="26"/>
       <c r="C26" s="27">
@@ -3107,7 +3110,7 @@
       </c>
       <c r="J26" s="29"/>
     </row>
-    <row r="27" spans="1:10" ht="15.75" thickBot="1">
+    <row r="27" spans="1:10" ht="15" thickBot="1">
       <c r="A27" s="14"/>
       <c r="B27" s="26"/>
       <c r="C27" s="27">
@@ -3130,7 +3133,7 @@
       <c r="I27" s="28"/>
       <c r="J27" s="29"/>
     </row>
-    <row r="28" spans="1:10" ht="15.75" thickBot="1">
+    <row r="28" spans="1:10" ht="15" thickBot="1">
       <c r="A28" s="14"/>
       <c r="B28" s="26"/>
       <c r="C28" s="27">
@@ -3153,7 +3156,7 @@
       <c r="I28" s="28"/>
       <c r="J28" s="29"/>
     </row>
-    <row r="29" spans="1:10" ht="15.75" thickBot="1">
+    <row r="29" spans="1:10" ht="15" thickBot="1">
       <c r="A29" s="14"/>
       <c r="B29" s="26"/>
       <c r="C29" s="27">
@@ -3176,7 +3179,7 @@
       <c r="I29" s="28"/>
       <c r="J29" s="29"/>
     </row>
-    <row r="30" spans="1:10" ht="15.75" thickBot="1">
+    <row r="30" spans="1:10" ht="15" thickBot="1">
       <c r="A30" s="14">
         <f>A21+1</f>
         <v>16</v>
@@ -3194,7 +3197,7 @@
       <c r="I30" s="21"/>
       <c r="J30" s="22"/>
     </row>
-    <row r="31" spans="1:10" ht="15.75" thickBot="1">
+    <row r="31" spans="1:10" ht="15" thickBot="1">
       <c r="A31" s="120" t="s">
         <v>102</v>
       </c>
@@ -3231,26 +3234,26 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C2" zoomScale="116" zoomScaleNormal="139" zoomScalePageLayoutView="139" workbookViewId="0">
-      <selection activeCell="G9" sqref="A6:J23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D5" zoomScale="116" zoomScaleNormal="139" zoomScalePageLayoutView="139" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
     <col min="6" max="6" width="11" style="66" customWidth="1"/>
-    <col min="7" max="7" width="55.7109375" customWidth="1"/>
-    <col min="8" max="8" width="63.42578125" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" customWidth="1"/>
-    <col min="14" max="14" width="26.7109375" customWidth="1"/>
+    <col min="7" max="7" width="55.6640625" customWidth="1"/>
+    <col min="8" max="8" width="63.44140625" customWidth="1"/>
+    <col min="9" max="9" width="3.44140625" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
+    <col min="14" max="14" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
+    <row r="1" spans="1:14" ht="15" thickBot="1"/>
     <row r="2" spans="1:14">
       <c r="A2" s="123" t="s">
         <v>0</v>
@@ -3277,7 +3280,7 @@
       <c r="I3" s="127"/>
       <c r="J3" s="128"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1">
+    <row r="4" spans="1:14" ht="15" thickBot="1">
       <c r="A4" s="135" t="s">
         <v>1</v>
       </c>
@@ -3295,7 +3298,7 @@
       <c r="I4" s="130"/>
       <c r="J4" s="131"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1">
+    <row r="5" spans="1:14" ht="15" thickBot="1">
       <c r="A5" s="132"/>
       <c r="B5" s="133"/>
       <c r="C5" s="133"/>
@@ -3307,7 +3310,7 @@
       <c r="I5" s="133"/>
       <c r="J5" s="134"/>
     </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" ht="30.75" thickBot="1">
+    <row r="6" spans="1:14" s="3" customFormat="1" ht="29.4" thickBot="1">
       <c r="A6" s="118" t="s">
         <v>3</v>
       </c>
@@ -3337,29 +3340,39 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1">
+    <row r="7" spans="1:14" ht="15" thickBot="1">
       <c r="A7" s="14">
         <v>1</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
+      <c r="B7" s="15">
+        <v>44021</v>
+      </c>
+      <c r="C7" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0.4458333333333333</v>
+      </c>
       <c r="E7" s="17">
         <v>0</v>
       </c>
       <c r="F7" s="30">
         <f>(D7-C7)*1440</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
+        <v>101.99999999999996</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>242</v>
+      </c>
       <c r="I7" s="17"/>
       <c r="J7" s="18"/>
       <c r="N7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1">
+    <row r="8" spans="1:14" ht="15" thickBot="1">
       <c r="A8" s="14">
         <f>A7+1</f>
         <v>2</v>
@@ -3380,7 +3393,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1">
+    <row r="9" spans="1:14" ht="15" thickBot="1">
       <c r="A9" s="14">
         <f t="shared" ref="A9:A22" si="1">A8+1</f>
         <v>3</v>
@@ -3398,7 +3411,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1">
+    <row r="10" spans="1:14" ht="15" thickBot="1">
       <c r="A10" s="14">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -3416,7 +3429,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1">
+    <row r="11" spans="1:14" ht="15" thickBot="1">
       <c r="A11" s="14">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -3434,7 +3447,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1">
+    <row r="12" spans="1:14" ht="15" thickBot="1">
       <c r="A12" s="14">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -3452,7 +3465,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" thickBot="1">
+    <row r="13" spans="1:14" ht="15" thickBot="1">
       <c r="A13" s="14">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -3470,7 +3483,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1">
+    <row r="14" spans="1:14" ht="15" thickBot="1">
       <c r="A14" s="14">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -3488,7 +3501,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1">
+    <row r="15" spans="1:14" ht="15" thickBot="1">
       <c r="A15" s="14">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -3506,7 +3519,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1">
+    <row r="16" spans="1:14" ht="15" thickBot="1">
       <c r="A16" s="14">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -3524,7 +3537,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1">
+    <row r="17" spans="1:10" ht="15" thickBot="1">
       <c r="A17" s="14">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -3542,7 +3555,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1">
+    <row r="18" spans="1:10" ht="15" thickBot="1">
       <c r="A18" s="14">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -3560,7 +3573,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1">
+    <row r="19" spans="1:10" ht="15" thickBot="1">
       <c r="A19" s="14">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -3578,7 +3591,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1">
+    <row r="20" spans="1:10" ht="15" thickBot="1">
       <c r="A20" s="14">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -3596,7 +3609,7 @@
       <c r="I20" s="5"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1">
+    <row r="21" spans="1:10" ht="15" thickBot="1">
       <c r="A21" s="14">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -3614,7 +3627,7 @@
       <c r="I21" s="5"/>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1">
+    <row r="22" spans="1:10" ht="15" thickBot="1">
       <c r="A22" s="14">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -3632,7 +3645,7 @@
       <c r="I22" s="21"/>
       <c r="J22" s="22"/>
     </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1">
+    <row r="23" spans="1:10" ht="15" thickBot="1">
       <c r="A23" s="120" t="s">
         <v>102</v>
       </c>
@@ -3642,7 +3655,7 @@
       <c r="E23" s="122"/>
       <c r="F23" s="31">
         <f>SUM(F7:F22)</f>
-        <v>0</v>
+        <v>101.99999999999996</v>
       </c>
       <c r="G23" s="23"/>
       <c r="H23" s="23"/>
@@ -3673,22 +3686,22 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
     <col min="6" max="6" width="11" style="4" customWidth="1"/>
-    <col min="7" max="7" width="55.7109375" customWidth="1"/>
-    <col min="8" max="8" width="63.42578125" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" customWidth="1"/>
-    <col min="14" max="14" width="26.7109375" customWidth="1"/>
+    <col min="7" max="7" width="55.6640625" customWidth="1"/>
+    <col min="8" max="8" width="63.44140625" customWidth="1"/>
+    <col min="9" max="9" width="3.44140625" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
+    <col min="14" max="14" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
+    <row r="1" spans="1:14" ht="15" thickBot="1"/>
     <row r="2" spans="1:14">
       <c r="A2" s="123" t="s">
         <v>0</v>
@@ -3715,7 +3728,7 @@
       <c r="I3" s="127"/>
       <c r="J3" s="128"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1">
+    <row r="4" spans="1:14" ht="15" thickBot="1">
       <c r="A4" s="135" t="s">
         <v>1</v>
       </c>
@@ -3735,7 +3748,7 @@
       <c r="I4" s="130"/>
       <c r="J4" s="131"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1">
+    <row r="5" spans="1:14" ht="15" thickBot="1">
       <c r="A5" s="132"/>
       <c r="B5" s="133"/>
       <c r="C5" s="133"/>
@@ -3747,7 +3760,7 @@
       <c r="I5" s="133"/>
       <c r="J5" s="134"/>
     </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" ht="30.75" thickBot="1">
+    <row r="6" spans="1:14" s="3" customFormat="1" ht="29.4" thickBot="1">
       <c r="A6" s="118" t="s">
         <v>3</v>
       </c>
@@ -3777,7 +3790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1">
+    <row r="7" spans="1:14" ht="15" thickBot="1">
       <c r="A7" s="14">
         <v>1</v>
       </c>
@@ -3811,7 +3824,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1">
+    <row r="8" spans="1:14" ht="15" thickBot="1">
       <c r="A8" s="14">
         <f>A7+1</f>
         <v>2</v>
@@ -3844,7 +3857,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1">
+    <row r="9" spans="1:14" ht="15" thickBot="1">
       <c r="A9" s="14">
         <f t="shared" ref="A9:A21" si="1">A8+1</f>
         <v>3</v>
@@ -3872,7 +3885,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1">
+    <row r="10" spans="1:14" ht="15" thickBot="1">
       <c r="A10" s="14">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -3904,7 +3917,7 @@
       </c>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1">
+    <row r="11" spans="1:14" ht="15" thickBot="1">
       <c r="A11" s="14">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -3934,7 +3947,7 @@
       </c>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1">
+    <row r="12" spans="1:14" ht="15" thickBot="1">
       <c r="A12" s="14">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -3964,7 +3977,7 @@
       </c>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" thickBot="1">
+    <row r="13" spans="1:14" ht="15" thickBot="1">
       <c r="A13" s="14">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -3994,7 +4007,7 @@
       </c>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1">
+    <row r="14" spans="1:14" ht="15" thickBot="1">
       <c r="A14" s="14">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -4024,7 +4037,7 @@
       </c>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1">
+    <row r="15" spans="1:14" ht="15" thickBot="1">
       <c r="A15" s="14">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -4054,7 +4067,7 @@
       </c>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1">
+    <row r="16" spans="1:14" ht="15" thickBot="1">
       <c r="A16" s="14">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -4080,7 +4093,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1">
+    <row r="17" spans="1:10" ht="15" thickBot="1">
       <c r="A17" s="14">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -4106,7 +4119,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1">
+    <row r="18" spans="1:10" ht="15" thickBot="1">
       <c r="A18" s="14">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -4134,7 +4147,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1">
+    <row r="19" spans="1:10" ht="15" thickBot="1">
       <c r="A19" s="14">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -4162,7 +4175,7 @@
       </c>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1">
+    <row r="20" spans="1:10" ht="15" thickBot="1">
       <c r="A20" s="14">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -4190,7 +4203,7 @@
       <c r="I20" s="5"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1">
+    <row r="21" spans="1:10" ht="15" thickBot="1">
       <c r="A21" s="14">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -4216,7 +4229,7 @@
       <c r="I21" s="5"/>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1">
+    <row r="22" spans="1:10" ht="15" thickBot="1">
       <c r="A22" s="14"/>
       <c r="B22" s="26"/>
       <c r="C22" s="27">
@@ -4239,7 +4252,7 @@
       <c r="I22" s="28"/>
       <c r="J22" s="29"/>
     </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1">
+    <row r="23" spans="1:10" ht="15" thickBot="1">
       <c r="A23" s="14"/>
       <c r="B23" s="26"/>
       <c r="C23" s="27">
@@ -4262,7 +4275,7 @@
       <c r="I23" s="28"/>
       <c r="J23" s="29"/>
     </row>
-    <row r="24" spans="1:10" ht="15.75" thickBot="1">
+    <row r="24" spans="1:10" ht="15" thickBot="1">
       <c r="A24" s="14"/>
       <c r="B24" s="26"/>
       <c r="C24" s="27">
@@ -4285,7 +4298,7 @@
       <c r="I24" s="28"/>
       <c r="J24" s="29"/>
     </row>
-    <row r="25" spans="1:10" ht="15.75" thickBot="1">
+    <row r="25" spans="1:10" ht="15" thickBot="1">
       <c r="A25" s="14"/>
       <c r="B25" s="26">
         <v>43870</v>
@@ -4312,7 +4325,7 @@
       <c r="I25" s="28"/>
       <c r="J25" s="29"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1">
+    <row r="26" spans="1:10" ht="15" thickBot="1">
       <c r="A26" s="14">
         <f>A21+1</f>
         <v>16</v>
@@ -4338,7 +4351,7 @@
       <c r="I26" s="21"/>
       <c r="J26" s="22"/>
     </row>
-    <row r="27" spans="1:10" ht="15.75" thickBot="1">
+    <row r="27" spans="1:10" ht="15" thickBot="1">
       <c r="A27" s="120" t="s">
         <v>21</v>
       </c>
@@ -4379,22 +4392,22 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="55.7109375" customWidth="1"/>
-    <col min="8" max="8" width="63.42578125" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" customWidth="1"/>
-    <col min="14" max="14" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="55.6640625" customWidth="1"/>
+    <col min="8" max="8" width="63.44140625" customWidth="1"/>
+    <col min="9" max="9" width="3.44140625" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
+    <col min="14" max="14" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
+    <row r="1" spans="1:14" ht="15" thickBot="1"/>
     <row r="2" spans="1:14">
       <c r="A2" s="123" t="s">
         <v>0</v>
@@ -4421,7 +4434,7 @@
       <c r="I3" s="127"/>
       <c r="J3" s="128"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1">
+    <row r="4" spans="1:14" ht="15" thickBot="1">
       <c r="A4" s="135" t="s">
         <v>1</v>
       </c>
@@ -4439,7 +4452,7 @@
       <c r="I4" s="130"/>
       <c r="J4" s="131"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1">
+    <row r="5" spans="1:14" ht="15" thickBot="1">
       <c r="A5" s="132"/>
       <c r="B5" s="133"/>
       <c r="C5" s="133"/>
@@ -4451,7 +4464,7 @@
       <c r="I5" s="133"/>
       <c r="J5" s="134"/>
     </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" ht="30.75" thickBot="1">
+    <row r="6" spans="1:14" s="3" customFormat="1" ht="29.4" thickBot="1">
       <c r="A6" s="118" t="s">
         <v>3</v>
       </c>
@@ -4481,7 +4494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1">
+    <row r="7" spans="1:14" ht="15" thickBot="1">
       <c r="A7" s="14">
         <v>1</v>
       </c>
@@ -4511,7 +4524,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1">
+    <row r="8" spans="1:14" ht="15" thickBot="1">
       <c r="A8" s="14">
         <f>A7+1</f>
         <v>2</v>
@@ -4544,7 +4557,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1">
+    <row r="9" spans="1:14" ht="15" thickBot="1">
       <c r="A9" s="14">
         <f t="shared" ref="A9:A22" si="1">A8+1</f>
         <v>3</v>
@@ -4572,7 +4585,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1">
+    <row r="10" spans="1:14" ht="15" thickBot="1">
       <c r="A10" s="14">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -4600,7 +4613,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1">
+    <row r="11" spans="1:14" ht="15" thickBot="1">
       <c r="A11" s="14">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -4628,7 +4641,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1">
+    <row r="12" spans="1:14" ht="15" thickBot="1">
       <c r="A12" s="14">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -4654,7 +4667,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" thickBot="1">
+    <row r="13" spans="1:14" ht="15" thickBot="1">
       <c r="A13" s="14">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -4684,7 +4697,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1">
+    <row r="14" spans="1:14" ht="15" thickBot="1">
       <c r="A14" s="14">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -4710,7 +4723,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1">
+    <row r="15" spans="1:14" ht="15" thickBot="1">
       <c r="A15" s="14">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -4738,7 +4751,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1">
+    <row r="16" spans="1:14" ht="15" thickBot="1">
       <c r="A16" s="14">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -4766,7 +4779,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1">
+    <row r="17" spans="1:10" ht="15" thickBot="1">
       <c r="A17" s="14">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -4794,7 +4807,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1">
+    <row r="18" spans="1:10" ht="15" thickBot="1">
       <c r="A18" s="14">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -4820,7 +4833,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1">
+    <row r="19" spans="1:10" ht="15" thickBot="1">
       <c r="A19" s="14">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -4838,7 +4851,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1">
+    <row r="20" spans="1:10" ht="15" thickBot="1">
       <c r="A20" s="14">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -4856,7 +4869,7 @@
       <c r="I20" s="5"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1">
+    <row r="21" spans="1:10" ht="15" thickBot="1">
       <c r="A21" s="14">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -4874,7 +4887,7 @@
       <c r="I21" s="5"/>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1">
+    <row r="22" spans="1:10" ht="15" thickBot="1">
       <c r="A22" s="14">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -4892,7 +4905,7 @@
       <c r="I22" s="21"/>
       <c r="J22" s="22"/>
     </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1">
+    <row r="23" spans="1:10" ht="15" thickBot="1">
       <c r="A23" s="120" t="s">
         <v>55</v>
       </c>
@@ -4933,22 +4946,22 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
     <col min="6" max="6" width="11" style="4" customWidth="1"/>
-    <col min="7" max="7" width="55.7109375" customWidth="1"/>
-    <col min="8" max="8" width="72.140625" style="39" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" customWidth="1"/>
-    <col min="14" max="14" width="26.7109375" customWidth="1"/>
+    <col min="7" max="7" width="55.6640625" customWidth="1"/>
+    <col min="8" max="8" width="72.109375" style="39" customWidth="1"/>
+    <col min="9" max="9" width="3.44140625" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
+    <col min="14" max="14" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
+    <row r="1" spans="1:14" ht="15" thickBot="1"/>
     <row r="2" spans="1:14">
       <c r="A2" s="43" t="s">
         <v>0</v>
@@ -4975,7 +4988,7 @@
       <c r="I3" s="47"/>
       <c r="J3" s="48"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1">
+    <row r="4" spans="1:14" ht="15" thickBot="1">
       <c r="A4" s="49" t="s">
         <v>1</v>
       </c>
@@ -4993,7 +5006,7 @@
       <c r="I4" s="52"/>
       <c r="J4" s="53"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1">
+    <row r="5" spans="1:14" ht="15" thickBot="1">
       <c r="A5" s="54"/>
       <c r="B5" s="55"/>
       <c r="C5" s="55"/>
@@ -5005,7 +5018,7 @@
       <c r="I5" s="55"/>
       <c r="J5" s="56"/>
     </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" ht="30.75" thickBot="1">
+    <row r="6" spans="1:14" s="3" customFormat="1" ht="29.4" thickBot="1">
       <c r="A6" s="57" t="s">
         <v>3</v>
       </c>
@@ -5035,7 +5048,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1">
+    <row r="7" spans="1:14" ht="15" thickBot="1">
       <c r="A7" s="14">
         <v>1</v>
       </c>
@@ -5065,7 +5078,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1">
+    <row r="8" spans="1:14" ht="15" thickBot="1">
       <c r="A8" s="14">
         <f>A7+1</f>
         <v>2</v>
@@ -5096,7 +5109,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1">
+    <row r="9" spans="1:14" ht="15" thickBot="1">
       <c r="A9" s="14">
         <f t="shared" ref="A9:A22" si="1">A8+1</f>
         <v>3</v>
@@ -5124,7 +5137,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1">
+    <row r="10" spans="1:14" ht="15" thickBot="1">
       <c r="A10" s="14">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -5152,7 +5165,7 @@
       </c>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1">
+    <row r="11" spans="1:14" ht="15" thickBot="1">
       <c r="A11" s="14">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -5184,7 +5197,7 @@
       </c>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1">
+    <row r="12" spans="1:14" ht="15" thickBot="1">
       <c r="A12" s="14">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -5210,7 +5223,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" thickBot="1">
+    <row r="13" spans="1:14" ht="15" thickBot="1">
       <c r="A13" s="14">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -5242,7 +5255,7 @@
       </c>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1">
+    <row r="14" spans="1:14" ht="15" thickBot="1">
       <c r="A14" s="14">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -5268,7 +5281,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1">
+    <row r="15" spans="1:14" ht="15" thickBot="1">
       <c r="A15" s="14">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -5298,7 +5311,7 @@
       </c>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:14" s="39" customFormat="1" ht="60.75" thickBot="1">
+    <row r="16" spans="1:14" s="39" customFormat="1" ht="43.8" thickBot="1">
       <c r="A16" s="32">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -5330,7 +5343,7 @@
       </c>
       <c r="J16" s="38"/>
     </row>
-    <row r="17" spans="1:10" ht="30.75" thickBot="1">
+    <row r="17" spans="1:10" ht="29.4" thickBot="1">
       <c r="A17" s="14">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -5360,7 +5373,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1">
+    <row r="18" spans="1:10" ht="15" thickBot="1">
       <c r="A18" s="14">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -5388,7 +5401,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1">
+    <row r="19" spans="1:10" ht="15" thickBot="1">
       <c r="A19" s="14">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -5406,7 +5419,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1">
+    <row r="20" spans="1:10" ht="15" thickBot="1">
       <c r="A20" s="14">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -5424,7 +5437,7 @@
       <c r="I20" s="5"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1">
+    <row r="21" spans="1:10" ht="15" thickBot="1">
       <c r="A21" s="14">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -5442,7 +5455,7 @@
       <c r="I21" s="5"/>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1">
+    <row r="22" spans="1:10" ht="15" thickBot="1">
       <c r="A22" s="14">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -5460,7 +5473,7 @@
       <c r="I22" s="21"/>
       <c r="J22" s="22"/>
     </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1">
+    <row r="23" spans="1:10" ht="15" thickBot="1">
       <c r="A23" s="40" t="s">
         <v>21</v>
       </c>
@@ -5492,22 +5505,22 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
     <col min="6" max="6" width="11" style="66" customWidth="1"/>
-    <col min="7" max="7" width="55.7109375" customWidth="1"/>
-    <col min="8" max="8" width="92.85546875" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" customWidth="1"/>
-    <col min="14" max="14" width="26.7109375" customWidth="1"/>
+    <col min="7" max="7" width="55.6640625" customWidth="1"/>
+    <col min="8" max="8" width="92.88671875" customWidth="1"/>
+    <col min="9" max="9" width="3.44140625" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
+    <col min="14" max="14" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
+    <row r="1" spans="1:14" ht="15" thickBot="1"/>
     <row r="2" spans="1:14">
       <c r="A2" s="123" t="s">
         <v>0</v>
@@ -5534,7 +5547,7 @@
       <c r="I3" s="127"/>
       <c r="J3" s="128"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1">
+    <row r="4" spans="1:14" ht="15" thickBot="1">
       <c r="A4" s="135" t="s">
         <v>1</v>
       </c>
@@ -5552,7 +5565,7 @@
       <c r="I4" s="130"/>
       <c r="J4" s="131"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1">
+    <row r="5" spans="1:14" ht="15" thickBot="1">
       <c r="A5" s="132"/>
       <c r="B5" s="133"/>
       <c r="C5" s="133"/>
@@ -5564,7 +5577,7 @@
       <c r="I5" s="133"/>
       <c r="J5" s="134"/>
     </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" ht="30.75" thickBot="1">
+    <row r="6" spans="1:14" s="3" customFormat="1" ht="29.4" thickBot="1">
       <c r="A6" s="118" t="s">
         <v>3</v>
       </c>
@@ -5594,7 +5607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1">
+    <row r="7" spans="1:14" ht="15" thickBot="1">
       <c r="A7" s="14">
         <v>1</v>
       </c>
@@ -5624,7 +5637,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1">
+    <row r="8" spans="1:14" ht="15" thickBot="1">
       <c r="A8" s="14">
         <f>A7+1</f>
         <v>2</v>
@@ -5659,7 +5672,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1">
+    <row r="9" spans="1:14" ht="15" thickBot="1">
       <c r="A9" s="14">
         <f t="shared" ref="A9:A20" si="1">A8+1</f>
         <v>3</v>
@@ -5687,7 +5700,7 @@
       </c>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1">
+    <row r="10" spans="1:14" ht="15" thickBot="1">
       <c r="A10" s="14">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -5717,7 +5730,7 @@
       </c>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1">
+    <row r="11" spans="1:14" ht="15" thickBot="1">
       <c r="A11" s="14">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -5747,7 +5760,7 @@
       </c>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1">
+    <row r="12" spans="1:14" ht="15" thickBot="1">
       <c r="A12" s="14">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -5775,7 +5788,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" thickBot="1">
+    <row r="13" spans="1:14" ht="15" thickBot="1">
       <c r="A13" s="14">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -5805,7 +5818,7 @@
       </c>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1">
+    <row r="14" spans="1:14" ht="15" thickBot="1">
       <c r="A14" s="14">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -5833,7 +5846,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1">
+    <row r="15" spans="1:14" ht="15" thickBot="1">
       <c r="A15" s="14">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -5861,7 +5874,7 @@
       </c>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1">
+    <row r="16" spans="1:14" ht="15" thickBot="1">
       <c r="A16" s="14">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -5889,7 +5902,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1">
+    <row r="17" spans="1:10" ht="15" thickBot="1">
       <c r="A17" s="14">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -5917,7 +5930,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1">
+    <row r="18" spans="1:10" ht="15" thickBot="1">
       <c r="A18" s="14">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -5947,7 +5960,7 @@
       </c>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1">
+    <row r="19" spans="1:10" ht="15" thickBot="1">
       <c r="A19" s="14">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -5977,7 +5990,7 @@
       </c>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1">
+    <row r="20" spans="1:10" ht="15" thickBot="1">
       <c r="A20" s="14">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -6007,7 +6020,7 @@
       </c>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1">
+    <row r="21" spans="1:10" ht="15" thickBot="1">
       <c r="A21" s="14">
         <v>15</v>
       </c>
@@ -6036,7 +6049,7 @@
       </c>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1">
+    <row r="22" spans="1:10" ht="15" thickBot="1">
       <c r="A22" s="14">
         <v>16</v>
       </c>
@@ -6063,7 +6076,7 @@
       <c r="I22" s="5"/>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1">
+    <row r="23" spans="1:10" ht="15" thickBot="1">
       <c r="A23" s="14">
         <v>17</v>
       </c>
@@ -6092,7 +6105,7 @@
       </c>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="1:10" ht="15.75" thickBot="1">
+    <row r="24" spans="1:10" ht="15" thickBot="1">
       <c r="A24" s="14">
         <v>18</v>
       </c>
@@ -6109,7 +6122,7 @@
       <c r="I24" s="5"/>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="1:10" ht="15.75" thickBot="1">
+    <row r="25" spans="1:10" ht="15" thickBot="1">
       <c r="A25" s="14">
         <v>19</v>
       </c>
@@ -6126,7 +6139,7 @@
       <c r="I25" s="5"/>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1">
+    <row r="26" spans="1:10" ht="15" thickBot="1">
       <c r="A26" s="14">
         <v>20</v>
       </c>
@@ -6143,7 +6156,7 @@
       <c r="I26" s="5"/>
       <c r="J26" s="8"/>
     </row>
-    <row r="27" spans="1:10" ht="15.75" thickBot="1">
+    <row r="27" spans="1:10" ht="15" thickBot="1">
       <c r="A27" s="14">
         <v>21</v>
       </c>
@@ -6160,7 +6173,7 @@
       <c r="I27" s="21"/>
       <c r="J27" s="22"/>
     </row>
-    <row r="28" spans="1:10" ht="15.75" thickBot="1">
+    <row r="28" spans="1:10" ht="15" thickBot="1">
       <c r="A28" s="137" t="s">
         <v>21</v>
       </c>
@@ -6201,22 +6214,22 @@
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
     <col min="6" max="6" width="11" style="66" customWidth="1"/>
-    <col min="7" max="7" width="55.7109375" customWidth="1"/>
-    <col min="8" max="8" width="63.42578125" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" customWidth="1"/>
-    <col min="14" max="14" width="26.7109375" customWidth="1"/>
+    <col min="7" max="7" width="55.6640625" customWidth="1"/>
+    <col min="8" max="8" width="63.44140625" customWidth="1"/>
+    <col min="9" max="9" width="3.44140625" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
+    <col min="14" max="14" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
+    <row r="1" spans="1:14" ht="15" thickBot="1"/>
     <row r="2" spans="1:14">
       <c r="A2" s="123" t="s">
         <v>0</v>
@@ -6243,7 +6256,7 @@
       <c r="I3" s="127"/>
       <c r="J3" s="128"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1">
+    <row r="4" spans="1:14" ht="15" thickBot="1">
       <c r="A4" s="135" t="s">
         <v>1</v>
       </c>
@@ -6261,7 +6274,7 @@
       <c r="I4" s="130"/>
       <c r="J4" s="131"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1">
+    <row r="5" spans="1:14" ht="15" thickBot="1">
       <c r="A5" s="132"/>
       <c r="B5" s="133"/>
       <c r="C5" s="133"/>
@@ -6273,7 +6286,7 @@
       <c r="I5" s="133"/>
       <c r="J5" s="134"/>
     </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" ht="30.75" thickBot="1">
+    <row r="6" spans="1:14" s="3" customFormat="1" ht="29.4" thickBot="1">
       <c r="A6" s="118" t="s">
         <v>3</v>
       </c>
@@ -6303,7 +6316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1">
+    <row r="7" spans="1:14" ht="15" thickBot="1">
       <c r="A7" s="14">
         <v>1</v>
       </c>
@@ -6337,7 +6350,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1">
+    <row r="8" spans="1:14" ht="15" thickBot="1">
       <c r="A8" s="14">
         <v>2</v>
       </c>
@@ -6369,7 +6382,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1">
+    <row r="9" spans="1:14" ht="15" thickBot="1">
       <c r="A9" s="14">
         <v>3</v>
       </c>
@@ -6396,7 +6409,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1">
+    <row r="10" spans="1:14" ht="15" thickBot="1">
       <c r="A10" s="14">
         <v>4</v>
       </c>
@@ -6424,7 +6437,7 @@
       </c>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1">
+    <row r="11" spans="1:14" ht="15" thickBot="1">
       <c r="A11" s="14">
         <v>5</v>
       </c>
@@ -6453,7 +6466,7 @@
       </c>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1">
+    <row r="12" spans="1:14" ht="15" thickBot="1">
       <c r="A12" s="14">
         <v>6</v>
       </c>
@@ -6484,7 +6497,7 @@
       </c>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" thickBot="1">
+    <row r="13" spans="1:14" ht="15" thickBot="1">
       <c r="A13" s="14">
         <v>7</v>
       </c>
@@ -6511,7 +6524,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1">
+    <row r="14" spans="1:14" ht="15" thickBot="1">
       <c r="A14" s="14">
         <v>8</v>
       </c>
@@ -6536,7 +6549,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1">
+    <row r="15" spans="1:14" ht="15" thickBot="1">
       <c r="A15" s="14">
         <v>9</v>
       </c>
@@ -6563,7 +6576,7 @@
       </c>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1">
+    <row r="16" spans="1:14" ht="15" thickBot="1">
       <c r="A16" s="14">
         <v>10</v>
       </c>
@@ -6588,7 +6601,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1">
+    <row r="17" spans="1:10" ht="15" thickBot="1">
       <c r="A17" s="14">
         <v>11</v>
       </c>
@@ -6617,7 +6630,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1">
+    <row r="18" spans="1:10" ht="15" thickBot="1">
       <c r="A18" s="14">
         <v>12</v>
       </c>
@@ -6646,7 +6659,7 @@
       </c>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1">
+    <row r="19" spans="1:10" ht="15" thickBot="1">
       <c r="A19" s="14">
         <v>13</v>
       </c>
@@ -6671,7 +6684,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1">
+    <row r="20" spans="1:10" ht="15" thickBot="1">
       <c r="A20" s="14">
         <v>14</v>
       </c>
@@ -6696,7 +6709,7 @@
       <c r="I20" s="5"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1">
+    <row r="21" spans="1:10" ht="15" thickBot="1">
       <c r="A21" s="14">
         <v>15</v>
       </c>
@@ -6725,7 +6738,7 @@
       <c r="I21" s="5"/>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1">
+    <row r="22" spans="1:10" ht="15" thickBot="1">
       <c r="A22" s="14">
         <v>16</v>
       </c>
@@ -6754,7 +6767,7 @@
       </c>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1">
+    <row r="23" spans="1:10" ht="15" thickBot="1">
       <c r="A23" s="14">
         <v>17</v>
       </c>
@@ -6785,7 +6798,7 @@
       </c>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="1:10" ht="15.75" thickBot="1">
+    <row r="24" spans="1:10" ht="15" thickBot="1">
       <c r="A24" s="14">
         <v>18</v>
       </c>
@@ -6814,7 +6827,7 @@
       </c>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="1:10" ht="15.75" thickBot="1">
+    <row r="25" spans="1:10" ht="15" thickBot="1">
       <c r="A25" s="14">
         <v>19</v>
       </c>
@@ -6831,7 +6844,7 @@
       <c r="I25" s="5"/>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1">
+    <row r="26" spans="1:10" ht="15" thickBot="1">
       <c r="A26" s="14">
         <v>20</v>
       </c>
@@ -6848,7 +6861,7 @@
       <c r="I26" s="21"/>
       <c r="J26" s="22"/>
     </row>
-    <row r="27" spans="1:10" ht="15.75" thickBot="1">
+    <row r="27" spans="1:10" ht="15" thickBot="1">
       <c r="A27" s="120" t="s">
         <v>102</v>
       </c>
@@ -6889,24 +6902,24 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="69" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="70" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="71" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="71" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="69" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="69" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="70" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="71" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="71" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="69" customWidth="1"/>
     <col min="6" max="6" width="11" style="72" customWidth="1"/>
-    <col min="7" max="7" width="55.7109375" style="69" customWidth="1"/>
-    <col min="8" max="8" width="63.42578125" style="69" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" style="69" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="69" customWidth="1"/>
-    <col min="11" max="13" width="8.7109375" style="69"/>
-    <col min="14" max="14" width="26.7109375" style="69" customWidth="1"/>
-    <col min="15" max="16384" width="8.7109375" style="69"/>
+    <col min="7" max="7" width="55.6640625" style="69" customWidth="1"/>
+    <col min="8" max="8" width="63.44140625" style="69" customWidth="1"/>
+    <col min="9" max="9" width="3.44140625" style="69" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" style="69" customWidth="1"/>
+    <col min="11" max="13" width="8.6640625" style="69"/>
+    <col min="14" max="14" width="26.6640625" style="69" customWidth="1"/>
+    <col min="15" max="16384" width="8.6640625" style="69"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
+    <row r="1" spans="1:14" ht="15" thickBot="1"/>
     <row r="2" spans="1:14">
       <c r="A2" s="123" t="s">
         <v>0</v>
@@ -6933,7 +6946,7 @@
       <c r="I3" s="127"/>
       <c r="J3" s="128"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1">
+    <row r="4" spans="1:14" ht="15" thickBot="1">
       <c r="A4" s="135" t="s">
         <v>1</v>
       </c>
@@ -6951,7 +6964,7 @@
       <c r="I4" s="141"/>
       <c r="J4" s="142"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1">
+    <row r="5" spans="1:14" ht="15" thickBot="1">
       <c r="A5" s="143"/>
       <c r="B5" s="144"/>
       <c r="C5" s="144"/>
@@ -6963,7 +6976,7 @@
       <c r="I5" s="144"/>
       <c r="J5" s="145"/>
     </row>
-    <row r="6" spans="1:14" s="73" customFormat="1" ht="30.75" thickBot="1">
+    <row r="6" spans="1:14" s="73" customFormat="1" ht="29.4" thickBot="1">
       <c r="A6" s="118" t="s">
         <v>3</v>
       </c>
@@ -6993,7 +7006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1">
+    <row r="7" spans="1:14" ht="15" thickBot="1">
       <c r="A7" s="74">
         <v>1</v>
       </c>
@@ -7025,7 +7038,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1">
+    <row r="8" spans="1:14" ht="15" thickBot="1">
       <c r="A8" s="74">
         <f>A7+1</f>
         <v>2</v>
@@ -7056,7 +7069,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1">
+    <row r="9" spans="1:14" ht="15" thickBot="1">
       <c r="A9" s="74">
         <f>A8+1</f>
         <v>3</v>
@@ -7084,7 +7097,7 @@
       </c>
       <c r="J9" s="83"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1">
+    <row r="10" spans="1:14" ht="15" thickBot="1">
       <c r="A10" s="74">
         <v>4</v>
       </c>
@@ -7113,7 +7126,7 @@
       <c r="I10" s="82"/>
       <c r="J10" s="83"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1">
+    <row r="11" spans="1:14" ht="15" thickBot="1">
       <c r="A11" s="74">
         <f>A10+1</f>
         <v>5</v>
@@ -7143,7 +7156,7 @@
       </c>
       <c r="J11" s="83"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1">
+    <row r="12" spans="1:14" ht="15" thickBot="1">
       <c r="A12" s="74">
         <f>A11+1</f>
         <v>6</v>
@@ -7171,7 +7184,7 @@
       <c r="I12" s="82"/>
       <c r="J12" s="83"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" thickBot="1">
+    <row r="13" spans="1:14" ht="15" thickBot="1">
       <c r="A13" s="74">
         <v>7</v>
       </c>
@@ -7198,7 +7211,7 @@
       </c>
       <c r="J13" s="83"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1">
+    <row r="14" spans="1:14" ht="15" thickBot="1">
       <c r="A14" s="74">
         <f>A13+1</f>
         <v>8</v>
@@ -7226,7 +7239,7 @@
       <c r="I14" s="82"/>
       <c r="J14" s="83"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1">
+    <row r="15" spans="1:14" ht="15" thickBot="1">
       <c r="A15" s="74">
         <f>A14+1</f>
         <v>9</v>
@@ -7254,7 +7267,7 @@
       </c>
       <c r="J15" s="83"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1">
+    <row r="16" spans="1:14" ht="15" thickBot="1">
       <c r="A16" s="74">
         <v>10</v>
       </c>
@@ -7279,7 +7292,7 @@
       <c r="I16" s="82"/>
       <c r="J16" s="83"/>
     </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1">
+    <row r="17" spans="1:10" ht="15" thickBot="1">
       <c r="A17" s="74">
         <f>A16+1</f>
         <v>11</v>
@@ -7309,7 +7322,7 @@
       <c r="I17" s="82"/>
       <c r="J17" s="83"/>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1">
+    <row r="18" spans="1:10" ht="15" thickBot="1">
       <c r="A18" s="74">
         <f>A17+1</f>
         <v>12</v>
@@ -7335,7 +7348,7 @@
       <c r="I18" s="82"/>
       <c r="J18" s="83"/>
     </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1">
+    <row r="19" spans="1:10" ht="15" thickBot="1">
       <c r="A19" s="74">
         <v>13</v>
       </c>
@@ -7360,7 +7373,7 @@
       <c r="I19" s="82"/>
       <c r="J19" s="83"/>
     </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1">
+    <row r="20" spans="1:10" ht="15" thickBot="1">
       <c r="A20" s="74">
         <f>A19+1</f>
         <v>14</v>
@@ -7386,7 +7399,7 @@
       <c r="I20" s="82"/>
       <c r="J20" s="83"/>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1">
+    <row r="21" spans="1:10" ht="15" thickBot="1">
       <c r="A21" s="74">
         <f>A20+1</f>
         <v>15</v>
@@ -7414,7 +7427,7 @@
       <c r="I21" s="82"/>
       <c r="J21" s="83"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1">
+    <row r="22" spans="1:10" ht="15" thickBot="1">
       <c r="A22" s="74">
         <v>16</v>
       </c>
@@ -7443,7 +7456,7 @@
       </c>
       <c r="J22" s="83"/>
     </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1">
+    <row r="23" spans="1:10" ht="15" thickBot="1">
       <c r="A23" s="74">
         <f>A22+1</f>
         <v>17</v>
@@ -7469,7 +7482,7 @@
       <c r="I23" s="82"/>
       <c r="J23" s="83"/>
     </row>
-    <row r="24" spans="1:10" ht="15.75" thickBot="1">
+    <row r="24" spans="1:10" ht="15" thickBot="1">
       <c r="A24" s="74">
         <f>A23+1</f>
         <v>18</v>
@@ -7497,7 +7510,7 @@
       </c>
       <c r="J24" s="83"/>
     </row>
-    <row r="25" spans="1:10" ht="15.75" thickBot="1">
+    <row r="25" spans="1:10" ht="15" thickBot="1">
       <c r="A25" s="74">
         <v>19</v>
       </c>
@@ -7528,7 +7541,7 @@
       </c>
       <c r="J25" s="83"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1">
+    <row r="26" spans="1:10" ht="15" thickBot="1">
       <c r="A26" s="74">
         <f>A25+1</f>
         <v>20</v>
@@ -7560,7 +7573,7 @@
       </c>
       <c r="J26" s="83"/>
     </row>
-    <row r="27" spans="1:10" ht="15.75" thickBot="1">
+    <row r="27" spans="1:10" ht="15" thickBot="1">
       <c r="A27" s="74">
         <f>A26+1</f>
         <v>21</v>
@@ -7590,7 +7603,7 @@
       </c>
       <c r="J27" s="83"/>
     </row>
-    <row r="28" spans="1:10" ht="15.75" thickBot="1">
+    <row r="28" spans="1:10" ht="15" thickBot="1">
       <c r="A28" s="74">
         <v>22</v>
       </c>
@@ -7607,7 +7620,7 @@
       <c r="I28" s="82"/>
       <c r="J28" s="83"/>
     </row>
-    <row r="29" spans="1:10" ht="15.75" thickBot="1">
+    <row r="29" spans="1:10" ht="15" thickBot="1">
       <c r="A29" s="74">
         <f>A28+1</f>
         <v>23</v>
@@ -7625,7 +7638,7 @@
       <c r="I29" s="82"/>
       <c r="J29" s="83"/>
     </row>
-    <row r="30" spans="1:10" ht="15.75" thickBot="1">
+    <row r="30" spans="1:10" ht="15" thickBot="1">
       <c r="A30" s="74">
         <f>A29+1</f>
         <v>24</v>
@@ -7643,7 +7656,7 @@
       <c r="I30" s="82"/>
       <c r="J30" s="83"/>
     </row>
-    <row r="31" spans="1:10" ht="15.75" thickBot="1">
+    <row r="31" spans="1:10" ht="15" thickBot="1">
       <c r="A31" s="74">
         <v>25</v>
       </c>
@@ -7660,7 +7673,7 @@
       <c r="I31" s="82"/>
       <c r="J31" s="83"/>
     </row>
-    <row r="32" spans="1:10" ht="15.75" thickBot="1">
+    <row r="32" spans="1:10" ht="15" thickBot="1">
       <c r="A32" s="74">
         <f>A31+1</f>
         <v>26</v>
@@ -7678,7 +7691,7 @@
       <c r="I32" s="87"/>
       <c r="J32" s="88"/>
     </row>
-    <row r="33" spans="1:10" ht="15.75" thickBot="1">
+    <row r="33" spans="1:10" ht="15" thickBot="1">
       <c r="A33" s="120" t="s">
         <v>102</v>
       </c>
@@ -7719,22 +7732,22 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
     <col min="6" max="6" width="11" style="66" customWidth="1"/>
-    <col min="7" max="7" width="55.7109375" customWidth="1"/>
-    <col min="8" max="8" width="63.42578125" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" customWidth="1"/>
-    <col min="14" max="14" width="26.7109375" customWidth="1"/>
+    <col min="7" max="7" width="55.6640625" customWidth="1"/>
+    <col min="8" max="8" width="63.44140625" customWidth="1"/>
+    <col min="9" max="9" width="3.44140625" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
+    <col min="14" max="14" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
+    <row r="1" spans="1:14" ht="15" thickBot="1"/>
     <row r="2" spans="1:14">
       <c r="A2" s="123" t="s">
         <v>0</v>
@@ -7761,7 +7774,7 @@
       <c r="I3" s="127"/>
       <c r="J3" s="128"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1">
+    <row r="4" spans="1:14" ht="15" thickBot="1">
       <c r="A4" s="135" t="s">
         <v>1</v>
       </c>
@@ -7779,7 +7792,7 @@
       <c r="I4" s="130"/>
       <c r="J4" s="131"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1">
+    <row r="5" spans="1:14" ht="15" thickBot="1">
       <c r="A5" s="132"/>
       <c r="B5" s="133"/>
       <c r="C5" s="133"/>
@@ -7791,7 +7804,7 @@
       <c r="I5" s="133"/>
       <c r="J5" s="134"/>
     </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" ht="30.75" thickBot="1">
+    <row r="6" spans="1:14" s="3" customFormat="1" ht="29.4" thickBot="1">
       <c r="A6" s="118" t="s">
         <v>3</v>
       </c>
@@ -7821,7 +7834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1">
+    <row r="7" spans="1:14" ht="15" thickBot="1">
       <c r="A7" s="14">
         <v>1</v>
       </c>
@@ -7855,7 +7868,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1">
+    <row r="8" spans="1:14" ht="15" thickBot="1">
       <c r="A8" s="14">
         <v>2</v>
       </c>
@@ -7887,7 +7900,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1">
+    <row r="9" spans="1:14" ht="15" thickBot="1">
       <c r="A9" s="14">
         <v>3</v>
       </c>
@@ -7912,7 +7925,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1">
+    <row r="10" spans="1:14" ht="15" thickBot="1">
       <c r="A10" s="14">
         <v>4</v>
       </c>
@@ -7939,7 +7952,7 @@
       </c>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1">
+    <row r="11" spans="1:14" ht="15" thickBot="1">
       <c r="A11" s="14">
         <v>5</v>
       </c>
@@ -7964,7 +7977,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1">
+    <row r="12" spans="1:14" ht="15" thickBot="1">
       <c r="A12" s="14">
         <v>6</v>
       </c>
@@ -7993,7 +8006,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" thickBot="1">
+    <row r="13" spans="1:14" ht="15" thickBot="1">
       <c r="A13" s="14">
         <v>7</v>
       </c>
@@ -8018,7 +8031,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1">
+    <row r="14" spans="1:14" ht="15" thickBot="1">
       <c r="A14" s="14">
         <v>8</v>
       </c>
@@ -8045,7 +8058,7 @@
       </c>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1">
+    <row r="15" spans="1:14" ht="15" thickBot="1">
       <c r="A15" s="14">
         <v>9</v>
       </c>
@@ -8072,7 +8085,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1">
+    <row r="16" spans="1:14" ht="15" thickBot="1">
       <c r="A16" s="14">
         <v>10</v>
       </c>
@@ -8101,7 +8114,7 @@
       </c>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1">
+    <row r="17" spans="1:10" ht="15" thickBot="1">
       <c r="A17" s="14">
         <v>11</v>
       </c>
@@ -8130,7 +8143,7 @@
       </c>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1">
+    <row r="18" spans="1:10" ht="15" thickBot="1">
       <c r="A18" s="14">
         <v>12</v>
       </c>
@@ -8157,7 +8170,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1">
+    <row r="19" spans="1:10" ht="15" thickBot="1">
       <c r="A19" s="14">
         <v>13</v>
       </c>
@@ -8182,7 +8195,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1">
+    <row r="20" spans="1:10" ht="15" thickBot="1">
       <c r="A20" s="14">
         <v>14</v>
       </c>
@@ -8209,7 +8222,7 @@
       <c r="I20" s="5"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1">
+    <row r="21" spans="1:10" ht="15" thickBot="1">
       <c r="A21" s="14">
         <v>15</v>
       </c>
@@ -8238,7 +8251,7 @@
       </c>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1">
+    <row r="22" spans="1:10" ht="15" thickBot="1">
       <c r="A22" s="14">
         <v>16</v>
       </c>
@@ -8265,7 +8278,7 @@
       <c r="I22" s="5"/>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1">
+    <row r="23" spans="1:10" ht="15" thickBot="1">
       <c r="A23" s="14">
         <v>17</v>
       </c>
@@ -8292,7 +8305,7 @@
       <c r="I23" s="5"/>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="1:10" ht="15.75" thickBot="1">
+    <row r="24" spans="1:10" ht="15" thickBot="1">
       <c r="A24" s="14">
         <v>18</v>
       </c>
@@ -8317,7 +8330,7 @@
       <c r="I24" s="5"/>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="1:10" ht="15.75" thickBot="1">
+    <row r="25" spans="1:10" ht="15" thickBot="1">
       <c r="A25" s="14">
         <v>19</v>
       </c>
@@ -8334,7 +8347,7 @@
       <c r="I25" s="5"/>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1">
+    <row r="26" spans="1:10" ht="15" thickBot="1">
       <c r="A26" s="14">
         <v>20</v>
       </c>
@@ -8351,7 +8364,7 @@
       <c r="I26" s="21"/>
       <c r="J26" s="22"/>
     </row>
-    <row r="27" spans="1:10" ht="15.75" thickBot="1">
+    <row r="27" spans="1:10" ht="15" thickBot="1">
       <c r="A27" s="120" t="s">
         <v>102</v>
       </c>
@@ -8392,22 +8405,22 @@
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
     <col min="6" max="6" width="11" style="66" customWidth="1"/>
-    <col min="7" max="7" width="55.7109375" customWidth="1"/>
-    <col min="8" max="8" width="63.42578125" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" customWidth="1"/>
-    <col min="14" max="14" width="26.7109375" customWidth="1"/>
+    <col min="7" max="7" width="55.6640625" customWidth="1"/>
+    <col min="8" max="8" width="63.44140625" customWidth="1"/>
+    <col min="9" max="9" width="3.44140625" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
+    <col min="14" max="14" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1"/>
+    <row r="1" spans="1:14" ht="15" thickBot="1"/>
     <row r="2" spans="1:14">
       <c r="A2" s="123" t="s">
         <v>0</v>
@@ -8434,7 +8447,7 @@
       <c r="I3" s="127"/>
       <c r="J3" s="128"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1">
+    <row r="4" spans="1:14" ht="15" thickBot="1">
       <c r="A4" s="135" t="s">
         <v>1</v>
       </c>
@@ -8452,7 +8465,7 @@
       <c r="I4" s="130"/>
       <c r="J4" s="131"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1">
+    <row r="5" spans="1:14" ht="15" thickBot="1">
       <c r="A5" s="132"/>
       <c r="B5" s="133"/>
       <c r="C5" s="133"/>
@@ -8464,7 +8477,7 @@
       <c r="I5" s="133"/>
       <c r="J5" s="134"/>
     </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" ht="32.25" thickBot="1">
+    <row r="6" spans="1:14" s="3" customFormat="1" ht="31.8" thickBot="1">
       <c r="A6" s="149" t="s">
         <v>3</v>
       </c>
@@ -8494,7 +8507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="16.5" thickBot="1">
+    <row r="7" spans="1:14" ht="16.2" thickBot="1">
       <c r="A7" s="97">
         <v>1</v>
       </c>
@@ -8528,7 +8541,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="16.5" thickBot="1">
+    <row r="8" spans="1:14" ht="16.2" thickBot="1">
       <c r="A8" s="97">
         <f>A7+1</f>
         <v>2</v>
@@ -8561,7 +8574,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="16.5" thickBot="1">
+    <row r="9" spans="1:14" ht="16.2" thickBot="1">
       <c r="A9" s="97">
         <f t="shared" ref="A9:A21" si="1">A8+1</f>
         <v>3</v>
@@ -8593,7 +8606,7 @@
       </c>
       <c r="J9" s="106"/>
     </row>
-    <row r="10" spans="1:14" ht="16.5" thickBot="1">
+    <row r="10" spans="1:14" ht="16.2" thickBot="1">
       <c r="A10" s="97">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -8619,7 +8632,7 @@
       <c r="I10" s="105"/>
       <c r="J10" s="106"/>
     </row>
-    <row r="11" spans="1:14" ht="16.5" thickBot="1">
+    <row r="11" spans="1:14" ht="16.2" thickBot="1">
       <c r="A11" s="97">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -8649,7 +8662,7 @@
       <c r="I11" s="105"/>
       <c r="J11" s="106"/>
     </row>
-    <row r="12" spans="1:14" ht="16.5" thickBot="1">
+    <row r="12" spans="1:14" ht="16.2" thickBot="1">
       <c r="A12" s="97">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -8677,7 +8690,7 @@
       <c r="I12" s="105"/>
       <c r="J12" s="106"/>
     </row>
-    <row r="13" spans="1:14" ht="16.5" thickBot="1">
+    <row r="13" spans="1:14" ht="16.2" thickBot="1">
       <c r="A13" s="97">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -8709,7 +8722,7 @@
       </c>
       <c r="J13" s="106"/>
     </row>
-    <row r="14" spans="1:14" ht="16.5" thickBot="1">
+    <row r="14" spans="1:14" ht="16.2" thickBot="1">
       <c r="A14" s="97">
         <v>8</v>
       </c>
@@ -8734,7 +8747,7 @@
       <c r="I14" s="105"/>
       <c r="J14" s="106"/>
     </row>
-    <row r="15" spans="1:14" ht="16.5" thickBot="1">
+    <row r="15" spans="1:14" ht="16.2" thickBot="1">
       <c r="A15" s="97">
         <v>9</v>
       </c>
@@ -8765,7 +8778,7 @@
       </c>
       <c r="J15" s="106"/>
     </row>
-    <row r="16" spans="1:14" ht="16.5" thickBot="1">
+    <row r="16" spans="1:14" ht="16.2" thickBot="1">
       <c r="A16" s="97">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -8791,7 +8804,7 @@
       <c r="I16" s="105"/>
       <c r="J16" s="106"/>
     </row>
-    <row r="17" spans="1:10" ht="16.5" thickBot="1">
+    <row r="17" spans="1:10" ht="16.2" thickBot="1">
       <c r="A17" s="97">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -8819,7 +8832,7 @@
       <c r="I17" s="105"/>
       <c r="J17" s="106"/>
     </row>
-    <row r="18" spans="1:10" ht="16.5" thickBot="1">
+    <row r="18" spans="1:10" ht="16.2" thickBot="1">
       <c r="A18" s="97">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -8845,7 +8858,7 @@
       <c r="I18" s="105"/>
       <c r="J18" s="106"/>
     </row>
-    <row r="19" spans="1:10" ht="16.5" thickBot="1">
+    <row r="19" spans="1:10" ht="16.2" thickBot="1">
       <c r="A19" s="97">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -8871,7 +8884,7 @@
       <c r="I19" s="105"/>
       <c r="J19" s="106"/>
     </row>
-    <row r="20" spans="1:10" ht="16.5" thickBot="1">
+    <row r="20" spans="1:10" ht="16.2" thickBot="1">
       <c r="A20" s="97">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -8901,7 +8914,7 @@
       </c>
       <c r="J20" s="106"/>
     </row>
-    <row r="21" spans="1:10" ht="16.5" thickBot="1">
+    <row r="21" spans="1:10" ht="16.2" thickBot="1">
       <c r="A21" s="97">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -8933,7 +8946,7 @@
       </c>
       <c r="J21" s="106"/>
     </row>
-    <row r="22" spans="1:10" ht="16.5" thickBot="1">
+    <row r="22" spans="1:10" ht="16.2" thickBot="1">
       <c r="A22" s="97">
         <v>16</v>
       </c>
@@ -9018,7 +9031,7 @@
       </c>
       <c r="J24" s="106"/>
     </row>
-    <row r="25" spans="1:10" ht="16.5" thickBot="1">
+    <row r="25" spans="1:10" ht="16.2" thickBot="1">
       <c r="A25" s="97">
         <v>19</v>
       </c>
@@ -9045,7 +9058,7 @@
       <c r="I25" s="105"/>
       <c r="J25" s="106"/>
     </row>
-    <row r="26" spans="1:10" ht="16.5" thickBot="1">
+    <row r="26" spans="1:10" ht="16.2" thickBot="1">
       <c r="A26" s="97">
         <v>20</v>
       </c>
@@ -9074,7 +9087,7 @@
       <c r="I26" s="105"/>
       <c r="J26" s="106"/>
     </row>
-    <row r="27" spans="1:10" ht="16.5" thickBot="1">
+    <row r="27" spans="1:10" ht="16.2" thickBot="1">
       <c r="A27" s="97">
         <v>21</v>
       </c>
@@ -9091,7 +9104,7 @@
       <c r="I27" s="109"/>
       <c r="J27" s="110"/>
     </row>
-    <row r="28" spans="1:10" ht="16.5" thickBot="1">
+    <row r="28" spans="1:10" ht="16.2" thickBot="1">
       <c r="A28" s="146" t="s">
         <v>102</v>
       </c>
